--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,1735 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="3776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="4352">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -11397,28 +13125,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3200</v>
+        <v>3776</v>
       </c>
       <c r="B1" t="s">
-        <v>3201</v>
+        <v>3777</v>
       </c>
       <c r="C1" t="s">
-        <v>3230</v>
+        <v>3806</v>
       </c>
       <c r="D1" t="s">
-        <v>3259</v>
+        <v>3835</v>
       </c>
       <c r="E1" t="s">
-        <v>3260</v>
+        <v>3836</v>
       </c>
       <c r="F1" t="s">
-        <v>3261</v>
+        <v>3837</v>
       </c>
       <c r="G1" t="s">
-        <v>3262</v>
+        <v>3838</v>
       </c>
       <c r="H1" t="s">
-        <v>3263</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="2">
@@ -11426,10 +13154,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>3202</v>
+        <v>3778</v>
       </c>
       <c r="C2" t="s">
-        <v>3231</v>
+        <v>3807</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -11450,10 +13178,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3203</v>
+        <v>3779</v>
       </c>
       <c r="C3" t="s">
-        <v>3232</v>
+        <v>3808</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -11470,10 +13198,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3204</v>
+        <v>3780</v>
       </c>
       <c r="C4" t="s">
-        <v>3233</v>
+        <v>3809</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -11490,10 +13218,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3205</v>
+        <v>3781</v>
       </c>
       <c r="C5" t="s">
-        <v>3234</v>
+        <v>3810</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -11510,10 +13238,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3206</v>
+        <v>3782</v>
       </c>
       <c r="C6" t="s">
-        <v>3235</v>
+        <v>3811</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -11530,10 +13258,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3207</v>
+        <v>3783</v>
       </c>
       <c r="C7" t="s">
-        <v>3236</v>
+        <v>3812</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -11550,10 +13278,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3208</v>
+        <v>3784</v>
       </c>
       <c r="C8" t="s">
-        <v>3237</v>
+        <v>3813</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -11570,10 +13298,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3209</v>
+        <v>3785</v>
       </c>
       <c r="C9" t="s">
-        <v>3238</v>
+        <v>3814</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -11590,10 +13318,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3210</v>
+        <v>3786</v>
       </c>
       <c r="C10" t="s">
-        <v>3239</v>
+        <v>3815</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -11610,10 +13338,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3211</v>
+        <v>3787</v>
       </c>
       <c r="C11" t="s">
-        <v>3240</v>
+        <v>3816</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -11630,10 +13358,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3212</v>
+        <v>3788</v>
       </c>
       <c r="C12" t="s">
-        <v>3241</v>
+        <v>3817</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -11650,10 +13378,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3213</v>
+        <v>3789</v>
       </c>
       <c r="C13" t="s">
-        <v>3242</v>
+        <v>3818</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -11670,10 +13398,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3214</v>
+        <v>3790</v>
       </c>
       <c r="C14" t="s">
-        <v>3243</v>
+        <v>3819</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -11690,10 +13418,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3215</v>
+        <v>3791</v>
       </c>
       <c r="C15" t="s">
-        <v>3244</v>
+        <v>3820</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -11710,10 +13438,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3216</v>
+        <v>3792</v>
       </c>
       <c r="C16" t="s">
-        <v>3245</v>
+        <v>3821</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -11730,10 +13458,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3217</v>
+        <v>3793</v>
       </c>
       <c r="C17" t="s">
-        <v>3246</v>
+        <v>3822</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -11750,10 +13478,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3218</v>
+        <v>3794</v>
       </c>
       <c r="C18" t="s">
-        <v>3247</v>
+        <v>3823</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -11770,10 +13498,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3219</v>
+        <v>3795</v>
       </c>
       <c r="C19" t="s">
-        <v>3248</v>
+        <v>3824</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -11790,10 +13518,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3220</v>
+        <v>3796</v>
       </c>
       <c r="C20" t="s">
-        <v>3249</v>
+        <v>3825</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -11810,10 +13538,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3221</v>
+        <v>3797</v>
       </c>
       <c r="C21" t="s">
-        <v>3250</v>
+        <v>3826</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -11830,10 +13558,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3222</v>
+        <v>3798</v>
       </c>
       <c r="C22" t="s">
-        <v>3251</v>
+        <v>3827</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -11850,10 +13578,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3223</v>
+        <v>3799</v>
       </c>
       <c r="C23" t="s">
-        <v>3252</v>
+        <v>3828</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -11870,10 +13598,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3224</v>
+        <v>3800</v>
       </c>
       <c r="C24" t="s">
-        <v>3253</v>
+        <v>3829</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -11890,10 +13618,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3225</v>
+        <v>3801</v>
       </c>
       <c r="C25" t="s">
-        <v>3254</v>
+        <v>3830</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -11910,10 +13638,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3226</v>
+        <v>3802</v>
       </c>
       <c r="C26" t="s">
-        <v>3255</v>
+        <v>3831</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -11930,10 +13658,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3227</v>
+        <v>3803</v>
       </c>
       <c r="C27" t="s">
-        <v>3256</v>
+        <v>3832</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -11950,10 +13678,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3228</v>
+        <v>3804</v>
       </c>
       <c r="C28" t="s">
-        <v>3257</v>
+        <v>3833</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -11970,10 +13698,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3229</v>
+        <v>3805</v>
       </c>
       <c r="C29" t="s">
-        <v>3258</v>
+        <v>3834</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -11998,28 +13726,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3264</v>
+        <v>3840</v>
       </c>
       <c r="B1" t="s">
-        <v>3265</v>
+        <v>3841</v>
       </c>
       <c r="C1" t="s">
-        <v>3294</v>
+        <v>3870</v>
       </c>
       <c r="D1" t="s">
-        <v>3323</v>
+        <v>3899</v>
       </c>
       <c r="E1" t="s">
-        <v>3324</v>
+        <v>3900</v>
       </c>
       <c r="F1" t="s">
-        <v>3325</v>
+        <v>3901</v>
       </c>
       <c r="G1" t="s">
-        <v>3326</v>
+        <v>3902</v>
       </c>
       <c r="H1" t="s">
-        <v>3327</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="2">
@@ -12027,10 +13755,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>3266</v>
+        <v>3842</v>
       </c>
       <c r="C2" t="s">
-        <v>3295</v>
+        <v>3871</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -12051,10 +13779,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3267</v>
+        <v>3843</v>
       </c>
       <c r="C3" t="s">
-        <v>3296</v>
+        <v>3872</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -12071,10 +13799,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3268</v>
+        <v>3844</v>
       </c>
       <c r="C4" t="s">
-        <v>3297</v>
+        <v>3873</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -12091,10 +13819,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3269</v>
+        <v>3845</v>
       </c>
       <c r="C5" t="s">
-        <v>3298</v>
+        <v>3874</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -12111,10 +13839,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3270</v>
+        <v>3846</v>
       </c>
       <c r="C6" t="s">
-        <v>3299</v>
+        <v>3875</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -12131,10 +13859,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3271</v>
+        <v>3847</v>
       </c>
       <c r="C7" t="s">
-        <v>3300</v>
+        <v>3876</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -12151,10 +13879,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3272</v>
+        <v>3848</v>
       </c>
       <c r="C8" t="s">
-        <v>3301</v>
+        <v>3877</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -12171,10 +13899,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3273</v>
+        <v>3849</v>
       </c>
       <c r="C9" t="s">
-        <v>3302</v>
+        <v>3878</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -12191,10 +13919,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3274</v>
+        <v>3850</v>
       </c>
       <c r="C10" t="s">
-        <v>3303</v>
+        <v>3879</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -12211,10 +13939,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3275</v>
+        <v>3851</v>
       </c>
       <c r="C11" t="s">
-        <v>3304</v>
+        <v>3880</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -12231,10 +13959,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3276</v>
+        <v>3852</v>
       </c>
       <c r="C12" t="s">
-        <v>3305</v>
+        <v>3881</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -12251,10 +13979,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3277</v>
+        <v>3853</v>
       </c>
       <c r="C13" t="s">
-        <v>3306</v>
+        <v>3882</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -12271,10 +13999,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3278</v>
+        <v>3854</v>
       </c>
       <c r="C14" t="s">
-        <v>3307</v>
+        <v>3883</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -12291,10 +14019,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3279</v>
+        <v>3855</v>
       </c>
       <c r="C15" t="s">
-        <v>3308</v>
+        <v>3884</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -12311,10 +14039,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3280</v>
+        <v>3856</v>
       </c>
       <c r="C16" t="s">
-        <v>3309</v>
+        <v>3885</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -12331,10 +14059,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3281</v>
+        <v>3857</v>
       </c>
       <c r="C17" t="s">
-        <v>3310</v>
+        <v>3886</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -12351,10 +14079,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3282</v>
+        <v>3858</v>
       </c>
       <c r="C18" t="s">
-        <v>3311</v>
+        <v>3887</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -12371,10 +14099,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3283</v>
+        <v>3859</v>
       </c>
       <c r="C19" t="s">
-        <v>3312</v>
+        <v>3888</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -12391,10 +14119,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3284</v>
+        <v>3860</v>
       </c>
       <c r="C20" t="s">
-        <v>3313</v>
+        <v>3889</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -12411,10 +14139,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3285</v>
+        <v>3861</v>
       </c>
       <c r="C21" t="s">
-        <v>3314</v>
+        <v>3890</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -12431,10 +14159,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3286</v>
+        <v>3862</v>
       </c>
       <c r="C22" t="s">
-        <v>3315</v>
+        <v>3891</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -12451,10 +14179,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3287</v>
+        <v>3863</v>
       </c>
       <c r="C23" t="s">
-        <v>3316</v>
+        <v>3892</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -12471,10 +14199,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3288</v>
+        <v>3864</v>
       </c>
       <c r="C24" t="s">
-        <v>3317</v>
+        <v>3893</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -12491,10 +14219,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3289</v>
+        <v>3865</v>
       </c>
       <c r="C25" t="s">
-        <v>3318</v>
+        <v>3894</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -12511,10 +14239,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3290</v>
+        <v>3866</v>
       </c>
       <c r="C26" t="s">
-        <v>3319</v>
+        <v>3895</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -12531,10 +14259,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3291</v>
+        <v>3867</v>
       </c>
       <c r="C27" t="s">
-        <v>3320</v>
+        <v>3896</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -12551,10 +14279,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3292</v>
+        <v>3868</v>
       </c>
       <c r="C28" t="s">
-        <v>3321</v>
+        <v>3897</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -12571,10 +14299,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3293</v>
+        <v>3869</v>
       </c>
       <c r="C29" t="s">
-        <v>3322</v>
+        <v>3898</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -12599,28 +14327,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3328</v>
+        <v>3904</v>
       </c>
       <c r="B1" t="s">
-        <v>3329</v>
+        <v>3905</v>
       </c>
       <c r="C1" t="s">
-        <v>3358</v>
+        <v>3934</v>
       </c>
       <c r="D1" t="s">
-        <v>3387</v>
+        <v>3963</v>
       </c>
       <c r="E1" t="s">
-        <v>3388</v>
+        <v>3964</v>
       </c>
       <c r="F1" t="s">
-        <v>3389</v>
+        <v>3965</v>
       </c>
       <c r="G1" t="s">
-        <v>3390</v>
+        <v>3966</v>
       </c>
       <c r="H1" t="s">
-        <v>3391</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="2">
@@ -12628,10 +14356,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>3330</v>
+        <v>3906</v>
       </c>
       <c r="C2" t="s">
-        <v>3359</v>
+        <v>3935</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -12652,10 +14380,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3331</v>
+        <v>3907</v>
       </c>
       <c r="C3" t="s">
-        <v>3360</v>
+        <v>3936</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -12672,10 +14400,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3332</v>
+        <v>3908</v>
       </c>
       <c r="C4" t="s">
-        <v>3361</v>
+        <v>3937</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -12692,10 +14420,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3333</v>
+        <v>3909</v>
       </c>
       <c r="C5" t="s">
-        <v>3362</v>
+        <v>3938</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -12712,10 +14440,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3334</v>
+        <v>3910</v>
       </c>
       <c r="C6" t="s">
-        <v>3363</v>
+        <v>3939</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -12732,10 +14460,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3335</v>
+        <v>3911</v>
       </c>
       <c r="C7" t="s">
-        <v>3364</v>
+        <v>3940</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -12752,10 +14480,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3336</v>
+        <v>3912</v>
       </c>
       <c r="C8" t="s">
-        <v>3365</v>
+        <v>3941</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -12772,10 +14500,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3337</v>
+        <v>3913</v>
       </c>
       <c r="C9" t="s">
-        <v>3366</v>
+        <v>3942</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -12792,10 +14520,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3338</v>
+        <v>3914</v>
       </c>
       <c r="C10" t="s">
-        <v>3367</v>
+        <v>3943</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -12812,10 +14540,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3339</v>
+        <v>3915</v>
       </c>
       <c r="C11" t="s">
-        <v>3368</v>
+        <v>3944</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -12832,10 +14560,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3340</v>
+        <v>3916</v>
       </c>
       <c r="C12" t="s">
-        <v>3369</v>
+        <v>3945</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -12852,10 +14580,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3341</v>
+        <v>3917</v>
       </c>
       <c r="C13" t="s">
-        <v>3370</v>
+        <v>3946</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -12872,10 +14600,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3342</v>
+        <v>3918</v>
       </c>
       <c r="C14" t="s">
-        <v>3371</v>
+        <v>3947</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -12892,10 +14620,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3343</v>
+        <v>3919</v>
       </c>
       <c r="C15" t="s">
-        <v>3372</v>
+        <v>3948</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -12912,10 +14640,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3344</v>
+        <v>3920</v>
       </c>
       <c r="C16" t="s">
-        <v>3373</v>
+        <v>3949</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -12932,10 +14660,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3345</v>
+        <v>3921</v>
       </c>
       <c r="C17" t="s">
-        <v>3374</v>
+        <v>3950</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -12952,10 +14680,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3346</v>
+        <v>3922</v>
       </c>
       <c r="C18" t="s">
-        <v>3375</v>
+        <v>3951</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -12972,10 +14700,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3347</v>
+        <v>3923</v>
       </c>
       <c r="C19" t="s">
-        <v>3376</v>
+        <v>3952</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -12992,10 +14720,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3348</v>
+        <v>3924</v>
       </c>
       <c r="C20" t="s">
-        <v>3377</v>
+        <v>3953</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -13012,10 +14740,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3349</v>
+        <v>3925</v>
       </c>
       <c r="C21" t="s">
-        <v>3378</v>
+        <v>3954</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -13032,10 +14760,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3350</v>
+        <v>3926</v>
       </c>
       <c r="C22" t="s">
-        <v>3379</v>
+        <v>3955</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -13052,10 +14780,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3351</v>
+        <v>3927</v>
       </c>
       <c r="C23" t="s">
-        <v>3380</v>
+        <v>3956</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -13072,10 +14800,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3352</v>
+        <v>3928</v>
       </c>
       <c r="C24" t="s">
-        <v>3381</v>
+        <v>3957</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -13092,10 +14820,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3353</v>
+        <v>3929</v>
       </c>
       <c r="C25" t="s">
-        <v>3382</v>
+        <v>3958</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -13112,10 +14840,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3354</v>
+        <v>3930</v>
       </c>
       <c r="C26" t="s">
-        <v>3383</v>
+        <v>3959</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -13132,10 +14860,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3355</v>
+        <v>3931</v>
       </c>
       <c r="C27" t="s">
-        <v>3384</v>
+        <v>3960</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -13152,10 +14880,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3356</v>
+        <v>3932</v>
       </c>
       <c r="C28" t="s">
-        <v>3385</v>
+        <v>3961</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -13172,10 +14900,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3357</v>
+        <v>3933</v>
       </c>
       <c r="C29" t="s">
-        <v>3386</v>
+        <v>3962</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -13200,28 +14928,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3392</v>
+        <v>3968</v>
       </c>
       <c r="B1" t="s">
-        <v>3393</v>
+        <v>3969</v>
       </c>
       <c r="C1" t="s">
-        <v>3422</v>
+        <v>3998</v>
       </c>
       <c r="D1" t="s">
-        <v>3451</v>
+        <v>4027</v>
       </c>
       <c r="E1" t="s">
-        <v>3452</v>
+        <v>4028</v>
       </c>
       <c r="F1" t="s">
-        <v>3453</v>
+        <v>4029</v>
       </c>
       <c r="G1" t="s">
-        <v>3454</v>
+        <v>4030</v>
       </c>
       <c r="H1" t="s">
-        <v>3455</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="2">
@@ -13229,10 +14957,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>3394</v>
+        <v>3970</v>
       </c>
       <c r="C2" t="s">
-        <v>3423</v>
+        <v>3999</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -13253,10 +14981,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3395</v>
+        <v>3971</v>
       </c>
       <c r="C3" t="s">
-        <v>3424</v>
+        <v>4000</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -13273,10 +15001,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3396</v>
+        <v>3972</v>
       </c>
       <c r="C4" t="s">
-        <v>3425</v>
+        <v>4001</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -13293,10 +15021,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3397</v>
+        <v>3973</v>
       </c>
       <c r="C5" t="s">
-        <v>3426</v>
+        <v>4002</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -13313,10 +15041,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3398</v>
+        <v>3974</v>
       </c>
       <c r="C6" t="s">
-        <v>3427</v>
+        <v>4003</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -13333,10 +15061,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3399</v>
+        <v>3975</v>
       </c>
       <c r="C7" t="s">
-        <v>3428</v>
+        <v>4004</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -13353,10 +15081,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3400</v>
+        <v>3976</v>
       </c>
       <c r="C8" t="s">
-        <v>3429</v>
+        <v>4005</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -13373,10 +15101,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3401</v>
+        <v>3977</v>
       </c>
       <c r="C9" t="s">
-        <v>3430</v>
+        <v>4006</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -13393,10 +15121,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3402</v>
+        <v>3978</v>
       </c>
       <c r="C10" t="s">
-        <v>3431</v>
+        <v>4007</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -13413,10 +15141,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3403</v>
+        <v>3979</v>
       </c>
       <c r="C11" t="s">
-        <v>3432</v>
+        <v>4008</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -13433,10 +15161,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3404</v>
+        <v>3980</v>
       </c>
       <c r="C12" t="s">
-        <v>3433</v>
+        <v>4009</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -13453,10 +15181,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3405</v>
+        <v>3981</v>
       </c>
       <c r="C13" t="s">
-        <v>3434</v>
+        <v>4010</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -13473,10 +15201,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3406</v>
+        <v>3982</v>
       </c>
       <c r="C14" t="s">
-        <v>3435</v>
+        <v>4011</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -13493,10 +15221,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3407</v>
+        <v>3983</v>
       </c>
       <c r="C15" t="s">
-        <v>3436</v>
+        <v>4012</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -13513,10 +15241,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3408</v>
+        <v>3984</v>
       </c>
       <c r="C16" t="s">
-        <v>3437</v>
+        <v>4013</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -13533,10 +15261,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3409</v>
+        <v>3985</v>
       </c>
       <c r="C17" t="s">
-        <v>3438</v>
+        <v>4014</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -13553,10 +15281,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3410</v>
+        <v>3986</v>
       </c>
       <c r="C18" t="s">
-        <v>3439</v>
+        <v>4015</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -13573,10 +15301,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3411</v>
+        <v>3987</v>
       </c>
       <c r="C19" t="s">
-        <v>3440</v>
+        <v>4016</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -13593,10 +15321,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3412</v>
+        <v>3988</v>
       </c>
       <c r="C20" t="s">
-        <v>3441</v>
+        <v>4017</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -13613,10 +15341,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3413</v>
+        <v>3989</v>
       </c>
       <c r="C21" t="s">
-        <v>3442</v>
+        <v>4018</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -13633,10 +15361,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3414</v>
+        <v>3990</v>
       </c>
       <c r="C22" t="s">
-        <v>3443</v>
+        <v>4019</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -13653,10 +15381,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3415</v>
+        <v>3991</v>
       </c>
       <c r="C23" t="s">
-        <v>3444</v>
+        <v>4020</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -13673,10 +15401,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3416</v>
+        <v>3992</v>
       </c>
       <c r="C24" t="s">
-        <v>3445</v>
+        <v>4021</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -13693,10 +15421,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3417</v>
+        <v>3993</v>
       </c>
       <c r="C25" t="s">
-        <v>3446</v>
+        <v>4022</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -13713,10 +15441,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3418</v>
+        <v>3994</v>
       </c>
       <c r="C26" t="s">
-        <v>3447</v>
+        <v>4023</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -13733,10 +15461,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3419</v>
+        <v>3995</v>
       </c>
       <c r="C27" t="s">
-        <v>3448</v>
+        <v>4024</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -13753,10 +15481,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3420</v>
+        <v>3996</v>
       </c>
       <c r="C28" t="s">
-        <v>3449</v>
+        <v>4025</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -13773,10 +15501,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3421</v>
+        <v>3997</v>
       </c>
       <c r="C29" t="s">
-        <v>3450</v>
+        <v>4026</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -13801,28 +15529,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3456</v>
+        <v>4032</v>
       </c>
       <c r="B1" t="s">
-        <v>3457</v>
+        <v>4033</v>
       </c>
       <c r="C1" t="s">
-        <v>3486</v>
+        <v>4062</v>
       </c>
       <c r="D1" t="s">
-        <v>3515</v>
+        <v>4091</v>
       </c>
       <c r="E1" t="s">
-        <v>3516</v>
+        <v>4092</v>
       </c>
       <c r="F1" t="s">
-        <v>3517</v>
+        <v>4093</v>
       </c>
       <c r="G1" t="s">
-        <v>3518</v>
+        <v>4094</v>
       </c>
       <c r="H1" t="s">
-        <v>3519</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="2">
@@ -13830,10 +15558,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>3458</v>
+        <v>4034</v>
       </c>
       <c r="C2" t="s">
-        <v>3487</v>
+        <v>4063</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -13854,10 +15582,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3459</v>
+        <v>4035</v>
       </c>
       <c r="C3" t="s">
-        <v>3488</v>
+        <v>4064</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -13874,10 +15602,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3460</v>
+        <v>4036</v>
       </c>
       <c r="C4" t="s">
-        <v>3489</v>
+        <v>4065</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -13894,10 +15622,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3461</v>
+        <v>4037</v>
       </c>
       <c r="C5" t="s">
-        <v>3490</v>
+        <v>4066</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -13914,10 +15642,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3462</v>
+        <v>4038</v>
       </c>
       <c r="C6" t="s">
-        <v>3491</v>
+        <v>4067</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -13934,10 +15662,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3463</v>
+        <v>4039</v>
       </c>
       <c r="C7" t="s">
-        <v>3492</v>
+        <v>4068</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -13954,10 +15682,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3464</v>
+        <v>4040</v>
       </c>
       <c r="C8" t="s">
-        <v>3493</v>
+        <v>4069</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -13974,10 +15702,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3465</v>
+        <v>4041</v>
       </c>
       <c r="C9" t="s">
-        <v>3494</v>
+        <v>4070</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -13994,10 +15722,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3466</v>
+        <v>4042</v>
       </c>
       <c r="C10" t="s">
-        <v>3495</v>
+        <v>4071</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -14014,10 +15742,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3467</v>
+        <v>4043</v>
       </c>
       <c r="C11" t="s">
-        <v>3496</v>
+        <v>4072</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -14034,10 +15762,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3468</v>
+        <v>4044</v>
       </c>
       <c r="C12" t="s">
-        <v>3497</v>
+        <v>4073</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -14054,10 +15782,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3469</v>
+        <v>4045</v>
       </c>
       <c r="C13" t="s">
-        <v>3498</v>
+        <v>4074</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -14074,10 +15802,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3470</v>
+        <v>4046</v>
       </c>
       <c r="C14" t="s">
-        <v>3499</v>
+        <v>4075</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -14094,10 +15822,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3471</v>
+        <v>4047</v>
       </c>
       <c r="C15" t="s">
-        <v>3500</v>
+        <v>4076</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -14114,10 +15842,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3472</v>
+        <v>4048</v>
       </c>
       <c r="C16" t="s">
-        <v>3501</v>
+        <v>4077</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -14134,10 +15862,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3473</v>
+        <v>4049</v>
       </c>
       <c r="C17" t="s">
-        <v>3502</v>
+        <v>4078</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -14154,10 +15882,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3474</v>
+        <v>4050</v>
       </c>
       <c r="C18" t="s">
-        <v>3503</v>
+        <v>4079</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -14174,10 +15902,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3475</v>
+        <v>4051</v>
       </c>
       <c r="C19" t="s">
-        <v>3504</v>
+        <v>4080</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -14194,10 +15922,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3476</v>
+        <v>4052</v>
       </c>
       <c r="C20" t="s">
-        <v>3505</v>
+        <v>4081</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -14214,10 +15942,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3477</v>
+        <v>4053</v>
       </c>
       <c r="C21" t="s">
-        <v>3506</v>
+        <v>4082</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -14234,10 +15962,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3478</v>
+        <v>4054</v>
       </c>
       <c r="C22" t="s">
-        <v>3507</v>
+        <v>4083</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -14254,10 +15982,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3479</v>
+        <v>4055</v>
       </c>
       <c r="C23" t="s">
-        <v>3508</v>
+        <v>4084</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -14274,10 +16002,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3480</v>
+        <v>4056</v>
       </c>
       <c r="C24" t="s">
-        <v>3509</v>
+        <v>4085</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -14294,10 +16022,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3481</v>
+        <v>4057</v>
       </c>
       <c r="C25" t="s">
-        <v>3510</v>
+        <v>4086</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -14314,10 +16042,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3482</v>
+        <v>4058</v>
       </c>
       <c r="C26" t="s">
-        <v>3511</v>
+        <v>4087</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -14334,10 +16062,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3483</v>
+        <v>4059</v>
       </c>
       <c r="C27" t="s">
-        <v>3512</v>
+        <v>4088</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -14354,10 +16082,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3484</v>
+        <v>4060</v>
       </c>
       <c r="C28" t="s">
-        <v>3513</v>
+        <v>4089</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -14374,10 +16102,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3485</v>
+        <v>4061</v>
       </c>
       <c r="C29" t="s">
-        <v>3514</v>
+        <v>4090</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -14402,28 +16130,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3520</v>
+        <v>4096</v>
       </c>
       <c r="B1" t="s">
-        <v>3521</v>
+        <v>4097</v>
       </c>
       <c r="C1" t="s">
-        <v>3550</v>
+        <v>4126</v>
       </c>
       <c r="D1" t="s">
-        <v>3579</v>
+        <v>4155</v>
       </c>
       <c r="E1" t="s">
-        <v>3580</v>
+        <v>4156</v>
       </c>
       <c r="F1" t="s">
-        <v>3581</v>
+        <v>4157</v>
       </c>
       <c r="G1" t="s">
-        <v>3582</v>
+        <v>4158</v>
       </c>
       <c r="H1" t="s">
-        <v>3583</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="2">
@@ -14431,10 +16159,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>3522</v>
+        <v>4098</v>
       </c>
       <c r="C2" t="s">
-        <v>3551</v>
+        <v>4127</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -14455,10 +16183,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3523</v>
+        <v>4099</v>
       </c>
       <c r="C3" t="s">
-        <v>3552</v>
+        <v>4128</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -14475,10 +16203,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3524</v>
+        <v>4100</v>
       </c>
       <c r="C4" t="s">
-        <v>3553</v>
+        <v>4129</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -14495,10 +16223,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3525</v>
+        <v>4101</v>
       </c>
       <c r="C5" t="s">
-        <v>3554</v>
+        <v>4130</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -14515,10 +16243,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3526</v>
+        <v>4102</v>
       </c>
       <c r="C6" t="s">
-        <v>3555</v>
+        <v>4131</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -14535,10 +16263,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3527</v>
+        <v>4103</v>
       </c>
       <c r="C7" t="s">
-        <v>3556</v>
+        <v>4132</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -14555,10 +16283,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3528</v>
+        <v>4104</v>
       </c>
       <c r="C8" t="s">
-        <v>3557</v>
+        <v>4133</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -14575,10 +16303,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3529</v>
+        <v>4105</v>
       </c>
       <c r="C9" t="s">
-        <v>3558</v>
+        <v>4134</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -14595,10 +16323,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3530</v>
+        <v>4106</v>
       </c>
       <c r="C10" t="s">
-        <v>3559</v>
+        <v>4135</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -14615,10 +16343,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3531</v>
+        <v>4107</v>
       </c>
       <c r="C11" t="s">
-        <v>3560</v>
+        <v>4136</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -14635,10 +16363,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3532</v>
+        <v>4108</v>
       </c>
       <c r="C12" t="s">
-        <v>3561</v>
+        <v>4137</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -14655,10 +16383,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3533</v>
+        <v>4109</v>
       </c>
       <c r="C13" t="s">
-        <v>3562</v>
+        <v>4138</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -14675,10 +16403,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3534</v>
+        <v>4110</v>
       </c>
       <c r="C14" t="s">
-        <v>3563</v>
+        <v>4139</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -14695,10 +16423,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3535</v>
+        <v>4111</v>
       </c>
       <c r="C15" t="s">
-        <v>3564</v>
+        <v>4140</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -14715,10 +16443,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3536</v>
+        <v>4112</v>
       </c>
       <c r="C16" t="s">
-        <v>3565</v>
+        <v>4141</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -14735,10 +16463,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3537</v>
+        <v>4113</v>
       </c>
       <c r="C17" t="s">
-        <v>3566</v>
+        <v>4142</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -14755,10 +16483,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3538</v>
+        <v>4114</v>
       </c>
       <c r="C18" t="s">
-        <v>3567</v>
+        <v>4143</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -14775,10 +16503,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3539</v>
+        <v>4115</v>
       </c>
       <c r="C19" t="s">
-        <v>3568</v>
+        <v>4144</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -14795,10 +16523,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3540</v>
+        <v>4116</v>
       </c>
       <c r="C20" t="s">
-        <v>3569</v>
+        <v>4145</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -14815,10 +16543,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3541</v>
+        <v>4117</v>
       </c>
       <c r="C21" t="s">
-        <v>3570</v>
+        <v>4146</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -14835,10 +16563,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3542</v>
+        <v>4118</v>
       </c>
       <c r="C22" t="s">
-        <v>3571</v>
+        <v>4147</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -14855,10 +16583,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3543</v>
+        <v>4119</v>
       </c>
       <c r="C23" t="s">
-        <v>3572</v>
+        <v>4148</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -14875,10 +16603,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3544</v>
+        <v>4120</v>
       </c>
       <c r="C24" t="s">
-        <v>3573</v>
+        <v>4149</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -14895,10 +16623,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3545</v>
+        <v>4121</v>
       </c>
       <c r="C25" t="s">
-        <v>3574</v>
+        <v>4150</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -14915,10 +16643,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3546</v>
+        <v>4122</v>
       </c>
       <c r="C26" t="s">
-        <v>3575</v>
+        <v>4151</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -14935,10 +16663,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3547</v>
+        <v>4123</v>
       </c>
       <c r="C27" t="s">
-        <v>3576</v>
+        <v>4152</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -14955,10 +16683,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3548</v>
+        <v>4124</v>
       </c>
       <c r="C28" t="s">
-        <v>3577</v>
+        <v>4153</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -14975,10 +16703,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3549</v>
+        <v>4125</v>
       </c>
       <c r="C29" t="s">
-        <v>3578</v>
+        <v>4154</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -15003,28 +16731,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3584</v>
+        <v>4160</v>
       </c>
       <c r="B1" t="s">
-        <v>3585</v>
+        <v>4161</v>
       </c>
       <c r="C1" t="s">
-        <v>3614</v>
+        <v>4190</v>
       </c>
       <c r="D1" t="s">
-        <v>3643</v>
+        <v>4219</v>
       </c>
       <c r="E1" t="s">
-        <v>3644</v>
+        <v>4220</v>
       </c>
       <c r="F1" t="s">
-        <v>3645</v>
+        <v>4221</v>
       </c>
       <c r="G1" t="s">
-        <v>3646</v>
+        <v>4222</v>
       </c>
       <c r="H1" t="s">
-        <v>3647</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="2">
@@ -15032,10 +16760,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>3586</v>
+        <v>4162</v>
       </c>
       <c r="C2" t="s">
-        <v>3615</v>
+        <v>4191</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -15056,10 +16784,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3587</v>
+        <v>4163</v>
       </c>
       <c r="C3" t="s">
-        <v>3616</v>
+        <v>4192</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -15076,10 +16804,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3588</v>
+        <v>4164</v>
       </c>
       <c r="C4" t="s">
-        <v>3617</v>
+        <v>4193</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -15096,10 +16824,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3589</v>
+        <v>4165</v>
       </c>
       <c r="C5" t="s">
-        <v>3618</v>
+        <v>4194</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -15116,10 +16844,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3590</v>
+        <v>4166</v>
       </c>
       <c r="C6" t="s">
-        <v>3619</v>
+        <v>4195</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -15136,10 +16864,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3591</v>
+        <v>4167</v>
       </c>
       <c r="C7" t="s">
-        <v>3620</v>
+        <v>4196</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -15156,10 +16884,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3592</v>
+        <v>4168</v>
       </c>
       <c r="C8" t="s">
-        <v>3621</v>
+        <v>4197</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -15176,10 +16904,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3593</v>
+        <v>4169</v>
       </c>
       <c r="C9" t="s">
-        <v>3622</v>
+        <v>4198</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -15196,10 +16924,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3594</v>
+        <v>4170</v>
       </c>
       <c r="C10" t="s">
-        <v>3623</v>
+        <v>4199</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -15216,10 +16944,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3595</v>
+        <v>4171</v>
       </c>
       <c r="C11" t="s">
-        <v>3624</v>
+        <v>4200</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -15236,10 +16964,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3596</v>
+        <v>4172</v>
       </c>
       <c r="C12" t="s">
-        <v>3625</v>
+        <v>4201</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -15256,10 +16984,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3597</v>
+        <v>4173</v>
       </c>
       <c r="C13" t="s">
-        <v>3626</v>
+        <v>4202</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -15276,10 +17004,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3598</v>
+        <v>4174</v>
       </c>
       <c r="C14" t="s">
-        <v>3627</v>
+        <v>4203</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -15296,10 +17024,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3599</v>
+        <v>4175</v>
       </c>
       <c r="C15" t="s">
-        <v>3628</v>
+        <v>4204</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -15316,10 +17044,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3600</v>
+        <v>4176</v>
       </c>
       <c r="C16" t="s">
-        <v>3629</v>
+        <v>4205</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -15336,10 +17064,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3601</v>
+        <v>4177</v>
       </c>
       <c r="C17" t="s">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -15356,10 +17084,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3602</v>
+        <v>4178</v>
       </c>
       <c r="C18" t="s">
-        <v>3631</v>
+        <v>4207</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -15376,10 +17104,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3603</v>
+        <v>4179</v>
       </c>
       <c r="C19" t="s">
-        <v>3632</v>
+        <v>4208</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -15396,10 +17124,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3604</v>
+        <v>4180</v>
       </c>
       <c r="C20" t="s">
-        <v>3633</v>
+        <v>4209</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -15416,10 +17144,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3605</v>
+        <v>4181</v>
       </c>
       <c r="C21" t="s">
-        <v>3634</v>
+        <v>4210</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -15436,10 +17164,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3606</v>
+        <v>4182</v>
       </c>
       <c r="C22" t="s">
-        <v>3635</v>
+        <v>4211</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -15456,10 +17184,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3607</v>
+        <v>4183</v>
       </c>
       <c r="C23" t="s">
-        <v>3636</v>
+        <v>4212</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -15476,10 +17204,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3608</v>
+        <v>4184</v>
       </c>
       <c r="C24" t="s">
-        <v>3637</v>
+        <v>4213</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -15496,10 +17224,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3609</v>
+        <v>4185</v>
       </c>
       <c r="C25" t="s">
-        <v>3638</v>
+        <v>4214</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -15516,10 +17244,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3610</v>
+        <v>4186</v>
       </c>
       <c r="C26" t="s">
-        <v>3639</v>
+        <v>4215</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -15536,10 +17264,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3611</v>
+        <v>4187</v>
       </c>
       <c r="C27" t="s">
-        <v>3640</v>
+        <v>4216</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -15556,10 +17284,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3612</v>
+        <v>4188</v>
       </c>
       <c r="C28" t="s">
-        <v>3641</v>
+        <v>4217</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -15576,10 +17304,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3613</v>
+        <v>4189</v>
       </c>
       <c r="C29" t="s">
-        <v>3642</v>
+        <v>4218</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -15604,28 +17332,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3648</v>
+        <v>4224</v>
       </c>
       <c r="B1" t="s">
-        <v>3649</v>
+        <v>4225</v>
       </c>
       <c r="C1" t="s">
-        <v>3678</v>
+        <v>4254</v>
       </c>
       <c r="D1" t="s">
-        <v>3707</v>
+        <v>4283</v>
       </c>
       <c r="E1" t="s">
-        <v>3708</v>
+        <v>4284</v>
       </c>
       <c r="F1" t="s">
-        <v>3709</v>
+        <v>4285</v>
       </c>
       <c r="G1" t="s">
-        <v>3710</v>
+        <v>4286</v>
       </c>
       <c r="H1" t="s">
-        <v>3711</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="2">
@@ -15633,10 +17361,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>3650</v>
+        <v>4226</v>
       </c>
       <c r="C2" t="s">
-        <v>3679</v>
+        <v>4255</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -15657,10 +17385,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3651</v>
+        <v>4227</v>
       </c>
       <c r="C3" t="s">
-        <v>3680</v>
+        <v>4256</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -15677,10 +17405,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3652</v>
+        <v>4228</v>
       </c>
       <c r="C4" t="s">
-        <v>3681</v>
+        <v>4257</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -15697,10 +17425,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3653</v>
+        <v>4229</v>
       </c>
       <c r="C5" t="s">
-        <v>3682</v>
+        <v>4258</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -15717,10 +17445,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3654</v>
+        <v>4230</v>
       </c>
       <c r="C6" t="s">
-        <v>3683</v>
+        <v>4259</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -15737,10 +17465,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3655</v>
+        <v>4231</v>
       </c>
       <c r="C7" t="s">
-        <v>3684</v>
+        <v>4260</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -15757,10 +17485,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3656</v>
+        <v>4232</v>
       </c>
       <c r="C8" t="s">
-        <v>3685</v>
+        <v>4261</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -15777,10 +17505,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3657</v>
+        <v>4233</v>
       </c>
       <c r="C9" t="s">
-        <v>3686</v>
+        <v>4262</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -15797,10 +17525,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3658</v>
+        <v>4234</v>
       </c>
       <c r="C10" t="s">
-        <v>3687</v>
+        <v>4263</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -15817,10 +17545,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3659</v>
+        <v>4235</v>
       </c>
       <c r="C11" t="s">
-        <v>3688</v>
+        <v>4264</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -15837,10 +17565,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3660</v>
+        <v>4236</v>
       </c>
       <c r="C12" t="s">
-        <v>3689</v>
+        <v>4265</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -15857,10 +17585,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3661</v>
+        <v>4237</v>
       </c>
       <c r="C13" t="s">
-        <v>3690</v>
+        <v>4266</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -15877,10 +17605,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3662</v>
+        <v>4238</v>
       </c>
       <c r="C14" t="s">
-        <v>3691</v>
+        <v>4267</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -15897,10 +17625,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3663</v>
+        <v>4239</v>
       </c>
       <c r="C15" t="s">
-        <v>3692</v>
+        <v>4268</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -15917,10 +17645,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3664</v>
+        <v>4240</v>
       </c>
       <c r="C16" t="s">
-        <v>3693</v>
+        <v>4269</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -15937,10 +17665,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3665</v>
+        <v>4241</v>
       </c>
       <c r="C17" t="s">
-        <v>3694</v>
+        <v>4270</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -15957,10 +17685,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3666</v>
+        <v>4242</v>
       </c>
       <c r="C18" t="s">
-        <v>3695</v>
+        <v>4271</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -15977,10 +17705,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3667</v>
+        <v>4243</v>
       </c>
       <c r="C19" t="s">
-        <v>3696</v>
+        <v>4272</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -15997,10 +17725,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3668</v>
+        <v>4244</v>
       </c>
       <c r="C20" t="s">
-        <v>3697</v>
+        <v>4273</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -16017,10 +17745,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3669</v>
+        <v>4245</v>
       </c>
       <c r="C21" t="s">
-        <v>3698</v>
+        <v>4274</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -16037,10 +17765,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3670</v>
+        <v>4246</v>
       </c>
       <c r="C22" t="s">
-        <v>3699</v>
+        <v>4275</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -16057,10 +17785,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3671</v>
+        <v>4247</v>
       </c>
       <c r="C23" t="s">
-        <v>3700</v>
+        <v>4276</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -16077,10 +17805,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3672</v>
+        <v>4248</v>
       </c>
       <c r="C24" t="s">
-        <v>3701</v>
+        <v>4277</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -16097,10 +17825,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3673</v>
+        <v>4249</v>
       </c>
       <c r="C25" t="s">
-        <v>3702</v>
+        <v>4278</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -16117,10 +17845,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3674</v>
+        <v>4250</v>
       </c>
       <c r="C26" t="s">
-        <v>3703</v>
+        <v>4279</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -16137,10 +17865,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3675</v>
+        <v>4251</v>
       </c>
       <c r="C27" t="s">
-        <v>3704</v>
+        <v>4280</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -16157,10 +17885,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3676</v>
+        <v>4252</v>
       </c>
       <c r="C28" t="s">
-        <v>3705</v>
+        <v>4281</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -16177,10 +17905,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3677</v>
+        <v>4253</v>
       </c>
       <c r="C29" t="s">
-        <v>3706</v>
+        <v>4282</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -16205,28 +17933,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3712</v>
+        <v>4288</v>
       </c>
       <c r="B1" t="s">
-        <v>3713</v>
+        <v>4289</v>
       </c>
       <c r="C1" t="s">
-        <v>3742</v>
+        <v>4318</v>
       </c>
       <c r="D1" t="s">
-        <v>3771</v>
+        <v>4347</v>
       </c>
       <c r="E1" t="s">
-        <v>3772</v>
+        <v>4348</v>
       </c>
       <c r="F1" t="s">
-        <v>3773</v>
+        <v>4349</v>
       </c>
       <c r="G1" t="s">
-        <v>3774</v>
+        <v>4350</v>
       </c>
       <c r="H1" t="s">
-        <v>3775</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="2">
@@ -16234,10 +17962,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>3714</v>
+        <v>4290</v>
       </c>
       <c r="C2" t="s">
-        <v>3743</v>
+        <v>4319</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -16258,10 +17986,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3715</v>
+        <v>4291</v>
       </c>
       <c r="C3" t="s">
-        <v>3744</v>
+        <v>4320</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -16278,10 +18006,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3716</v>
+        <v>4292</v>
       </c>
       <c r="C4" t="s">
-        <v>3745</v>
+        <v>4321</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -16298,10 +18026,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3717</v>
+        <v>4293</v>
       </c>
       <c r="C5" t="s">
-        <v>3746</v>
+        <v>4322</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -16318,10 +18046,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3718</v>
+        <v>4294</v>
       </c>
       <c r="C6" t="s">
-        <v>3747</v>
+        <v>4323</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -16338,10 +18066,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3719</v>
+        <v>4295</v>
       </c>
       <c r="C7" t="s">
-        <v>3748</v>
+        <v>4324</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -16358,10 +18086,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3720</v>
+        <v>4296</v>
       </c>
       <c r="C8" t="s">
-        <v>3749</v>
+        <v>4325</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -16378,10 +18106,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3721</v>
+        <v>4297</v>
       </c>
       <c r="C9" t="s">
-        <v>3750</v>
+        <v>4326</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -16398,10 +18126,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3722</v>
+        <v>4298</v>
       </c>
       <c r="C10" t="s">
-        <v>3751</v>
+        <v>4327</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -16418,10 +18146,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3723</v>
+        <v>4299</v>
       </c>
       <c r="C11" t="s">
-        <v>3752</v>
+        <v>4328</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -16438,10 +18166,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>3724</v>
+        <v>4300</v>
       </c>
       <c r="C12" t="s">
-        <v>3753</v>
+        <v>4329</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -16458,10 +18186,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>3725</v>
+        <v>4301</v>
       </c>
       <c r="C13" t="s">
-        <v>3754</v>
+        <v>4330</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -16478,10 +18206,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>3726</v>
+        <v>4302</v>
       </c>
       <c r="C14" t="s">
-        <v>3755</v>
+        <v>4331</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -16498,10 +18226,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>3727</v>
+        <v>4303</v>
       </c>
       <c r="C15" t="s">
-        <v>3756</v>
+        <v>4332</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -16518,10 +18246,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>3728</v>
+        <v>4304</v>
       </c>
       <c r="C16" t="s">
-        <v>3757</v>
+        <v>4333</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -16538,10 +18266,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>3729</v>
+        <v>4305</v>
       </c>
       <c r="C17" t="s">
-        <v>3758</v>
+        <v>4334</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -16558,10 +18286,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>3730</v>
+        <v>4306</v>
       </c>
       <c r="C18" t="s">
-        <v>3759</v>
+        <v>4335</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -16578,10 +18306,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>3731</v>
+        <v>4307</v>
       </c>
       <c r="C19" t="s">
-        <v>3760</v>
+        <v>4336</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -16598,10 +18326,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>3732</v>
+        <v>4308</v>
       </c>
       <c r="C20" t="s">
-        <v>3761</v>
+        <v>4337</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -16618,10 +18346,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>3733</v>
+        <v>4309</v>
       </c>
       <c r="C21" t="s">
-        <v>3762</v>
+        <v>4338</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -16638,10 +18366,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>3734</v>
+        <v>4310</v>
       </c>
       <c r="C22" t="s">
-        <v>3763</v>
+        <v>4339</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -16658,10 +18386,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>3735</v>
+        <v>4311</v>
       </c>
       <c r="C23" t="s">
-        <v>3764</v>
+        <v>4340</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -16678,10 +18406,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>3736</v>
+        <v>4312</v>
       </c>
       <c r="C24" t="s">
-        <v>3765</v>
+        <v>4341</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -16698,10 +18426,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>3737</v>
+        <v>4313</v>
       </c>
       <c r="C25" t="s">
-        <v>3766</v>
+        <v>4342</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -16718,10 +18446,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>3738</v>
+        <v>4314</v>
       </c>
       <c r="C26" t="s">
-        <v>3767</v>
+        <v>4343</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -16738,10 +18466,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>3739</v>
+        <v>4315</v>
       </c>
       <c r="C27" t="s">
-        <v>3768</v>
+        <v>4344</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -16758,10 +18486,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>3740</v>
+        <v>4316</v>
       </c>
       <c r="C28" t="s">
-        <v>3769</v>
+        <v>4345</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -16778,10 +18506,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>3741</v>
+        <v>4317</v>
       </c>
       <c r="C29" t="s">
-        <v>3770</v>
+        <v>4346</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>

--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,3463 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6656" uniqueCount="6656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="7808">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -20037,28 +23493,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6080</v>
+        <v>7232</v>
       </c>
       <c r="B1" t="s">
-        <v>6081</v>
+        <v>7233</v>
       </c>
       <c r="C1" t="s">
-        <v>6110</v>
+        <v>7262</v>
       </c>
       <c r="D1" t="s">
-        <v>6139</v>
+        <v>7291</v>
       </c>
       <c r="E1" t="s">
-        <v>6140</v>
+        <v>7292</v>
       </c>
       <c r="F1" t="s">
-        <v>6141</v>
+        <v>7293</v>
       </c>
       <c r="G1" t="s">
-        <v>6142</v>
+        <v>7294</v>
       </c>
       <c r="H1" t="s">
-        <v>6143</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="2">
@@ -20066,10 +23522,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>6082</v>
+        <v>7234</v>
       </c>
       <c r="C2" t="s">
-        <v>6111</v>
+        <v>7263</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -20090,10 +23546,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6083</v>
+        <v>7235</v>
       </c>
       <c r="C3" t="s">
-        <v>6112</v>
+        <v>7264</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -20110,10 +23566,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6084</v>
+        <v>7236</v>
       </c>
       <c r="C4" t="s">
-        <v>6113</v>
+        <v>7265</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -20130,10 +23586,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6085</v>
+        <v>7237</v>
       </c>
       <c r="C5" t="s">
-        <v>6114</v>
+        <v>7266</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -20150,10 +23606,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6086</v>
+        <v>7238</v>
       </c>
       <c r="C6" t="s">
-        <v>6115</v>
+        <v>7267</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -20170,10 +23626,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6087</v>
+        <v>7239</v>
       </c>
       <c r="C7" t="s">
-        <v>6116</v>
+        <v>7268</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -20190,10 +23646,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6088</v>
+        <v>7240</v>
       </c>
       <c r="C8" t="s">
-        <v>6117</v>
+        <v>7269</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -20210,10 +23666,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6089</v>
+        <v>7241</v>
       </c>
       <c r="C9" t="s">
-        <v>6118</v>
+        <v>7270</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -20230,10 +23686,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6090</v>
+        <v>7242</v>
       </c>
       <c r="C10" t="s">
-        <v>6119</v>
+        <v>7271</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -20250,10 +23706,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6091</v>
+        <v>7243</v>
       </c>
       <c r="C11" t="s">
-        <v>6120</v>
+        <v>7272</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -20270,10 +23726,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6092</v>
+        <v>7244</v>
       </c>
       <c r="C12" t="s">
-        <v>6121</v>
+        <v>7273</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -20290,10 +23746,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6093</v>
+        <v>7245</v>
       </c>
       <c r="C13" t="s">
-        <v>6122</v>
+        <v>7274</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -20310,10 +23766,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6094</v>
+        <v>7246</v>
       </c>
       <c r="C14" t="s">
-        <v>6123</v>
+        <v>7275</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -20330,10 +23786,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6095</v>
+        <v>7247</v>
       </c>
       <c r="C15" t="s">
-        <v>6124</v>
+        <v>7276</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -20350,10 +23806,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6096</v>
+        <v>7248</v>
       </c>
       <c r="C16" t="s">
-        <v>6125</v>
+        <v>7277</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -20370,10 +23826,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6097</v>
+        <v>7249</v>
       </c>
       <c r="C17" t="s">
-        <v>6126</v>
+        <v>7278</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -20390,10 +23846,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6098</v>
+        <v>7250</v>
       </c>
       <c r="C18" t="s">
-        <v>6127</v>
+        <v>7279</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -20410,10 +23866,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6099</v>
+        <v>7251</v>
       </c>
       <c r="C19" t="s">
-        <v>6128</v>
+        <v>7280</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -20430,10 +23886,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6100</v>
+        <v>7252</v>
       </c>
       <c r="C20" t="s">
-        <v>6129</v>
+        <v>7281</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -20450,10 +23906,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6101</v>
+        <v>7253</v>
       </c>
       <c r="C21" t="s">
-        <v>6130</v>
+        <v>7282</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -20470,10 +23926,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6102</v>
+        <v>7254</v>
       </c>
       <c r="C22" t="s">
-        <v>6131</v>
+        <v>7283</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -20490,10 +23946,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6103</v>
+        <v>7255</v>
       </c>
       <c r="C23" t="s">
-        <v>6132</v>
+        <v>7284</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -20510,10 +23966,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6104</v>
+        <v>7256</v>
       </c>
       <c r="C24" t="s">
-        <v>6133</v>
+        <v>7285</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -20530,10 +23986,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6105</v>
+        <v>7257</v>
       </c>
       <c r="C25" t="s">
-        <v>6134</v>
+        <v>7286</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -20550,10 +24006,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6106</v>
+        <v>7258</v>
       </c>
       <c r="C26" t="s">
-        <v>6135</v>
+        <v>7287</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -20570,10 +24026,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6107</v>
+        <v>7259</v>
       </c>
       <c r="C27" t="s">
-        <v>6136</v>
+        <v>7288</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -20590,10 +24046,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6108</v>
+        <v>7260</v>
       </c>
       <c r="C28" t="s">
-        <v>6137</v>
+        <v>7289</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -20610,10 +24066,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6109</v>
+        <v>7261</v>
       </c>
       <c r="C29" t="s">
-        <v>6138</v>
+        <v>7290</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -20638,28 +24094,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6144</v>
+        <v>7296</v>
       </c>
       <c r="B1" t="s">
-        <v>6145</v>
+        <v>7297</v>
       </c>
       <c r="C1" t="s">
-        <v>6174</v>
+        <v>7326</v>
       </c>
       <c r="D1" t="s">
-        <v>6203</v>
+        <v>7355</v>
       </c>
       <c r="E1" t="s">
-        <v>6204</v>
+        <v>7356</v>
       </c>
       <c r="F1" t="s">
-        <v>6205</v>
+        <v>7357</v>
       </c>
       <c r="G1" t="s">
-        <v>6206</v>
+        <v>7358</v>
       </c>
       <c r="H1" t="s">
-        <v>6207</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="2">
@@ -20667,10 +24123,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>6146</v>
+        <v>7298</v>
       </c>
       <c r="C2" t="s">
-        <v>6175</v>
+        <v>7327</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -20691,10 +24147,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6147</v>
+        <v>7299</v>
       </c>
       <c r="C3" t="s">
-        <v>6176</v>
+        <v>7328</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -20711,10 +24167,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6148</v>
+        <v>7300</v>
       </c>
       <c r="C4" t="s">
-        <v>6177</v>
+        <v>7329</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -20731,10 +24187,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6149</v>
+        <v>7301</v>
       </c>
       <c r="C5" t="s">
-        <v>6178</v>
+        <v>7330</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -20751,10 +24207,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6150</v>
+        <v>7302</v>
       </c>
       <c r="C6" t="s">
-        <v>6179</v>
+        <v>7331</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -20771,10 +24227,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6151</v>
+        <v>7303</v>
       </c>
       <c r="C7" t="s">
-        <v>6180</v>
+        <v>7332</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -20791,10 +24247,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6152</v>
+        <v>7304</v>
       </c>
       <c r="C8" t="s">
-        <v>6181</v>
+        <v>7333</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -20811,10 +24267,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6153</v>
+        <v>7305</v>
       </c>
       <c r="C9" t="s">
-        <v>6182</v>
+        <v>7334</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -20831,10 +24287,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6154</v>
+        <v>7306</v>
       </c>
       <c r="C10" t="s">
-        <v>6183</v>
+        <v>7335</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -20851,10 +24307,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6155</v>
+        <v>7307</v>
       </c>
       <c r="C11" t="s">
-        <v>6184</v>
+        <v>7336</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -20871,10 +24327,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6156</v>
+        <v>7308</v>
       </c>
       <c r="C12" t="s">
-        <v>6185</v>
+        <v>7337</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -20891,10 +24347,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6157</v>
+        <v>7309</v>
       </c>
       <c r="C13" t="s">
-        <v>6186</v>
+        <v>7338</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -20911,10 +24367,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6158</v>
+        <v>7310</v>
       </c>
       <c r="C14" t="s">
-        <v>6187</v>
+        <v>7339</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -20931,10 +24387,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6159</v>
+        <v>7311</v>
       </c>
       <c r="C15" t="s">
-        <v>6188</v>
+        <v>7340</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -20951,10 +24407,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6160</v>
+        <v>7312</v>
       </c>
       <c r="C16" t="s">
-        <v>6189</v>
+        <v>7341</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -20971,10 +24427,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6161</v>
+        <v>7313</v>
       </c>
       <c r="C17" t="s">
-        <v>6190</v>
+        <v>7342</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -20991,10 +24447,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6162</v>
+        <v>7314</v>
       </c>
       <c r="C18" t="s">
-        <v>6191</v>
+        <v>7343</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -21011,10 +24467,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6163</v>
+        <v>7315</v>
       </c>
       <c r="C19" t="s">
-        <v>6192</v>
+        <v>7344</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -21031,10 +24487,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6164</v>
+        <v>7316</v>
       </c>
       <c r="C20" t="s">
-        <v>6193</v>
+        <v>7345</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -21051,10 +24507,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6165</v>
+        <v>7317</v>
       </c>
       <c r="C21" t="s">
-        <v>6194</v>
+        <v>7346</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -21071,10 +24527,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6166</v>
+        <v>7318</v>
       </c>
       <c r="C22" t="s">
-        <v>6195</v>
+        <v>7347</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -21091,10 +24547,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6167</v>
+        <v>7319</v>
       </c>
       <c r="C23" t="s">
-        <v>6196</v>
+        <v>7348</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -21111,10 +24567,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6168</v>
+        <v>7320</v>
       </c>
       <c r="C24" t="s">
-        <v>6197</v>
+        <v>7349</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -21131,10 +24587,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6169</v>
+        <v>7321</v>
       </c>
       <c r="C25" t="s">
-        <v>6198</v>
+        <v>7350</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -21151,10 +24607,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6170</v>
+        <v>7322</v>
       </c>
       <c r="C26" t="s">
-        <v>6199</v>
+        <v>7351</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -21171,10 +24627,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6171</v>
+        <v>7323</v>
       </c>
       <c r="C27" t="s">
-        <v>6200</v>
+        <v>7352</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -21191,10 +24647,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6172</v>
+        <v>7324</v>
       </c>
       <c r="C28" t="s">
-        <v>6201</v>
+        <v>7353</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -21211,10 +24667,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6173</v>
+        <v>7325</v>
       </c>
       <c r="C29" t="s">
-        <v>6202</v>
+        <v>7354</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -21239,28 +24695,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6208</v>
+        <v>7360</v>
       </c>
       <c r="B1" t="s">
-        <v>6209</v>
+        <v>7361</v>
       </c>
       <c r="C1" t="s">
-        <v>6238</v>
+        <v>7390</v>
       </c>
       <c r="D1" t="s">
-        <v>6267</v>
+        <v>7419</v>
       </c>
       <c r="E1" t="s">
-        <v>6268</v>
+        <v>7420</v>
       </c>
       <c r="F1" t="s">
-        <v>6269</v>
+        <v>7421</v>
       </c>
       <c r="G1" t="s">
-        <v>6270</v>
+        <v>7422</v>
       </c>
       <c r="H1" t="s">
-        <v>6271</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="2">
@@ -21268,10 +24724,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>6210</v>
+        <v>7362</v>
       </c>
       <c r="C2" t="s">
-        <v>6239</v>
+        <v>7391</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -21292,10 +24748,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6211</v>
+        <v>7363</v>
       </c>
       <c r="C3" t="s">
-        <v>6240</v>
+        <v>7392</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -21312,10 +24768,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6212</v>
+        <v>7364</v>
       </c>
       <c r="C4" t="s">
-        <v>6241</v>
+        <v>7393</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -21332,10 +24788,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6213</v>
+        <v>7365</v>
       </c>
       <c r="C5" t="s">
-        <v>6242</v>
+        <v>7394</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -21352,10 +24808,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6214</v>
+        <v>7366</v>
       </c>
       <c r="C6" t="s">
-        <v>6243</v>
+        <v>7395</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -21372,10 +24828,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6215</v>
+        <v>7367</v>
       </c>
       <c r="C7" t="s">
-        <v>6244</v>
+        <v>7396</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -21392,10 +24848,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6216</v>
+        <v>7368</v>
       </c>
       <c r="C8" t="s">
-        <v>6245</v>
+        <v>7397</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -21412,10 +24868,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6217</v>
+        <v>7369</v>
       </c>
       <c r="C9" t="s">
-        <v>6246</v>
+        <v>7398</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -21432,10 +24888,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6218</v>
+        <v>7370</v>
       </c>
       <c r="C10" t="s">
-        <v>6247</v>
+        <v>7399</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -21452,10 +24908,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6219</v>
+        <v>7371</v>
       </c>
       <c r="C11" t="s">
-        <v>6248</v>
+        <v>7400</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -21472,10 +24928,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6220</v>
+        <v>7372</v>
       </c>
       <c r="C12" t="s">
-        <v>6249</v>
+        <v>7401</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -21492,10 +24948,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6221</v>
+        <v>7373</v>
       </c>
       <c r="C13" t="s">
-        <v>6250</v>
+        <v>7402</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -21512,10 +24968,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6222</v>
+        <v>7374</v>
       </c>
       <c r="C14" t="s">
-        <v>6251</v>
+        <v>7403</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -21532,10 +24988,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6223</v>
+        <v>7375</v>
       </c>
       <c r="C15" t="s">
-        <v>6252</v>
+        <v>7404</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -21552,10 +25008,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6224</v>
+        <v>7376</v>
       </c>
       <c r="C16" t="s">
-        <v>6253</v>
+        <v>7405</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -21572,10 +25028,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6225</v>
+        <v>7377</v>
       </c>
       <c r="C17" t="s">
-        <v>6254</v>
+        <v>7406</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -21592,10 +25048,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6226</v>
+        <v>7378</v>
       </c>
       <c r="C18" t="s">
-        <v>6255</v>
+        <v>7407</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -21612,10 +25068,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6227</v>
+        <v>7379</v>
       </c>
       <c r="C19" t="s">
-        <v>6256</v>
+        <v>7408</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -21632,10 +25088,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6228</v>
+        <v>7380</v>
       </c>
       <c r="C20" t="s">
-        <v>6257</v>
+        <v>7409</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -21652,10 +25108,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6229</v>
+        <v>7381</v>
       </c>
       <c r="C21" t="s">
-        <v>6258</v>
+        <v>7410</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -21672,10 +25128,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6230</v>
+        <v>7382</v>
       </c>
       <c r="C22" t="s">
-        <v>6259</v>
+        <v>7411</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -21692,10 +25148,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6231</v>
+        <v>7383</v>
       </c>
       <c r="C23" t="s">
-        <v>6260</v>
+        <v>7412</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -21712,10 +25168,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6232</v>
+        <v>7384</v>
       </c>
       <c r="C24" t="s">
-        <v>6261</v>
+        <v>7413</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -21732,10 +25188,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6233</v>
+        <v>7385</v>
       </c>
       <c r="C25" t="s">
-        <v>6262</v>
+        <v>7414</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -21752,10 +25208,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6234</v>
+        <v>7386</v>
       </c>
       <c r="C26" t="s">
-        <v>6263</v>
+        <v>7415</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -21772,10 +25228,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6235</v>
+        <v>7387</v>
       </c>
       <c r="C27" t="s">
-        <v>6264</v>
+        <v>7416</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -21792,10 +25248,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6236</v>
+        <v>7388</v>
       </c>
       <c r="C28" t="s">
-        <v>6265</v>
+        <v>7417</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -21812,10 +25268,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6237</v>
+        <v>7389</v>
       </c>
       <c r="C29" t="s">
-        <v>6266</v>
+        <v>7418</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -21840,28 +25296,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6272</v>
+        <v>7424</v>
       </c>
       <c r="B1" t="s">
-        <v>6273</v>
+        <v>7425</v>
       </c>
       <c r="C1" t="s">
-        <v>6302</v>
+        <v>7454</v>
       </c>
       <c r="D1" t="s">
-        <v>6331</v>
+        <v>7483</v>
       </c>
       <c r="E1" t="s">
-        <v>6332</v>
+        <v>7484</v>
       </c>
       <c r="F1" t="s">
-        <v>6333</v>
+        <v>7485</v>
       </c>
       <c r="G1" t="s">
-        <v>6334</v>
+        <v>7486</v>
       </c>
       <c r="H1" t="s">
-        <v>6335</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="2">
@@ -21869,10 +25325,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>6274</v>
+        <v>7426</v>
       </c>
       <c r="C2" t="s">
-        <v>6303</v>
+        <v>7455</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -21893,10 +25349,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6275</v>
+        <v>7427</v>
       </c>
       <c r="C3" t="s">
-        <v>6304</v>
+        <v>7456</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -21913,10 +25369,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6276</v>
+        <v>7428</v>
       </c>
       <c r="C4" t="s">
-        <v>6305</v>
+        <v>7457</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -21933,10 +25389,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6277</v>
+        <v>7429</v>
       </c>
       <c r="C5" t="s">
-        <v>6306</v>
+        <v>7458</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -21953,10 +25409,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6278</v>
+        <v>7430</v>
       </c>
       <c r="C6" t="s">
-        <v>6307</v>
+        <v>7459</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -21973,10 +25429,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6279</v>
+        <v>7431</v>
       </c>
       <c r="C7" t="s">
-        <v>6308</v>
+        <v>7460</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -21993,10 +25449,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6280</v>
+        <v>7432</v>
       </c>
       <c r="C8" t="s">
-        <v>6309</v>
+        <v>7461</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -22013,10 +25469,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6281</v>
+        <v>7433</v>
       </c>
       <c r="C9" t="s">
-        <v>6310</v>
+        <v>7462</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -22033,10 +25489,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6282</v>
+        <v>7434</v>
       </c>
       <c r="C10" t="s">
-        <v>6311</v>
+        <v>7463</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -22053,10 +25509,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6283</v>
+        <v>7435</v>
       </c>
       <c r="C11" t="s">
-        <v>6312</v>
+        <v>7464</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -22073,10 +25529,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6284</v>
+        <v>7436</v>
       </c>
       <c r="C12" t="s">
-        <v>6313</v>
+        <v>7465</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -22093,10 +25549,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6285</v>
+        <v>7437</v>
       </c>
       <c r="C13" t="s">
-        <v>6314</v>
+        <v>7466</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -22113,10 +25569,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6286</v>
+        <v>7438</v>
       </c>
       <c r="C14" t="s">
-        <v>6315</v>
+        <v>7467</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -22133,10 +25589,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6287</v>
+        <v>7439</v>
       </c>
       <c r="C15" t="s">
-        <v>6316</v>
+        <v>7468</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -22153,10 +25609,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6288</v>
+        <v>7440</v>
       </c>
       <c r="C16" t="s">
-        <v>6317</v>
+        <v>7469</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -22173,10 +25629,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6289</v>
+        <v>7441</v>
       </c>
       <c r="C17" t="s">
-        <v>6318</v>
+        <v>7470</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -22193,10 +25649,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6290</v>
+        <v>7442</v>
       </c>
       <c r="C18" t="s">
-        <v>6319</v>
+        <v>7471</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -22213,10 +25669,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6291</v>
+        <v>7443</v>
       </c>
       <c r="C19" t="s">
-        <v>6320</v>
+        <v>7472</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -22233,10 +25689,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6292</v>
+        <v>7444</v>
       </c>
       <c r="C20" t="s">
-        <v>6321</v>
+        <v>7473</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -22253,10 +25709,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6293</v>
+        <v>7445</v>
       </c>
       <c r="C21" t="s">
-        <v>6322</v>
+        <v>7474</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -22273,10 +25729,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6294</v>
+        <v>7446</v>
       </c>
       <c r="C22" t="s">
-        <v>6323</v>
+        <v>7475</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -22293,10 +25749,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6295</v>
+        <v>7447</v>
       </c>
       <c r="C23" t="s">
-        <v>6324</v>
+        <v>7476</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -22313,10 +25769,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6296</v>
+        <v>7448</v>
       </c>
       <c r="C24" t="s">
-        <v>6325</v>
+        <v>7477</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -22333,10 +25789,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6297</v>
+        <v>7449</v>
       </c>
       <c r="C25" t="s">
-        <v>6326</v>
+        <v>7478</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -22353,10 +25809,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6298</v>
+        <v>7450</v>
       </c>
       <c r="C26" t="s">
-        <v>6327</v>
+        <v>7479</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -22373,10 +25829,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6299</v>
+        <v>7451</v>
       </c>
       <c r="C27" t="s">
-        <v>6328</v>
+        <v>7480</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -22393,10 +25849,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6300</v>
+        <v>7452</v>
       </c>
       <c r="C28" t="s">
-        <v>6329</v>
+        <v>7481</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -22413,10 +25869,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6301</v>
+        <v>7453</v>
       </c>
       <c r="C29" t="s">
-        <v>6330</v>
+        <v>7482</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -22441,28 +25897,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6336</v>
+        <v>7488</v>
       </c>
       <c r="B1" t="s">
-        <v>6337</v>
+        <v>7489</v>
       </c>
       <c r="C1" t="s">
-        <v>6366</v>
+        <v>7518</v>
       </c>
       <c r="D1" t="s">
-        <v>6395</v>
+        <v>7547</v>
       </c>
       <c r="E1" t="s">
-        <v>6396</v>
+        <v>7548</v>
       </c>
       <c r="F1" t="s">
-        <v>6397</v>
+        <v>7549</v>
       </c>
       <c r="G1" t="s">
-        <v>6398</v>
+        <v>7550</v>
       </c>
       <c r="H1" t="s">
-        <v>6399</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="2">
@@ -22470,10 +25926,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>6338</v>
+        <v>7490</v>
       </c>
       <c r="C2" t="s">
-        <v>6367</v>
+        <v>7519</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -22494,10 +25950,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6339</v>
+        <v>7491</v>
       </c>
       <c r="C3" t="s">
-        <v>6368</v>
+        <v>7520</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -22514,10 +25970,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6340</v>
+        <v>7492</v>
       </c>
       <c r="C4" t="s">
-        <v>6369</v>
+        <v>7521</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -22534,10 +25990,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6341</v>
+        <v>7493</v>
       </c>
       <c r="C5" t="s">
-        <v>6370</v>
+        <v>7522</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -22554,10 +26010,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6342</v>
+        <v>7494</v>
       </c>
       <c r="C6" t="s">
-        <v>6371</v>
+        <v>7523</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -22574,10 +26030,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6343</v>
+        <v>7495</v>
       </c>
       <c r="C7" t="s">
-        <v>6372</v>
+        <v>7524</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -22594,10 +26050,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6344</v>
+        <v>7496</v>
       </c>
       <c r="C8" t="s">
-        <v>6373</v>
+        <v>7525</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -22614,10 +26070,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6345</v>
+        <v>7497</v>
       </c>
       <c r="C9" t="s">
-        <v>6374</v>
+        <v>7526</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -22634,10 +26090,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6346</v>
+        <v>7498</v>
       </c>
       <c r="C10" t="s">
-        <v>6375</v>
+        <v>7527</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -22654,10 +26110,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6347</v>
+        <v>7499</v>
       </c>
       <c r="C11" t="s">
-        <v>6376</v>
+        <v>7528</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -22674,10 +26130,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6348</v>
+        <v>7500</v>
       </c>
       <c r="C12" t="s">
-        <v>6377</v>
+        <v>7529</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -22694,10 +26150,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6349</v>
+        <v>7501</v>
       </c>
       <c r="C13" t="s">
-        <v>6378</v>
+        <v>7530</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -22714,10 +26170,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6350</v>
+        <v>7502</v>
       </c>
       <c r="C14" t="s">
-        <v>6379</v>
+        <v>7531</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -22734,10 +26190,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6351</v>
+        <v>7503</v>
       </c>
       <c r="C15" t="s">
-        <v>6380</v>
+        <v>7532</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -22754,10 +26210,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6352</v>
+        <v>7504</v>
       </c>
       <c r="C16" t="s">
-        <v>6381</v>
+        <v>7533</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -22774,10 +26230,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6353</v>
+        <v>7505</v>
       </c>
       <c r="C17" t="s">
-        <v>6382</v>
+        <v>7534</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -22794,10 +26250,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6354</v>
+        <v>7506</v>
       </c>
       <c r="C18" t="s">
-        <v>6383</v>
+        <v>7535</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -22814,10 +26270,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6355</v>
+        <v>7507</v>
       </c>
       <c r="C19" t="s">
-        <v>6384</v>
+        <v>7536</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -22834,10 +26290,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6356</v>
+        <v>7508</v>
       </c>
       <c r="C20" t="s">
-        <v>6385</v>
+        <v>7537</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -22854,10 +26310,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6357</v>
+        <v>7509</v>
       </c>
       <c r="C21" t="s">
-        <v>6386</v>
+        <v>7538</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -22874,10 +26330,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6358</v>
+        <v>7510</v>
       </c>
       <c r="C22" t="s">
-        <v>6387</v>
+        <v>7539</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -22894,10 +26350,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6359</v>
+        <v>7511</v>
       </c>
       <c r="C23" t="s">
-        <v>6388</v>
+        <v>7540</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -22914,10 +26370,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6360</v>
+        <v>7512</v>
       </c>
       <c r="C24" t="s">
-        <v>6389</v>
+        <v>7541</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -22934,10 +26390,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6361</v>
+        <v>7513</v>
       </c>
       <c r="C25" t="s">
-        <v>6390</v>
+        <v>7542</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -22954,10 +26410,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6362</v>
+        <v>7514</v>
       </c>
       <c r="C26" t="s">
-        <v>6391</v>
+        <v>7543</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -22974,10 +26430,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6363</v>
+        <v>7515</v>
       </c>
       <c r="C27" t="s">
-        <v>6392</v>
+        <v>7544</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -22994,10 +26450,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6364</v>
+        <v>7516</v>
       </c>
       <c r="C28" t="s">
-        <v>6393</v>
+        <v>7545</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -23014,10 +26470,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6365</v>
+        <v>7517</v>
       </c>
       <c r="C29" t="s">
-        <v>6394</v>
+        <v>7546</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -23042,28 +26498,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6400</v>
+        <v>7552</v>
       </c>
       <c r="B1" t="s">
-        <v>6401</v>
+        <v>7553</v>
       </c>
       <c r="C1" t="s">
-        <v>6430</v>
+        <v>7582</v>
       </c>
       <c r="D1" t="s">
-        <v>6459</v>
+        <v>7611</v>
       </c>
       <c r="E1" t="s">
-        <v>6460</v>
+        <v>7612</v>
       </c>
       <c r="F1" t="s">
-        <v>6461</v>
+        <v>7613</v>
       </c>
       <c r="G1" t="s">
-        <v>6462</v>
+        <v>7614</v>
       </c>
       <c r="H1" t="s">
-        <v>6463</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="2">
@@ -23071,10 +26527,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>6402</v>
+        <v>7554</v>
       </c>
       <c r="C2" t="s">
-        <v>6431</v>
+        <v>7583</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -23095,10 +26551,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6403</v>
+        <v>7555</v>
       </c>
       <c r="C3" t="s">
-        <v>6432</v>
+        <v>7584</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -23115,10 +26571,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6404</v>
+        <v>7556</v>
       </c>
       <c r="C4" t="s">
-        <v>6433</v>
+        <v>7585</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -23135,10 +26591,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6405</v>
+        <v>7557</v>
       </c>
       <c r="C5" t="s">
-        <v>6434</v>
+        <v>7586</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -23155,10 +26611,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6406</v>
+        <v>7558</v>
       </c>
       <c r="C6" t="s">
-        <v>6435</v>
+        <v>7587</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -23175,10 +26631,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6407</v>
+        <v>7559</v>
       </c>
       <c r="C7" t="s">
-        <v>6436</v>
+        <v>7588</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -23195,10 +26651,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6408</v>
+        <v>7560</v>
       </c>
       <c r="C8" t="s">
-        <v>6437</v>
+        <v>7589</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -23215,10 +26671,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6409</v>
+        <v>7561</v>
       </c>
       <c r="C9" t="s">
-        <v>6438</v>
+        <v>7590</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -23235,10 +26691,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6410</v>
+        <v>7562</v>
       </c>
       <c r="C10" t="s">
-        <v>6439</v>
+        <v>7591</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -23255,10 +26711,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6411</v>
+        <v>7563</v>
       </c>
       <c r="C11" t="s">
-        <v>6440</v>
+        <v>7592</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -23275,10 +26731,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6412</v>
+        <v>7564</v>
       </c>
       <c r="C12" t="s">
-        <v>6441</v>
+        <v>7593</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -23295,10 +26751,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6413</v>
+        <v>7565</v>
       </c>
       <c r="C13" t="s">
-        <v>6442</v>
+        <v>7594</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -23315,10 +26771,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6414</v>
+        <v>7566</v>
       </c>
       <c r="C14" t="s">
-        <v>6443</v>
+        <v>7595</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -23335,10 +26791,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6415</v>
+        <v>7567</v>
       </c>
       <c r="C15" t="s">
-        <v>6444</v>
+        <v>7596</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -23355,10 +26811,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6416</v>
+        <v>7568</v>
       </c>
       <c r="C16" t="s">
-        <v>6445</v>
+        <v>7597</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -23375,10 +26831,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6417</v>
+        <v>7569</v>
       </c>
       <c r="C17" t="s">
-        <v>6446</v>
+        <v>7598</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -23395,10 +26851,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6418</v>
+        <v>7570</v>
       </c>
       <c r="C18" t="s">
-        <v>6447</v>
+        <v>7599</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -23415,10 +26871,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6419</v>
+        <v>7571</v>
       </c>
       <c r="C19" t="s">
-        <v>6448</v>
+        <v>7600</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -23435,10 +26891,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6420</v>
+        <v>7572</v>
       </c>
       <c r="C20" t="s">
-        <v>6449</v>
+        <v>7601</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -23455,10 +26911,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6421</v>
+        <v>7573</v>
       </c>
       <c r="C21" t="s">
-        <v>6450</v>
+        <v>7602</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -23475,10 +26931,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6422</v>
+        <v>7574</v>
       </c>
       <c r="C22" t="s">
-        <v>6451</v>
+        <v>7603</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -23495,10 +26951,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6423</v>
+        <v>7575</v>
       </c>
       <c r="C23" t="s">
-        <v>6452</v>
+        <v>7604</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -23515,10 +26971,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6424</v>
+        <v>7576</v>
       </c>
       <c r="C24" t="s">
-        <v>6453</v>
+        <v>7605</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -23535,10 +26991,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6425</v>
+        <v>7577</v>
       </c>
       <c r="C25" t="s">
-        <v>6454</v>
+        <v>7606</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -23555,10 +27011,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6426</v>
+        <v>7578</v>
       </c>
       <c r="C26" t="s">
-        <v>6455</v>
+        <v>7607</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -23575,10 +27031,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6427</v>
+        <v>7579</v>
       </c>
       <c r="C27" t="s">
-        <v>6456</v>
+        <v>7608</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -23595,10 +27051,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6428</v>
+        <v>7580</v>
       </c>
       <c r="C28" t="s">
-        <v>6457</v>
+        <v>7609</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -23615,10 +27071,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6429</v>
+        <v>7581</v>
       </c>
       <c r="C29" t="s">
-        <v>6458</v>
+        <v>7610</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -23643,28 +27099,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6464</v>
+        <v>7616</v>
       </c>
       <c r="B1" t="s">
-        <v>6465</v>
+        <v>7617</v>
       </c>
       <c r="C1" t="s">
-        <v>6494</v>
+        <v>7646</v>
       </c>
       <c r="D1" t="s">
-        <v>6523</v>
+        <v>7675</v>
       </c>
       <c r="E1" t="s">
-        <v>6524</v>
+        <v>7676</v>
       </c>
       <c r="F1" t="s">
-        <v>6525</v>
+        <v>7677</v>
       </c>
       <c r="G1" t="s">
-        <v>6526</v>
+        <v>7678</v>
       </c>
       <c r="H1" t="s">
-        <v>6527</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="2">
@@ -23672,10 +27128,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>6466</v>
+        <v>7618</v>
       </c>
       <c r="C2" t="s">
-        <v>6495</v>
+        <v>7647</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -23696,10 +27152,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6467</v>
+        <v>7619</v>
       </c>
       <c r="C3" t="s">
-        <v>6496</v>
+        <v>7648</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -23716,10 +27172,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6468</v>
+        <v>7620</v>
       </c>
       <c r="C4" t="s">
-        <v>6497</v>
+        <v>7649</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -23736,10 +27192,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6469</v>
+        <v>7621</v>
       </c>
       <c r="C5" t="s">
-        <v>6498</v>
+        <v>7650</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -23756,10 +27212,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6470</v>
+        <v>7622</v>
       </c>
       <c r="C6" t="s">
-        <v>6499</v>
+        <v>7651</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -23776,10 +27232,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6471</v>
+        <v>7623</v>
       </c>
       <c r="C7" t="s">
-        <v>6500</v>
+        <v>7652</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -23796,10 +27252,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6472</v>
+        <v>7624</v>
       </c>
       <c r="C8" t="s">
-        <v>6501</v>
+        <v>7653</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -23816,10 +27272,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6473</v>
+        <v>7625</v>
       </c>
       <c r="C9" t="s">
-        <v>6502</v>
+        <v>7654</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -23836,10 +27292,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6474</v>
+        <v>7626</v>
       </c>
       <c r="C10" t="s">
-        <v>6503</v>
+        <v>7655</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -23856,10 +27312,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6475</v>
+        <v>7627</v>
       </c>
       <c r="C11" t="s">
-        <v>6504</v>
+        <v>7656</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -23876,10 +27332,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6476</v>
+        <v>7628</v>
       </c>
       <c r="C12" t="s">
-        <v>6505</v>
+        <v>7657</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -23896,10 +27352,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6477</v>
+        <v>7629</v>
       </c>
       <c r="C13" t="s">
-        <v>6506</v>
+        <v>7658</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -23916,10 +27372,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6478</v>
+        <v>7630</v>
       </c>
       <c r="C14" t="s">
-        <v>6507</v>
+        <v>7659</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -23936,10 +27392,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6479</v>
+        <v>7631</v>
       </c>
       <c r="C15" t="s">
-        <v>6508</v>
+        <v>7660</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -23956,10 +27412,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6480</v>
+        <v>7632</v>
       </c>
       <c r="C16" t="s">
-        <v>6509</v>
+        <v>7661</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -23976,10 +27432,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6481</v>
+        <v>7633</v>
       </c>
       <c r="C17" t="s">
-        <v>6510</v>
+        <v>7662</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -23996,10 +27452,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6482</v>
+        <v>7634</v>
       </c>
       <c r="C18" t="s">
-        <v>6511</v>
+        <v>7663</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -24016,10 +27472,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6483</v>
+        <v>7635</v>
       </c>
       <c r="C19" t="s">
-        <v>6512</v>
+        <v>7664</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -24036,10 +27492,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6484</v>
+        <v>7636</v>
       </c>
       <c r="C20" t="s">
-        <v>6513</v>
+        <v>7665</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -24056,10 +27512,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6485</v>
+        <v>7637</v>
       </c>
       <c r="C21" t="s">
-        <v>6514</v>
+        <v>7666</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -24076,10 +27532,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6486</v>
+        <v>7638</v>
       </c>
       <c r="C22" t="s">
-        <v>6515</v>
+        <v>7667</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -24096,10 +27552,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6487</v>
+        <v>7639</v>
       </c>
       <c r="C23" t="s">
-        <v>6516</v>
+        <v>7668</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -24116,10 +27572,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6488</v>
+        <v>7640</v>
       </c>
       <c r="C24" t="s">
-        <v>6517</v>
+        <v>7669</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -24136,10 +27592,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6489</v>
+        <v>7641</v>
       </c>
       <c r="C25" t="s">
-        <v>6518</v>
+        <v>7670</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -24156,10 +27612,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6490</v>
+        <v>7642</v>
       </c>
       <c r="C26" t="s">
-        <v>6519</v>
+        <v>7671</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -24176,10 +27632,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6491</v>
+        <v>7643</v>
       </c>
       <c r="C27" t="s">
-        <v>6520</v>
+        <v>7672</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -24196,10 +27652,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6492</v>
+        <v>7644</v>
       </c>
       <c r="C28" t="s">
-        <v>6521</v>
+        <v>7673</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -24216,10 +27672,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6493</v>
+        <v>7645</v>
       </c>
       <c r="C29" t="s">
-        <v>6522</v>
+        <v>7674</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -24244,28 +27700,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6528</v>
+        <v>7680</v>
       </c>
       <c r="B1" t="s">
-        <v>6529</v>
+        <v>7681</v>
       </c>
       <c r="C1" t="s">
-        <v>6558</v>
+        <v>7710</v>
       </c>
       <c r="D1" t="s">
-        <v>6587</v>
+        <v>7739</v>
       </c>
       <c r="E1" t="s">
-        <v>6588</v>
+        <v>7740</v>
       </c>
       <c r="F1" t="s">
-        <v>6589</v>
+        <v>7741</v>
       </c>
       <c r="G1" t="s">
-        <v>6590</v>
+        <v>7742</v>
       </c>
       <c r="H1" t="s">
-        <v>6591</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="2">
@@ -24273,10 +27729,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>6530</v>
+        <v>7682</v>
       </c>
       <c r="C2" t="s">
-        <v>6559</v>
+        <v>7711</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -24297,10 +27753,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6531</v>
+        <v>7683</v>
       </c>
       <c r="C3" t="s">
-        <v>6560</v>
+        <v>7712</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -24317,10 +27773,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6532</v>
+        <v>7684</v>
       </c>
       <c r="C4" t="s">
-        <v>6561</v>
+        <v>7713</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -24337,10 +27793,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6533</v>
+        <v>7685</v>
       </c>
       <c r="C5" t="s">
-        <v>6562</v>
+        <v>7714</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -24357,10 +27813,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6534</v>
+        <v>7686</v>
       </c>
       <c r="C6" t="s">
-        <v>6563</v>
+        <v>7715</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -24377,10 +27833,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6535</v>
+        <v>7687</v>
       </c>
       <c r="C7" t="s">
-        <v>6564</v>
+        <v>7716</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -24397,10 +27853,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6536</v>
+        <v>7688</v>
       </c>
       <c r="C8" t="s">
-        <v>6565</v>
+        <v>7717</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -24417,10 +27873,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6537</v>
+        <v>7689</v>
       </c>
       <c r="C9" t="s">
-        <v>6566</v>
+        <v>7718</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -24437,10 +27893,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6538</v>
+        <v>7690</v>
       </c>
       <c r="C10" t="s">
-        <v>6567</v>
+        <v>7719</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -24457,10 +27913,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6539</v>
+        <v>7691</v>
       </c>
       <c r="C11" t="s">
-        <v>6568</v>
+        <v>7720</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -24477,10 +27933,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6540</v>
+        <v>7692</v>
       </c>
       <c r="C12" t="s">
-        <v>6569</v>
+        <v>7721</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -24497,10 +27953,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6541</v>
+        <v>7693</v>
       </c>
       <c r="C13" t="s">
-        <v>6570</v>
+        <v>7722</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -24517,10 +27973,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6542</v>
+        <v>7694</v>
       </c>
       <c r="C14" t="s">
-        <v>6571</v>
+        <v>7723</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -24537,10 +27993,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6543</v>
+        <v>7695</v>
       </c>
       <c r="C15" t="s">
-        <v>6572</v>
+        <v>7724</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -24557,10 +28013,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6544</v>
+        <v>7696</v>
       </c>
       <c r="C16" t="s">
-        <v>6573</v>
+        <v>7725</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -24577,10 +28033,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6545</v>
+        <v>7697</v>
       </c>
       <c r="C17" t="s">
-        <v>6574</v>
+        <v>7726</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -24597,10 +28053,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6546</v>
+        <v>7698</v>
       </c>
       <c r="C18" t="s">
-        <v>6575</v>
+        <v>7727</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -24617,10 +28073,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6547</v>
+        <v>7699</v>
       </c>
       <c r="C19" t="s">
-        <v>6576</v>
+        <v>7728</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -24637,10 +28093,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6548</v>
+        <v>7700</v>
       </c>
       <c r="C20" t="s">
-        <v>6577</v>
+        <v>7729</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -24657,10 +28113,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6549</v>
+        <v>7701</v>
       </c>
       <c r="C21" t="s">
-        <v>6578</v>
+        <v>7730</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -24677,10 +28133,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6550</v>
+        <v>7702</v>
       </c>
       <c r="C22" t="s">
-        <v>6579</v>
+        <v>7731</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -24697,10 +28153,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6551</v>
+        <v>7703</v>
       </c>
       <c r="C23" t="s">
-        <v>6580</v>
+        <v>7732</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -24717,10 +28173,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6552</v>
+        <v>7704</v>
       </c>
       <c r="C24" t="s">
-        <v>6581</v>
+        <v>7733</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -24737,10 +28193,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6553</v>
+        <v>7705</v>
       </c>
       <c r="C25" t="s">
-        <v>6582</v>
+        <v>7734</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -24757,10 +28213,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6554</v>
+        <v>7706</v>
       </c>
       <c r="C26" t="s">
-        <v>6583</v>
+        <v>7735</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -24777,10 +28233,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6555</v>
+        <v>7707</v>
       </c>
       <c r="C27" t="s">
-        <v>6584</v>
+        <v>7736</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -24797,10 +28253,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6556</v>
+        <v>7708</v>
       </c>
       <c r="C28" t="s">
-        <v>6585</v>
+        <v>7737</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -24817,10 +28273,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6557</v>
+        <v>7709</v>
       </c>
       <c r="C29" t="s">
-        <v>6586</v>
+        <v>7738</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -24845,28 +28301,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6592</v>
+        <v>7744</v>
       </c>
       <c r="B1" t="s">
-        <v>6593</v>
+        <v>7745</v>
       </c>
       <c r="C1" t="s">
-        <v>6622</v>
+        <v>7774</v>
       </c>
       <c r="D1" t="s">
-        <v>6651</v>
+        <v>7803</v>
       </c>
       <c r="E1" t="s">
-        <v>6652</v>
+        <v>7804</v>
       </c>
       <c r="F1" t="s">
-        <v>6653</v>
+        <v>7805</v>
       </c>
       <c r="G1" t="s">
-        <v>6654</v>
+        <v>7806</v>
       </c>
       <c r="H1" t="s">
-        <v>6655</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="2">
@@ -24874,10 +28330,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>6594</v>
+        <v>7746</v>
       </c>
       <c r="C2" t="s">
-        <v>6623</v>
+        <v>7775</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -24898,10 +28354,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>6595</v>
+        <v>7747</v>
       </c>
       <c r="C3" t="s">
-        <v>6624</v>
+        <v>7776</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -24918,10 +28374,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>6596</v>
+        <v>7748</v>
       </c>
       <c r="C4" t="s">
-        <v>6625</v>
+        <v>7777</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -24938,10 +28394,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>6597</v>
+        <v>7749</v>
       </c>
       <c r="C5" t="s">
-        <v>6626</v>
+        <v>7778</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -24958,10 +28414,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>6598</v>
+        <v>7750</v>
       </c>
       <c r="C6" t="s">
-        <v>6627</v>
+        <v>7779</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -24978,10 +28434,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>6599</v>
+        <v>7751</v>
       </c>
       <c r="C7" t="s">
-        <v>6628</v>
+        <v>7780</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -24998,10 +28454,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>6600</v>
+        <v>7752</v>
       </c>
       <c r="C8" t="s">
-        <v>6629</v>
+        <v>7781</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -25018,10 +28474,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>6601</v>
+        <v>7753</v>
       </c>
       <c r="C9" t="s">
-        <v>6630</v>
+        <v>7782</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -25038,10 +28494,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>6602</v>
+        <v>7754</v>
       </c>
       <c r="C10" t="s">
-        <v>6631</v>
+        <v>7783</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -25058,10 +28514,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6603</v>
+        <v>7755</v>
       </c>
       <c r="C11" t="s">
-        <v>6632</v>
+        <v>7784</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -25078,10 +28534,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>6604</v>
+        <v>7756</v>
       </c>
       <c r="C12" t="s">
-        <v>6633</v>
+        <v>7785</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -25098,10 +28554,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>6605</v>
+        <v>7757</v>
       </c>
       <c r="C13" t="s">
-        <v>6634</v>
+        <v>7786</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -25118,10 +28574,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>6606</v>
+        <v>7758</v>
       </c>
       <c r="C14" t="s">
-        <v>6635</v>
+        <v>7787</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -25138,10 +28594,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>6607</v>
+        <v>7759</v>
       </c>
       <c r="C15" t="s">
-        <v>6636</v>
+        <v>7788</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -25158,10 +28614,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>6608</v>
+        <v>7760</v>
       </c>
       <c r="C16" t="s">
-        <v>6637</v>
+        <v>7789</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -25178,10 +28634,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>6609</v>
+        <v>7761</v>
       </c>
       <c r="C17" t="s">
-        <v>6638</v>
+        <v>7790</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -25198,10 +28654,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>6610</v>
+        <v>7762</v>
       </c>
       <c r="C18" t="s">
-        <v>6639</v>
+        <v>7791</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -25218,10 +28674,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>6611</v>
+        <v>7763</v>
       </c>
       <c r="C19" t="s">
-        <v>6640</v>
+        <v>7792</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -25238,10 +28694,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>6612</v>
+        <v>7764</v>
       </c>
       <c r="C20" t="s">
-        <v>6641</v>
+        <v>7793</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -25258,10 +28714,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>6613</v>
+        <v>7765</v>
       </c>
       <c r="C21" t="s">
-        <v>6642</v>
+        <v>7794</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -25278,10 +28734,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>6614</v>
+        <v>7766</v>
       </c>
       <c r="C22" t="s">
-        <v>6643</v>
+        <v>7795</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -25298,10 +28754,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>6615</v>
+        <v>7767</v>
       </c>
       <c r="C23" t="s">
-        <v>6644</v>
+        <v>7796</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -25318,10 +28774,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>6616</v>
+        <v>7768</v>
       </c>
       <c r="C24" t="s">
-        <v>6645</v>
+        <v>7797</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -25338,10 +28794,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>6617</v>
+        <v>7769</v>
       </c>
       <c r="C25" t="s">
-        <v>6646</v>
+        <v>7798</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -25358,10 +28814,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>6618</v>
+        <v>7770</v>
       </c>
       <c r="C26" t="s">
-        <v>6647</v>
+        <v>7799</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -25378,10 +28834,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>6619</v>
+        <v>7771</v>
       </c>
       <c r="C27" t="s">
-        <v>6648</v>
+        <v>7800</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -25398,10 +28854,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>6620</v>
+        <v>7772</v>
       </c>
       <c r="C28" t="s">
-        <v>6649</v>
+        <v>7801</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -25418,10 +28874,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>6621</v>
+        <v>7773</v>
       </c>
       <c r="C29" t="s">
-        <v>6650</v>
+        <v>7802</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>

--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,1735 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="7808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="8384">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -23493,28 +25221,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7232</v>
+        <v>7808</v>
       </c>
       <c r="B1" t="s">
-        <v>7233</v>
+        <v>7809</v>
       </c>
       <c r="C1" t="s">
-        <v>7262</v>
+        <v>7838</v>
       </c>
       <c r="D1" t="s">
-        <v>7291</v>
+        <v>7867</v>
       </c>
       <c r="E1" t="s">
-        <v>7292</v>
+        <v>7868</v>
       </c>
       <c r="F1" t="s">
-        <v>7293</v>
+        <v>7869</v>
       </c>
       <c r="G1" t="s">
-        <v>7294</v>
+        <v>7870</v>
       </c>
       <c r="H1" t="s">
-        <v>7295</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="2">
@@ -23522,10 +25250,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>7234</v>
+        <v>7810</v>
       </c>
       <c r="C2" t="s">
-        <v>7263</v>
+        <v>7839</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -23546,10 +25274,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7235</v>
+        <v>7811</v>
       </c>
       <c r="C3" t="s">
-        <v>7264</v>
+        <v>7840</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -23566,10 +25294,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7236</v>
+        <v>7812</v>
       </c>
       <c r="C4" t="s">
-        <v>7265</v>
+        <v>7841</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -23586,10 +25314,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7237</v>
+        <v>7813</v>
       </c>
       <c r="C5" t="s">
-        <v>7266</v>
+        <v>7842</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -23606,10 +25334,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7238</v>
+        <v>7814</v>
       </c>
       <c r="C6" t="s">
-        <v>7267</v>
+        <v>7843</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -23626,10 +25354,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7239</v>
+        <v>7815</v>
       </c>
       <c r="C7" t="s">
-        <v>7268</v>
+        <v>7844</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -23646,10 +25374,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7240</v>
+        <v>7816</v>
       </c>
       <c r="C8" t="s">
-        <v>7269</v>
+        <v>7845</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -23666,10 +25394,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7241</v>
+        <v>7817</v>
       </c>
       <c r="C9" t="s">
-        <v>7270</v>
+        <v>7846</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -23686,10 +25414,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7242</v>
+        <v>7818</v>
       </c>
       <c r="C10" t="s">
-        <v>7271</v>
+        <v>7847</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -23706,10 +25434,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7243</v>
+        <v>7819</v>
       </c>
       <c r="C11" t="s">
-        <v>7272</v>
+        <v>7848</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -23726,10 +25454,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7244</v>
+        <v>7820</v>
       </c>
       <c r="C12" t="s">
-        <v>7273</v>
+        <v>7849</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -23746,10 +25474,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7245</v>
+        <v>7821</v>
       </c>
       <c r="C13" t="s">
-        <v>7274</v>
+        <v>7850</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -23766,10 +25494,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7246</v>
+        <v>7822</v>
       </c>
       <c r="C14" t="s">
-        <v>7275</v>
+        <v>7851</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -23786,10 +25514,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7247</v>
+        <v>7823</v>
       </c>
       <c r="C15" t="s">
-        <v>7276</v>
+        <v>7852</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -23806,10 +25534,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7248</v>
+        <v>7824</v>
       </c>
       <c r="C16" t="s">
-        <v>7277</v>
+        <v>7853</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -23826,10 +25554,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7249</v>
+        <v>7825</v>
       </c>
       <c r="C17" t="s">
-        <v>7278</v>
+        <v>7854</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -23846,10 +25574,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7250</v>
+        <v>7826</v>
       </c>
       <c r="C18" t="s">
-        <v>7279</v>
+        <v>7855</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -23866,10 +25594,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7251</v>
+        <v>7827</v>
       </c>
       <c r="C19" t="s">
-        <v>7280</v>
+        <v>7856</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -23886,10 +25614,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7252</v>
+        <v>7828</v>
       </c>
       <c r="C20" t="s">
-        <v>7281</v>
+        <v>7857</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -23906,10 +25634,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7253</v>
+        <v>7829</v>
       </c>
       <c r="C21" t="s">
-        <v>7282</v>
+        <v>7858</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -23926,10 +25654,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7254</v>
+        <v>7830</v>
       </c>
       <c r="C22" t="s">
-        <v>7283</v>
+        <v>7859</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -23946,10 +25674,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7255</v>
+        <v>7831</v>
       </c>
       <c r="C23" t="s">
-        <v>7284</v>
+        <v>7860</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -23966,10 +25694,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7256</v>
+        <v>7832</v>
       </c>
       <c r="C24" t="s">
-        <v>7285</v>
+        <v>7861</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -23986,10 +25714,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7257</v>
+        <v>7833</v>
       </c>
       <c r="C25" t="s">
-        <v>7286</v>
+        <v>7862</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -24006,10 +25734,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7258</v>
+        <v>7834</v>
       </c>
       <c r="C26" t="s">
-        <v>7287</v>
+        <v>7863</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -24026,10 +25754,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7259</v>
+        <v>7835</v>
       </c>
       <c r="C27" t="s">
-        <v>7288</v>
+        <v>7864</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -24046,10 +25774,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7260</v>
+        <v>7836</v>
       </c>
       <c r="C28" t="s">
-        <v>7289</v>
+        <v>7865</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -24066,10 +25794,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7261</v>
+        <v>7837</v>
       </c>
       <c r="C29" t="s">
-        <v>7290</v>
+        <v>7866</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -24094,28 +25822,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7296</v>
+        <v>7872</v>
       </c>
       <c r="B1" t="s">
-        <v>7297</v>
+        <v>7873</v>
       </c>
       <c r="C1" t="s">
-        <v>7326</v>
+        <v>7902</v>
       </c>
       <c r="D1" t="s">
-        <v>7355</v>
+        <v>7931</v>
       </c>
       <c r="E1" t="s">
-        <v>7356</v>
+        <v>7932</v>
       </c>
       <c r="F1" t="s">
-        <v>7357</v>
+        <v>7933</v>
       </c>
       <c r="G1" t="s">
-        <v>7358</v>
+        <v>7934</v>
       </c>
       <c r="H1" t="s">
-        <v>7359</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="2">
@@ -24123,10 +25851,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>7298</v>
+        <v>7874</v>
       </c>
       <c r="C2" t="s">
-        <v>7327</v>
+        <v>7903</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -24147,10 +25875,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7299</v>
+        <v>7875</v>
       </c>
       <c r="C3" t="s">
-        <v>7328</v>
+        <v>7904</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -24167,10 +25895,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7300</v>
+        <v>7876</v>
       </c>
       <c r="C4" t="s">
-        <v>7329</v>
+        <v>7905</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -24187,10 +25915,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7301</v>
+        <v>7877</v>
       </c>
       <c r="C5" t="s">
-        <v>7330</v>
+        <v>7906</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -24207,10 +25935,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7302</v>
+        <v>7878</v>
       </c>
       <c r="C6" t="s">
-        <v>7331</v>
+        <v>7907</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -24227,10 +25955,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7303</v>
+        <v>7879</v>
       </c>
       <c r="C7" t="s">
-        <v>7332</v>
+        <v>7908</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -24247,10 +25975,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7304</v>
+        <v>7880</v>
       </c>
       <c r="C8" t="s">
-        <v>7333</v>
+        <v>7909</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -24267,10 +25995,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7305</v>
+        <v>7881</v>
       </c>
       <c r="C9" t="s">
-        <v>7334</v>
+        <v>7910</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -24287,10 +26015,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7306</v>
+        <v>7882</v>
       </c>
       <c r="C10" t="s">
-        <v>7335</v>
+        <v>7911</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -24307,10 +26035,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7307</v>
+        <v>7883</v>
       </c>
       <c r="C11" t="s">
-        <v>7336</v>
+        <v>7912</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -24327,10 +26055,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7308</v>
+        <v>7884</v>
       </c>
       <c r="C12" t="s">
-        <v>7337</v>
+        <v>7913</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -24347,10 +26075,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7309</v>
+        <v>7885</v>
       </c>
       <c r="C13" t="s">
-        <v>7338</v>
+        <v>7914</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -24367,10 +26095,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7310</v>
+        <v>7886</v>
       </c>
       <c r="C14" t="s">
-        <v>7339</v>
+        <v>7915</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -24387,10 +26115,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7311</v>
+        <v>7887</v>
       </c>
       <c r="C15" t="s">
-        <v>7340</v>
+        <v>7916</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -24407,10 +26135,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7312</v>
+        <v>7888</v>
       </c>
       <c r="C16" t="s">
-        <v>7341</v>
+        <v>7917</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -24427,10 +26155,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7313</v>
+        <v>7889</v>
       </c>
       <c r="C17" t="s">
-        <v>7342</v>
+        <v>7918</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -24447,10 +26175,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7314</v>
+        <v>7890</v>
       </c>
       <c r="C18" t="s">
-        <v>7343</v>
+        <v>7919</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -24467,10 +26195,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7315</v>
+        <v>7891</v>
       </c>
       <c r="C19" t="s">
-        <v>7344</v>
+        <v>7920</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -24487,10 +26215,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7316</v>
+        <v>7892</v>
       </c>
       <c r="C20" t="s">
-        <v>7345</v>
+        <v>7921</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -24507,10 +26235,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7317</v>
+        <v>7893</v>
       </c>
       <c r="C21" t="s">
-        <v>7346</v>
+        <v>7922</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -24527,10 +26255,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7318</v>
+        <v>7894</v>
       </c>
       <c r="C22" t="s">
-        <v>7347</v>
+        <v>7923</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -24547,10 +26275,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7319</v>
+        <v>7895</v>
       </c>
       <c r="C23" t="s">
-        <v>7348</v>
+        <v>7924</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -24567,10 +26295,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7320</v>
+        <v>7896</v>
       </c>
       <c r="C24" t="s">
-        <v>7349</v>
+        <v>7925</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -24587,10 +26315,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7321</v>
+        <v>7897</v>
       </c>
       <c r="C25" t="s">
-        <v>7350</v>
+        <v>7926</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -24607,10 +26335,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7322</v>
+        <v>7898</v>
       </c>
       <c r="C26" t="s">
-        <v>7351</v>
+        <v>7927</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -24627,10 +26355,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7323</v>
+        <v>7899</v>
       </c>
       <c r="C27" t="s">
-        <v>7352</v>
+        <v>7928</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -24647,10 +26375,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7324</v>
+        <v>7900</v>
       </c>
       <c r="C28" t="s">
-        <v>7353</v>
+        <v>7929</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -24667,10 +26395,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7325</v>
+        <v>7901</v>
       </c>
       <c r="C29" t="s">
-        <v>7354</v>
+        <v>7930</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -24695,28 +26423,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7360</v>
+        <v>7936</v>
       </c>
       <c r="B1" t="s">
-        <v>7361</v>
+        <v>7937</v>
       </c>
       <c r="C1" t="s">
-        <v>7390</v>
+        <v>7966</v>
       </c>
       <c r="D1" t="s">
-        <v>7419</v>
+        <v>7995</v>
       </c>
       <c r="E1" t="s">
-        <v>7420</v>
+        <v>7996</v>
       </c>
       <c r="F1" t="s">
-        <v>7421</v>
+        <v>7997</v>
       </c>
       <c r="G1" t="s">
-        <v>7422</v>
+        <v>7998</v>
       </c>
       <c r="H1" t="s">
-        <v>7423</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="2">
@@ -24724,10 +26452,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>7362</v>
+        <v>7938</v>
       </c>
       <c r="C2" t="s">
-        <v>7391</v>
+        <v>7967</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -24748,10 +26476,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7363</v>
+        <v>7939</v>
       </c>
       <c r="C3" t="s">
-        <v>7392</v>
+        <v>7968</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -24768,10 +26496,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7364</v>
+        <v>7940</v>
       </c>
       <c r="C4" t="s">
-        <v>7393</v>
+        <v>7969</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -24788,10 +26516,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7365</v>
+        <v>7941</v>
       </c>
       <c r="C5" t="s">
-        <v>7394</v>
+        <v>7970</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -24808,10 +26536,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7366</v>
+        <v>7942</v>
       </c>
       <c r="C6" t="s">
-        <v>7395</v>
+        <v>7971</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -24828,10 +26556,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7367</v>
+        <v>7943</v>
       </c>
       <c r="C7" t="s">
-        <v>7396</v>
+        <v>7972</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -24848,10 +26576,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7368</v>
+        <v>7944</v>
       </c>
       <c r="C8" t="s">
-        <v>7397</v>
+        <v>7973</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -24868,10 +26596,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7369</v>
+        <v>7945</v>
       </c>
       <c r="C9" t="s">
-        <v>7398</v>
+        <v>7974</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -24888,10 +26616,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7370</v>
+        <v>7946</v>
       </c>
       <c r="C10" t="s">
-        <v>7399</v>
+        <v>7975</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -24908,10 +26636,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7371</v>
+        <v>7947</v>
       </c>
       <c r="C11" t="s">
-        <v>7400</v>
+        <v>7976</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -24928,10 +26656,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7372</v>
+        <v>7948</v>
       </c>
       <c r="C12" t="s">
-        <v>7401</v>
+        <v>7977</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -24948,10 +26676,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7373</v>
+        <v>7949</v>
       </c>
       <c r="C13" t="s">
-        <v>7402</v>
+        <v>7978</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -24968,10 +26696,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7374</v>
+        <v>7950</v>
       </c>
       <c r="C14" t="s">
-        <v>7403</v>
+        <v>7979</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -24988,10 +26716,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7375</v>
+        <v>7951</v>
       </c>
       <c r="C15" t="s">
-        <v>7404</v>
+        <v>7980</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -25008,10 +26736,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7376</v>
+        <v>7952</v>
       </c>
       <c r="C16" t="s">
-        <v>7405</v>
+        <v>7981</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -25028,10 +26756,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7377</v>
+        <v>7953</v>
       </c>
       <c r="C17" t="s">
-        <v>7406</v>
+        <v>7982</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -25048,10 +26776,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7378</v>
+        <v>7954</v>
       </c>
       <c r="C18" t="s">
-        <v>7407</v>
+        <v>7983</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -25068,10 +26796,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7379</v>
+        <v>7955</v>
       </c>
       <c r="C19" t="s">
-        <v>7408</v>
+        <v>7984</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -25088,10 +26816,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7380</v>
+        <v>7956</v>
       </c>
       <c r="C20" t="s">
-        <v>7409</v>
+        <v>7985</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -25108,10 +26836,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7381</v>
+        <v>7957</v>
       </c>
       <c r="C21" t="s">
-        <v>7410</v>
+        <v>7986</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -25128,10 +26856,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7382</v>
+        <v>7958</v>
       </c>
       <c r="C22" t="s">
-        <v>7411</v>
+        <v>7987</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -25148,10 +26876,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7383</v>
+        <v>7959</v>
       </c>
       <c r="C23" t="s">
-        <v>7412</v>
+        <v>7988</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -25168,10 +26896,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7384</v>
+        <v>7960</v>
       </c>
       <c r="C24" t="s">
-        <v>7413</v>
+        <v>7989</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -25188,10 +26916,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7385</v>
+        <v>7961</v>
       </c>
       <c r="C25" t="s">
-        <v>7414</v>
+        <v>7990</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -25208,10 +26936,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7386</v>
+        <v>7962</v>
       </c>
       <c r="C26" t="s">
-        <v>7415</v>
+        <v>7991</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -25228,10 +26956,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7387</v>
+        <v>7963</v>
       </c>
       <c r="C27" t="s">
-        <v>7416</v>
+        <v>7992</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -25248,10 +26976,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7388</v>
+        <v>7964</v>
       </c>
       <c r="C28" t="s">
-        <v>7417</v>
+        <v>7993</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -25268,10 +26996,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7389</v>
+        <v>7965</v>
       </c>
       <c r="C29" t="s">
-        <v>7418</v>
+        <v>7994</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -25296,28 +27024,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7424</v>
+        <v>8000</v>
       </c>
       <c r="B1" t="s">
-        <v>7425</v>
+        <v>8001</v>
       </c>
       <c r="C1" t="s">
-        <v>7454</v>
+        <v>8030</v>
       </c>
       <c r="D1" t="s">
-        <v>7483</v>
+        <v>8059</v>
       </c>
       <c r="E1" t="s">
-        <v>7484</v>
+        <v>8060</v>
       </c>
       <c r="F1" t="s">
-        <v>7485</v>
+        <v>8061</v>
       </c>
       <c r="G1" t="s">
-        <v>7486</v>
+        <v>8062</v>
       </c>
       <c r="H1" t="s">
-        <v>7487</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="2">
@@ -25325,10 +27053,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>7426</v>
+        <v>8002</v>
       </c>
       <c r="C2" t="s">
-        <v>7455</v>
+        <v>8031</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -25349,10 +27077,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7427</v>
+        <v>8003</v>
       </c>
       <c r="C3" t="s">
-        <v>7456</v>
+        <v>8032</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -25369,10 +27097,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7428</v>
+        <v>8004</v>
       </c>
       <c r="C4" t="s">
-        <v>7457</v>
+        <v>8033</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -25389,10 +27117,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7429</v>
+        <v>8005</v>
       </c>
       <c r="C5" t="s">
-        <v>7458</v>
+        <v>8034</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -25409,10 +27137,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7430</v>
+        <v>8006</v>
       </c>
       <c r="C6" t="s">
-        <v>7459</v>
+        <v>8035</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -25429,10 +27157,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7431</v>
+        <v>8007</v>
       </c>
       <c r="C7" t="s">
-        <v>7460</v>
+        <v>8036</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -25449,10 +27177,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7432</v>
+        <v>8008</v>
       </c>
       <c r="C8" t="s">
-        <v>7461</v>
+        <v>8037</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -25469,10 +27197,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7433</v>
+        <v>8009</v>
       </c>
       <c r="C9" t="s">
-        <v>7462</v>
+        <v>8038</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -25489,10 +27217,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7434</v>
+        <v>8010</v>
       </c>
       <c r="C10" t="s">
-        <v>7463</v>
+        <v>8039</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -25509,10 +27237,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7435</v>
+        <v>8011</v>
       </c>
       <c r="C11" t="s">
-        <v>7464</v>
+        <v>8040</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -25529,10 +27257,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7436</v>
+        <v>8012</v>
       </c>
       <c r="C12" t="s">
-        <v>7465</v>
+        <v>8041</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -25549,10 +27277,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7437</v>
+        <v>8013</v>
       </c>
       <c r="C13" t="s">
-        <v>7466</v>
+        <v>8042</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -25569,10 +27297,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7438</v>
+        <v>8014</v>
       </c>
       <c r="C14" t="s">
-        <v>7467</v>
+        <v>8043</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -25589,10 +27317,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7439</v>
+        <v>8015</v>
       </c>
       <c r="C15" t="s">
-        <v>7468</v>
+        <v>8044</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -25609,10 +27337,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7440</v>
+        <v>8016</v>
       </c>
       <c r="C16" t="s">
-        <v>7469</v>
+        <v>8045</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -25629,10 +27357,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7441</v>
+        <v>8017</v>
       </c>
       <c r="C17" t="s">
-        <v>7470</v>
+        <v>8046</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -25649,10 +27377,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7442</v>
+        <v>8018</v>
       </c>
       <c r="C18" t="s">
-        <v>7471</v>
+        <v>8047</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -25669,10 +27397,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7443</v>
+        <v>8019</v>
       </c>
       <c r="C19" t="s">
-        <v>7472</v>
+        <v>8048</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -25689,10 +27417,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7444</v>
+        <v>8020</v>
       </c>
       <c r="C20" t="s">
-        <v>7473</v>
+        <v>8049</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -25709,10 +27437,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7445</v>
+        <v>8021</v>
       </c>
       <c r="C21" t="s">
-        <v>7474</v>
+        <v>8050</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -25729,10 +27457,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7446</v>
+        <v>8022</v>
       </c>
       <c r="C22" t="s">
-        <v>7475</v>
+        <v>8051</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -25749,10 +27477,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7447</v>
+        <v>8023</v>
       </c>
       <c r="C23" t="s">
-        <v>7476</v>
+        <v>8052</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -25769,10 +27497,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7448</v>
+        <v>8024</v>
       </c>
       <c r="C24" t="s">
-        <v>7477</v>
+        <v>8053</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -25789,10 +27517,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7449</v>
+        <v>8025</v>
       </c>
       <c r="C25" t="s">
-        <v>7478</v>
+        <v>8054</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -25809,10 +27537,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7450</v>
+        <v>8026</v>
       </c>
       <c r="C26" t="s">
-        <v>7479</v>
+        <v>8055</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -25829,10 +27557,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7451</v>
+        <v>8027</v>
       </c>
       <c r="C27" t="s">
-        <v>7480</v>
+        <v>8056</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -25849,10 +27577,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7452</v>
+        <v>8028</v>
       </c>
       <c r="C28" t="s">
-        <v>7481</v>
+        <v>8057</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -25869,10 +27597,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7453</v>
+        <v>8029</v>
       </c>
       <c r="C29" t="s">
-        <v>7482</v>
+        <v>8058</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -25897,28 +27625,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7488</v>
+        <v>8064</v>
       </c>
       <c r="B1" t="s">
-        <v>7489</v>
+        <v>8065</v>
       </c>
       <c r="C1" t="s">
-        <v>7518</v>
+        <v>8094</v>
       </c>
       <c r="D1" t="s">
-        <v>7547</v>
+        <v>8123</v>
       </c>
       <c r="E1" t="s">
-        <v>7548</v>
+        <v>8124</v>
       </c>
       <c r="F1" t="s">
-        <v>7549</v>
+        <v>8125</v>
       </c>
       <c r="G1" t="s">
-        <v>7550</v>
+        <v>8126</v>
       </c>
       <c r="H1" t="s">
-        <v>7551</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="2">
@@ -25926,10 +27654,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>7490</v>
+        <v>8066</v>
       </c>
       <c r="C2" t="s">
-        <v>7519</v>
+        <v>8095</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -25950,10 +27678,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7491</v>
+        <v>8067</v>
       </c>
       <c r="C3" t="s">
-        <v>7520</v>
+        <v>8096</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -25970,10 +27698,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7492</v>
+        <v>8068</v>
       </c>
       <c r="C4" t="s">
-        <v>7521</v>
+        <v>8097</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -25990,10 +27718,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7493</v>
+        <v>8069</v>
       </c>
       <c r="C5" t="s">
-        <v>7522</v>
+        <v>8098</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -26010,10 +27738,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7494</v>
+        <v>8070</v>
       </c>
       <c r="C6" t="s">
-        <v>7523</v>
+        <v>8099</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -26030,10 +27758,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7495</v>
+        <v>8071</v>
       </c>
       <c r="C7" t="s">
-        <v>7524</v>
+        <v>8100</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -26050,10 +27778,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7496</v>
+        <v>8072</v>
       </c>
       <c r="C8" t="s">
-        <v>7525</v>
+        <v>8101</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -26070,10 +27798,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7497</v>
+        <v>8073</v>
       </c>
       <c r="C9" t="s">
-        <v>7526</v>
+        <v>8102</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -26090,10 +27818,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7498</v>
+        <v>8074</v>
       </c>
       <c r="C10" t="s">
-        <v>7527</v>
+        <v>8103</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -26110,10 +27838,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7499</v>
+        <v>8075</v>
       </c>
       <c r="C11" t="s">
-        <v>7528</v>
+        <v>8104</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -26130,10 +27858,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7500</v>
+        <v>8076</v>
       </c>
       <c r="C12" t="s">
-        <v>7529</v>
+        <v>8105</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -26150,10 +27878,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7501</v>
+        <v>8077</v>
       </c>
       <c r="C13" t="s">
-        <v>7530</v>
+        <v>8106</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -26170,10 +27898,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7502</v>
+        <v>8078</v>
       </c>
       <c r="C14" t="s">
-        <v>7531</v>
+        <v>8107</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -26190,10 +27918,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7503</v>
+        <v>8079</v>
       </c>
       <c r="C15" t="s">
-        <v>7532</v>
+        <v>8108</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -26210,10 +27938,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7504</v>
+        <v>8080</v>
       </c>
       <c r="C16" t="s">
-        <v>7533</v>
+        <v>8109</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -26230,10 +27958,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7505</v>
+        <v>8081</v>
       </c>
       <c r="C17" t="s">
-        <v>7534</v>
+        <v>8110</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -26250,10 +27978,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7506</v>
+        <v>8082</v>
       </c>
       <c r="C18" t="s">
-        <v>7535</v>
+        <v>8111</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -26270,10 +27998,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7507</v>
+        <v>8083</v>
       </c>
       <c r="C19" t="s">
-        <v>7536</v>
+        <v>8112</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -26290,10 +28018,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7508</v>
+        <v>8084</v>
       </c>
       <c r="C20" t="s">
-        <v>7537</v>
+        <v>8113</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -26310,10 +28038,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7509</v>
+        <v>8085</v>
       </c>
       <c r="C21" t="s">
-        <v>7538</v>
+        <v>8114</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -26330,10 +28058,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7510</v>
+        <v>8086</v>
       </c>
       <c r="C22" t="s">
-        <v>7539</v>
+        <v>8115</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -26350,10 +28078,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7511</v>
+        <v>8087</v>
       </c>
       <c r="C23" t="s">
-        <v>7540</v>
+        <v>8116</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -26370,10 +28098,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7512</v>
+        <v>8088</v>
       </c>
       <c r="C24" t="s">
-        <v>7541</v>
+        <v>8117</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -26390,10 +28118,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7513</v>
+        <v>8089</v>
       </c>
       <c r="C25" t="s">
-        <v>7542</v>
+        <v>8118</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -26410,10 +28138,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7514</v>
+        <v>8090</v>
       </c>
       <c r="C26" t="s">
-        <v>7543</v>
+        <v>8119</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -26430,10 +28158,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7515</v>
+        <v>8091</v>
       </c>
       <c r="C27" t="s">
-        <v>7544</v>
+        <v>8120</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -26450,10 +28178,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7516</v>
+        <v>8092</v>
       </c>
       <c r="C28" t="s">
-        <v>7545</v>
+        <v>8121</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -26470,10 +28198,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7517</v>
+        <v>8093</v>
       </c>
       <c r="C29" t="s">
-        <v>7546</v>
+        <v>8122</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -26498,28 +28226,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7552</v>
+        <v>8128</v>
       </c>
       <c r="B1" t="s">
-        <v>7553</v>
+        <v>8129</v>
       </c>
       <c r="C1" t="s">
-        <v>7582</v>
+        <v>8158</v>
       </c>
       <c r="D1" t="s">
-        <v>7611</v>
+        <v>8187</v>
       </c>
       <c r="E1" t="s">
-        <v>7612</v>
+        <v>8188</v>
       </c>
       <c r="F1" t="s">
-        <v>7613</v>
+        <v>8189</v>
       </c>
       <c r="G1" t="s">
-        <v>7614</v>
+        <v>8190</v>
       </c>
       <c r="H1" t="s">
-        <v>7615</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="2">
@@ -26527,10 +28255,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>7554</v>
+        <v>8130</v>
       </c>
       <c r="C2" t="s">
-        <v>7583</v>
+        <v>8159</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -26551,10 +28279,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7555</v>
+        <v>8131</v>
       </c>
       <c r="C3" t="s">
-        <v>7584</v>
+        <v>8160</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -26571,10 +28299,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7556</v>
+        <v>8132</v>
       </c>
       <c r="C4" t="s">
-        <v>7585</v>
+        <v>8161</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -26591,10 +28319,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7557</v>
+        <v>8133</v>
       </c>
       <c r="C5" t="s">
-        <v>7586</v>
+        <v>8162</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -26611,10 +28339,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7558</v>
+        <v>8134</v>
       </c>
       <c r="C6" t="s">
-        <v>7587</v>
+        <v>8163</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -26631,10 +28359,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7559</v>
+        <v>8135</v>
       </c>
       <c r="C7" t="s">
-        <v>7588</v>
+        <v>8164</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -26651,10 +28379,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7560</v>
+        <v>8136</v>
       </c>
       <c r="C8" t="s">
-        <v>7589</v>
+        <v>8165</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -26671,10 +28399,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7561</v>
+        <v>8137</v>
       </c>
       <c r="C9" t="s">
-        <v>7590</v>
+        <v>8166</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -26691,10 +28419,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7562</v>
+        <v>8138</v>
       </c>
       <c r="C10" t="s">
-        <v>7591</v>
+        <v>8167</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -26711,10 +28439,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7563</v>
+        <v>8139</v>
       </c>
       <c r="C11" t="s">
-        <v>7592</v>
+        <v>8168</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -26731,10 +28459,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7564</v>
+        <v>8140</v>
       </c>
       <c r="C12" t="s">
-        <v>7593</v>
+        <v>8169</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -26751,10 +28479,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7565</v>
+        <v>8141</v>
       </c>
       <c r="C13" t="s">
-        <v>7594</v>
+        <v>8170</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -26771,10 +28499,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7566</v>
+        <v>8142</v>
       </c>
       <c r="C14" t="s">
-        <v>7595</v>
+        <v>8171</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -26791,10 +28519,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7567</v>
+        <v>8143</v>
       </c>
       <c r="C15" t="s">
-        <v>7596</v>
+        <v>8172</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -26811,10 +28539,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7568</v>
+        <v>8144</v>
       </c>
       <c r="C16" t="s">
-        <v>7597</v>
+        <v>8173</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -26831,10 +28559,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7569</v>
+        <v>8145</v>
       </c>
       <c r="C17" t="s">
-        <v>7598</v>
+        <v>8174</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -26851,10 +28579,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7570</v>
+        <v>8146</v>
       </c>
       <c r="C18" t="s">
-        <v>7599</v>
+        <v>8175</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -26871,10 +28599,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7571</v>
+        <v>8147</v>
       </c>
       <c r="C19" t="s">
-        <v>7600</v>
+        <v>8176</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -26891,10 +28619,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7572</v>
+        <v>8148</v>
       </c>
       <c r="C20" t="s">
-        <v>7601</v>
+        <v>8177</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -26911,10 +28639,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7573</v>
+        <v>8149</v>
       </c>
       <c r="C21" t="s">
-        <v>7602</v>
+        <v>8178</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -26931,10 +28659,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7574</v>
+        <v>8150</v>
       </c>
       <c r="C22" t="s">
-        <v>7603</v>
+        <v>8179</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -26951,10 +28679,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7575</v>
+        <v>8151</v>
       </c>
       <c r="C23" t="s">
-        <v>7604</v>
+        <v>8180</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -26971,10 +28699,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7576</v>
+        <v>8152</v>
       </c>
       <c r="C24" t="s">
-        <v>7605</v>
+        <v>8181</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -26991,10 +28719,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7577</v>
+        <v>8153</v>
       </c>
       <c r="C25" t="s">
-        <v>7606</v>
+        <v>8182</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -27011,10 +28739,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7578</v>
+        <v>8154</v>
       </c>
       <c r="C26" t="s">
-        <v>7607</v>
+        <v>8183</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -27031,10 +28759,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7579</v>
+        <v>8155</v>
       </c>
       <c r="C27" t="s">
-        <v>7608</v>
+        <v>8184</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -27051,10 +28779,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7580</v>
+        <v>8156</v>
       </c>
       <c r="C28" t="s">
-        <v>7609</v>
+        <v>8185</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -27071,10 +28799,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7581</v>
+        <v>8157</v>
       </c>
       <c r="C29" t="s">
-        <v>7610</v>
+        <v>8186</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -27099,28 +28827,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7616</v>
+        <v>8192</v>
       </c>
       <c r="B1" t="s">
-        <v>7617</v>
+        <v>8193</v>
       </c>
       <c r="C1" t="s">
-        <v>7646</v>
+        <v>8222</v>
       </c>
       <c r="D1" t="s">
-        <v>7675</v>
+        <v>8251</v>
       </c>
       <c r="E1" t="s">
-        <v>7676</v>
+        <v>8252</v>
       </c>
       <c r="F1" t="s">
-        <v>7677</v>
+        <v>8253</v>
       </c>
       <c r="G1" t="s">
-        <v>7678</v>
+        <v>8254</v>
       </c>
       <c r="H1" t="s">
-        <v>7679</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="2">
@@ -27128,10 +28856,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>7618</v>
+        <v>8194</v>
       </c>
       <c r="C2" t="s">
-        <v>7647</v>
+        <v>8223</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -27152,10 +28880,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7619</v>
+        <v>8195</v>
       </c>
       <c r="C3" t="s">
-        <v>7648</v>
+        <v>8224</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -27172,10 +28900,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7620</v>
+        <v>8196</v>
       </c>
       <c r="C4" t="s">
-        <v>7649</v>
+        <v>8225</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -27192,10 +28920,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7621</v>
+        <v>8197</v>
       </c>
       <c r="C5" t="s">
-        <v>7650</v>
+        <v>8226</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -27212,10 +28940,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7622</v>
+        <v>8198</v>
       </c>
       <c r="C6" t="s">
-        <v>7651</v>
+        <v>8227</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -27232,10 +28960,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7623</v>
+        <v>8199</v>
       </c>
       <c r="C7" t="s">
-        <v>7652</v>
+        <v>8228</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -27252,10 +28980,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7624</v>
+        <v>8200</v>
       </c>
       <c r="C8" t="s">
-        <v>7653</v>
+        <v>8229</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -27272,10 +29000,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7625</v>
+        <v>8201</v>
       </c>
       <c r="C9" t="s">
-        <v>7654</v>
+        <v>8230</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -27292,10 +29020,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7626</v>
+        <v>8202</v>
       </c>
       <c r="C10" t="s">
-        <v>7655</v>
+        <v>8231</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -27312,10 +29040,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7627</v>
+        <v>8203</v>
       </c>
       <c r="C11" t="s">
-        <v>7656</v>
+        <v>8232</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -27332,10 +29060,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7628</v>
+        <v>8204</v>
       </c>
       <c r="C12" t="s">
-        <v>7657</v>
+        <v>8233</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -27352,10 +29080,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7629</v>
+        <v>8205</v>
       </c>
       <c r="C13" t="s">
-        <v>7658</v>
+        <v>8234</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -27372,10 +29100,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7630</v>
+        <v>8206</v>
       </c>
       <c r="C14" t="s">
-        <v>7659</v>
+        <v>8235</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -27392,10 +29120,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7631</v>
+        <v>8207</v>
       </c>
       <c r="C15" t="s">
-        <v>7660</v>
+        <v>8236</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -27412,10 +29140,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7632</v>
+        <v>8208</v>
       </c>
       <c r="C16" t="s">
-        <v>7661</v>
+        <v>8237</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -27432,10 +29160,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7633</v>
+        <v>8209</v>
       </c>
       <c r="C17" t="s">
-        <v>7662</v>
+        <v>8238</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -27452,10 +29180,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7634</v>
+        <v>8210</v>
       </c>
       <c r="C18" t="s">
-        <v>7663</v>
+        <v>8239</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -27472,10 +29200,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7635</v>
+        <v>8211</v>
       </c>
       <c r="C19" t="s">
-        <v>7664</v>
+        <v>8240</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -27492,10 +29220,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7636</v>
+        <v>8212</v>
       </c>
       <c r="C20" t="s">
-        <v>7665</v>
+        <v>8241</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -27512,10 +29240,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7637</v>
+        <v>8213</v>
       </c>
       <c r="C21" t="s">
-        <v>7666</v>
+        <v>8242</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -27532,10 +29260,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7638</v>
+        <v>8214</v>
       </c>
       <c r="C22" t="s">
-        <v>7667</v>
+        <v>8243</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -27552,10 +29280,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7639</v>
+        <v>8215</v>
       </c>
       <c r="C23" t="s">
-        <v>7668</v>
+        <v>8244</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -27572,10 +29300,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7640</v>
+        <v>8216</v>
       </c>
       <c r="C24" t="s">
-        <v>7669</v>
+        <v>8245</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -27592,10 +29320,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7641</v>
+        <v>8217</v>
       </c>
       <c r="C25" t="s">
-        <v>7670</v>
+        <v>8246</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -27612,10 +29340,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7642</v>
+        <v>8218</v>
       </c>
       <c r="C26" t="s">
-        <v>7671</v>
+        <v>8247</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -27632,10 +29360,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7643</v>
+        <v>8219</v>
       </c>
       <c r="C27" t="s">
-        <v>7672</v>
+        <v>8248</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -27652,10 +29380,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7644</v>
+        <v>8220</v>
       </c>
       <c r="C28" t="s">
-        <v>7673</v>
+        <v>8249</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -27672,10 +29400,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7645</v>
+        <v>8221</v>
       </c>
       <c r="C29" t="s">
-        <v>7674</v>
+        <v>8250</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -27700,28 +29428,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7680</v>
+        <v>8256</v>
       </c>
       <c r="B1" t="s">
-        <v>7681</v>
+        <v>8257</v>
       </c>
       <c r="C1" t="s">
-        <v>7710</v>
+        <v>8286</v>
       </c>
       <c r="D1" t="s">
-        <v>7739</v>
+        <v>8315</v>
       </c>
       <c r="E1" t="s">
-        <v>7740</v>
+        <v>8316</v>
       </c>
       <c r="F1" t="s">
-        <v>7741</v>
+        <v>8317</v>
       </c>
       <c r="G1" t="s">
-        <v>7742</v>
+        <v>8318</v>
       </c>
       <c r="H1" t="s">
-        <v>7743</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="2">
@@ -27729,10 +29457,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>7682</v>
+        <v>8258</v>
       </c>
       <c r="C2" t="s">
-        <v>7711</v>
+        <v>8287</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -27753,10 +29481,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7683</v>
+        <v>8259</v>
       </c>
       <c r="C3" t="s">
-        <v>7712</v>
+        <v>8288</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -27773,10 +29501,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7684</v>
+        <v>8260</v>
       </c>
       <c r="C4" t="s">
-        <v>7713</v>
+        <v>8289</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -27793,10 +29521,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7685</v>
+        <v>8261</v>
       </c>
       <c r="C5" t="s">
-        <v>7714</v>
+        <v>8290</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -27813,10 +29541,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7686</v>
+        <v>8262</v>
       </c>
       <c r="C6" t="s">
-        <v>7715</v>
+        <v>8291</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -27833,10 +29561,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7687</v>
+        <v>8263</v>
       </c>
       <c r="C7" t="s">
-        <v>7716</v>
+        <v>8292</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -27853,10 +29581,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7688</v>
+        <v>8264</v>
       </c>
       <c r="C8" t="s">
-        <v>7717</v>
+        <v>8293</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -27873,10 +29601,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7689</v>
+        <v>8265</v>
       </c>
       <c r="C9" t="s">
-        <v>7718</v>
+        <v>8294</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -27893,10 +29621,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7690</v>
+        <v>8266</v>
       </c>
       <c r="C10" t="s">
-        <v>7719</v>
+        <v>8295</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -27913,10 +29641,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7691</v>
+        <v>8267</v>
       </c>
       <c r="C11" t="s">
-        <v>7720</v>
+        <v>8296</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -27933,10 +29661,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7692</v>
+        <v>8268</v>
       </c>
       <c r="C12" t="s">
-        <v>7721</v>
+        <v>8297</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -27953,10 +29681,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7693</v>
+        <v>8269</v>
       </c>
       <c r="C13" t="s">
-        <v>7722</v>
+        <v>8298</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -27973,10 +29701,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7694</v>
+        <v>8270</v>
       </c>
       <c r="C14" t="s">
-        <v>7723</v>
+        <v>8299</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -27993,10 +29721,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7695</v>
+        <v>8271</v>
       </c>
       <c r="C15" t="s">
-        <v>7724</v>
+        <v>8300</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -28013,10 +29741,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7696</v>
+        <v>8272</v>
       </c>
       <c r="C16" t="s">
-        <v>7725</v>
+        <v>8301</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -28033,10 +29761,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7697</v>
+        <v>8273</v>
       </c>
       <c r="C17" t="s">
-        <v>7726</v>
+        <v>8302</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -28053,10 +29781,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7698</v>
+        <v>8274</v>
       </c>
       <c r="C18" t="s">
-        <v>7727</v>
+        <v>8303</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -28073,10 +29801,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7699</v>
+        <v>8275</v>
       </c>
       <c r="C19" t="s">
-        <v>7728</v>
+        <v>8304</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -28093,10 +29821,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7700</v>
+        <v>8276</v>
       </c>
       <c r="C20" t="s">
-        <v>7729</v>
+        <v>8305</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -28113,10 +29841,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7701</v>
+        <v>8277</v>
       </c>
       <c r="C21" t="s">
-        <v>7730</v>
+        <v>8306</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -28133,10 +29861,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7702</v>
+        <v>8278</v>
       </c>
       <c r="C22" t="s">
-        <v>7731</v>
+        <v>8307</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -28153,10 +29881,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7703</v>
+        <v>8279</v>
       </c>
       <c r="C23" t="s">
-        <v>7732</v>
+        <v>8308</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -28173,10 +29901,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7704</v>
+        <v>8280</v>
       </c>
       <c r="C24" t="s">
-        <v>7733</v>
+        <v>8309</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -28193,10 +29921,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7705</v>
+        <v>8281</v>
       </c>
       <c r="C25" t="s">
-        <v>7734</v>
+        <v>8310</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -28213,10 +29941,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7706</v>
+        <v>8282</v>
       </c>
       <c r="C26" t="s">
-        <v>7735</v>
+        <v>8311</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -28233,10 +29961,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7707</v>
+        <v>8283</v>
       </c>
       <c r="C27" t="s">
-        <v>7736</v>
+        <v>8312</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -28253,10 +29981,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7708</v>
+        <v>8284</v>
       </c>
       <c r="C28" t="s">
-        <v>7737</v>
+        <v>8313</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -28273,10 +30001,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7709</v>
+        <v>8285</v>
       </c>
       <c r="C29" t="s">
-        <v>7738</v>
+        <v>8314</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -28301,28 +30029,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7744</v>
+        <v>8320</v>
       </c>
       <c r="B1" t="s">
-        <v>7745</v>
+        <v>8321</v>
       </c>
       <c r="C1" t="s">
-        <v>7774</v>
+        <v>8350</v>
       </c>
       <c r="D1" t="s">
-        <v>7803</v>
+        <v>8379</v>
       </c>
       <c r="E1" t="s">
-        <v>7804</v>
+        <v>8380</v>
       </c>
       <c r="F1" t="s">
-        <v>7805</v>
+        <v>8381</v>
       </c>
       <c r="G1" t="s">
-        <v>7806</v>
+        <v>8382</v>
       </c>
       <c r="H1" t="s">
-        <v>7807</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="2">
@@ -28330,10 +30058,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>7746</v>
+        <v>8322</v>
       </c>
       <c r="C2" t="s">
-        <v>7775</v>
+        <v>8351</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -28354,10 +30082,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7747</v>
+        <v>8323</v>
       </c>
       <c r="C3" t="s">
-        <v>7776</v>
+        <v>8352</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -28374,10 +30102,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7748</v>
+        <v>8324</v>
       </c>
       <c r="C4" t="s">
-        <v>7777</v>
+        <v>8353</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -28394,10 +30122,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7749</v>
+        <v>8325</v>
       </c>
       <c r="C5" t="s">
-        <v>7778</v>
+        <v>8354</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -28414,10 +30142,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7750</v>
+        <v>8326</v>
       </c>
       <c r="C6" t="s">
-        <v>7779</v>
+        <v>8355</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -28434,10 +30162,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7751</v>
+        <v>8327</v>
       </c>
       <c r="C7" t="s">
-        <v>7780</v>
+        <v>8356</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -28454,10 +30182,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7752</v>
+        <v>8328</v>
       </c>
       <c r="C8" t="s">
-        <v>7781</v>
+        <v>8357</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -28474,10 +30202,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7753</v>
+        <v>8329</v>
       </c>
       <c r="C9" t="s">
-        <v>7782</v>
+        <v>8358</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -28494,10 +30222,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7754</v>
+        <v>8330</v>
       </c>
       <c r="C10" t="s">
-        <v>7783</v>
+        <v>8359</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -28514,10 +30242,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7755</v>
+        <v>8331</v>
       </c>
       <c r="C11" t="s">
-        <v>7784</v>
+        <v>8360</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -28534,10 +30262,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7756</v>
+        <v>8332</v>
       </c>
       <c r="C12" t="s">
-        <v>7785</v>
+        <v>8361</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -28554,10 +30282,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7757</v>
+        <v>8333</v>
       </c>
       <c r="C13" t="s">
-        <v>7786</v>
+        <v>8362</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -28574,10 +30302,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7758</v>
+        <v>8334</v>
       </c>
       <c r="C14" t="s">
-        <v>7787</v>
+        <v>8363</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -28594,10 +30322,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7759</v>
+        <v>8335</v>
       </c>
       <c r="C15" t="s">
-        <v>7788</v>
+        <v>8364</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -28614,10 +30342,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7760</v>
+        <v>8336</v>
       </c>
       <c r="C16" t="s">
-        <v>7789</v>
+        <v>8365</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -28634,10 +30362,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7761</v>
+        <v>8337</v>
       </c>
       <c r="C17" t="s">
-        <v>7790</v>
+        <v>8366</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -28654,10 +30382,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7762</v>
+        <v>8338</v>
       </c>
       <c r="C18" t="s">
-        <v>7791</v>
+        <v>8367</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -28674,10 +30402,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7763</v>
+        <v>8339</v>
       </c>
       <c r="C19" t="s">
-        <v>7792</v>
+        <v>8368</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -28694,10 +30422,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7764</v>
+        <v>8340</v>
       </c>
       <c r="C20" t="s">
-        <v>7793</v>
+        <v>8369</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -28714,10 +30442,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7765</v>
+        <v>8341</v>
       </c>
       <c r="C21" t="s">
-        <v>7794</v>
+        <v>8370</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -28734,10 +30462,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7766</v>
+        <v>8342</v>
       </c>
       <c r="C22" t="s">
-        <v>7795</v>
+        <v>8371</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -28754,10 +30482,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7767</v>
+        <v>8343</v>
       </c>
       <c r="C23" t="s">
-        <v>7796</v>
+        <v>8372</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -28774,10 +30502,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7768</v>
+        <v>8344</v>
       </c>
       <c r="C24" t="s">
-        <v>7797</v>
+        <v>8373</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -28794,10 +30522,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7769</v>
+        <v>8345</v>
       </c>
       <c r="C25" t="s">
-        <v>7798</v>
+        <v>8374</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -28814,10 +30542,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7770</v>
+        <v>8346</v>
       </c>
       <c r="C26" t="s">
-        <v>7799</v>
+        <v>8375</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -28834,10 +30562,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7771</v>
+        <v>8347</v>
       </c>
       <c r="C27" t="s">
-        <v>7800</v>
+        <v>8376</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -28854,10 +30582,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7772</v>
+        <v>8348</v>
       </c>
       <c r="C28" t="s">
-        <v>7801</v>
+        <v>8377</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -28874,10 +30602,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7773</v>
+        <v>8349</v>
       </c>
       <c r="C29" t="s">
-        <v>7802</v>
+        <v>8378</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>

--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,1735 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="8384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8960" uniqueCount="8960">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -25221,28 +26949,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7808</v>
+        <v>8384</v>
       </c>
       <c r="B1" t="s">
-        <v>7809</v>
+        <v>8385</v>
       </c>
       <c r="C1" t="s">
-        <v>7838</v>
+        <v>8414</v>
       </c>
       <c r="D1" t="s">
-        <v>7867</v>
+        <v>8443</v>
       </c>
       <c r="E1" t="s">
-        <v>7868</v>
+        <v>8444</v>
       </c>
       <c r="F1" t="s">
-        <v>7869</v>
+        <v>8445</v>
       </c>
       <c r="G1" t="s">
-        <v>7870</v>
+        <v>8446</v>
       </c>
       <c r="H1" t="s">
-        <v>7871</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="2">
@@ -25250,10 +26978,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>7810</v>
+        <v>8386</v>
       </c>
       <c r="C2" t="s">
-        <v>7839</v>
+        <v>8415</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -25274,10 +27002,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7811</v>
+        <v>8387</v>
       </c>
       <c r="C3" t="s">
-        <v>7840</v>
+        <v>8416</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -25294,10 +27022,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7812</v>
+        <v>8388</v>
       </c>
       <c r="C4" t="s">
-        <v>7841</v>
+        <v>8417</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -25314,10 +27042,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7813</v>
+        <v>8389</v>
       </c>
       <c r="C5" t="s">
-        <v>7842</v>
+        <v>8418</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -25334,10 +27062,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7814</v>
+        <v>8390</v>
       </c>
       <c r="C6" t="s">
-        <v>7843</v>
+        <v>8419</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -25354,10 +27082,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7815</v>
+        <v>8391</v>
       </c>
       <c r="C7" t="s">
-        <v>7844</v>
+        <v>8420</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -25374,10 +27102,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7816</v>
+        <v>8392</v>
       </c>
       <c r="C8" t="s">
-        <v>7845</v>
+        <v>8421</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -25394,10 +27122,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7817</v>
+        <v>8393</v>
       </c>
       <c r="C9" t="s">
-        <v>7846</v>
+        <v>8422</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -25414,10 +27142,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7818</v>
+        <v>8394</v>
       </c>
       <c r="C10" t="s">
-        <v>7847</v>
+        <v>8423</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -25434,10 +27162,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7819</v>
+        <v>8395</v>
       </c>
       <c r="C11" t="s">
-        <v>7848</v>
+        <v>8424</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -25454,10 +27182,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7820</v>
+        <v>8396</v>
       </c>
       <c r="C12" t="s">
-        <v>7849</v>
+        <v>8425</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -25474,10 +27202,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7821</v>
+        <v>8397</v>
       </c>
       <c r="C13" t="s">
-        <v>7850</v>
+        <v>8426</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -25494,10 +27222,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7822</v>
+        <v>8398</v>
       </c>
       <c r="C14" t="s">
-        <v>7851</v>
+        <v>8427</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -25514,10 +27242,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7823</v>
+        <v>8399</v>
       </c>
       <c r="C15" t="s">
-        <v>7852</v>
+        <v>8428</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -25534,10 +27262,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7824</v>
+        <v>8400</v>
       </c>
       <c r="C16" t="s">
-        <v>7853</v>
+        <v>8429</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -25554,10 +27282,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7825</v>
+        <v>8401</v>
       </c>
       <c r="C17" t="s">
-        <v>7854</v>
+        <v>8430</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -25574,10 +27302,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7826</v>
+        <v>8402</v>
       </c>
       <c r="C18" t="s">
-        <v>7855</v>
+        <v>8431</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -25594,10 +27322,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7827</v>
+        <v>8403</v>
       </c>
       <c r="C19" t="s">
-        <v>7856</v>
+        <v>8432</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -25614,10 +27342,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7828</v>
+        <v>8404</v>
       </c>
       <c r="C20" t="s">
-        <v>7857</v>
+        <v>8433</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -25634,10 +27362,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7829</v>
+        <v>8405</v>
       </c>
       <c r="C21" t="s">
-        <v>7858</v>
+        <v>8434</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -25654,10 +27382,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7830</v>
+        <v>8406</v>
       </c>
       <c r="C22" t="s">
-        <v>7859</v>
+        <v>8435</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -25674,10 +27402,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7831</v>
+        <v>8407</v>
       </c>
       <c r="C23" t="s">
-        <v>7860</v>
+        <v>8436</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -25694,10 +27422,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7832</v>
+        <v>8408</v>
       </c>
       <c r="C24" t="s">
-        <v>7861</v>
+        <v>8437</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -25714,10 +27442,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7833</v>
+        <v>8409</v>
       </c>
       <c r="C25" t="s">
-        <v>7862</v>
+        <v>8438</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -25734,10 +27462,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7834</v>
+        <v>8410</v>
       </c>
       <c r="C26" t="s">
-        <v>7863</v>
+        <v>8439</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -25754,10 +27482,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7835</v>
+        <v>8411</v>
       </c>
       <c r="C27" t="s">
-        <v>7864</v>
+        <v>8440</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -25774,10 +27502,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7836</v>
+        <v>8412</v>
       </c>
       <c r="C28" t="s">
-        <v>7865</v>
+        <v>8441</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -25794,10 +27522,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7837</v>
+        <v>8413</v>
       </c>
       <c r="C29" t="s">
-        <v>7866</v>
+        <v>8442</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -25822,28 +27550,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7872</v>
+        <v>8448</v>
       </c>
       <c r="B1" t="s">
-        <v>7873</v>
+        <v>8449</v>
       </c>
       <c r="C1" t="s">
-        <v>7902</v>
+        <v>8478</v>
       </c>
       <c r="D1" t="s">
-        <v>7931</v>
+        <v>8507</v>
       </c>
       <c r="E1" t="s">
-        <v>7932</v>
+        <v>8508</v>
       </c>
       <c r="F1" t="s">
-        <v>7933</v>
+        <v>8509</v>
       </c>
       <c r="G1" t="s">
-        <v>7934</v>
+        <v>8510</v>
       </c>
       <c r="H1" t="s">
-        <v>7935</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="2">
@@ -25851,10 +27579,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>7874</v>
+        <v>8450</v>
       </c>
       <c r="C2" t="s">
-        <v>7903</v>
+        <v>8479</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -25875,10 +27603,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7875</v>
+        <v>8451</v>
       </c>
       <c r="C3" t="s">
-        <v>7904</v>
+        <v>8480</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -25895,10 +27623,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7876</v>
+        <v>8452</v>
       </c>
       <c r="C4" t="s">
-        <v>7905</v>
+        <v>8481</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -25915,10 +27643,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7877</v>
+        <v>8453</v>
       </c>
       <c r="C5" t="s">
-        <v>7906</v>
+        <v>8482</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -25935,10 +27663,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7878</v>
+        <v>8454</v>
       </c>
       <c r="C6" t="s">
-        <v>7907</v>
+        <v>8483</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -25955,10 +27683,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7879</v>
+        <v>8455</v>
       </c>
       <c r="C7" t="s">
-        <v>7908</v>
+        <v>8484</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -25975,10 +27703,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7880</v>
+        <v>8456</v>
       </c>
       <c r="C8" t="s">
-        <v>7909</v>
+        <v>8485</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -25995,10 +27723,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7881</v>
+        <v>8457</v>
       </c>
       <c r="C9" t="s">
-        <v>7910</v>
+        <v>8486</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -26015,10 +27743,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7882</v>
+        <v>8458</v>
       </c>
       <c r="C10" t="s">
-        <v>7911</v>
+        <v>8487</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -26035,10 +27763,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7883</v>
+        <v>8459</v>
       </c>
       <c r="C11" t="s">
-        <v>7912</v>
+        <v>8488</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -26055,10 +27783,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7884</v>
+        <v>8460</v>
       </c>
       <c r="C12" t="s">
-        <v>7913</v>
+        <v>8489</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -26075,10 +27803,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7885</v>
+        <v>8461</v>
       </c>
       <c r="C13" t="s">
-        <v>7914</v>
+        <v>8490</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -26095,10 +27823,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7886</v>
+        <v>8462</v>
       </c>
       <c r="C14" t="s">
-        <v>7915</v>
+        <v>8491</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -26115,10 +27843,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7887</v>
+        <v>8463</v>
       </c>
       <c r="C15" t="s">
-        <v>7916</v>
+        <v>8492</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -26135,10 +27863,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7888</v>
+        <v>8464</v>
       </c>
       <c r="C16" t="s">
-        <v>7917</v>
+        <v>8493</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -26155,10 +27883,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7889</v>
+        <v>8465</v>
       </c>
       <c r="C17" t="s">
-        <v>7918</v>
+        <v>8494</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -26175,10 +27903,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7890</v>
+        <v>8466</v>
       </c>
       <c r="C18" t="s">
-        <v>7919</v>
+        <v>8495</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -26195,10 +27923,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7891</v>
+        <v>8467</v>
       </c>
       <c r="C19" t="s">
-        <v>7920</v>
+        <v>8496</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -26215,10 +27943,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7892</v>
+        <v>8468</v>
       </c>
       <c r="C20" t="s">
-        <v>7921</v>
+        <v>8497</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -26235,10 +27963,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7893</v>
+        <v>8469</v>
       </c>
       <c r="C21" t="s">
-        <v>7922</v>
+        <v>8498</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -26255,10 +27983,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7894</v>
+        <v>8470</v>
       </c>
       <c r="C22" t="s">
-        <v>7923</v>
+        <v>8499</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -26275,10 +28003,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7895</v>
+        <v>8471</v>
       </c>
       <c r="C23" t="s">
-        <v>7924</v>
+        <v>8500</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -26295,10 +28023,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7896</v>
+        <v>8472</v>
       </c>
       <c r="C24" t="s">
-        <v>7925</v>
+        <v>8501</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -26315,10 +28043,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7897</v>
+        <v>8473</v>
       </c>
       <c r="C25" t="s">
-        <v>7926</v>
+        <v>8502</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -26335,10 +28063,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7898</v>
+        <v>8474</v>
       </c>
       <c r="C26" t="s">
-        <v>7927</v>
+        <v>8503</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -26355,10 +28083,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7899</v>
+        <v>8475</v>
       </c>
       <c r="C27" t="s">
-        <v>7928</v>
+        <v>8504</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -26375,10 +28103,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7900</v>
+        <v>8476</v>
       </c>
       <c r="C28" t="s">
-        <v>7929</v>
+        <v>8505</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -26395,10 +28123,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7901</v>
+        <v>8477</v>
       </c>
       <c r="C29" t="s">
-        <v>7930</v>
+        <v>8506</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -26423,28 +28151,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7936</v>
+        <v>8512</v>
       </c>
       <c r="B1" t="s">
-        <v>7937</v>
+        <v>8513</v>
       </c>
       <c r="C1" t="s">
-        <v>7966</v>
+        <v>8542</v>
       </c>
       <c r="D1" t="s">
-        <v>7995</v>
+        <v>8571</v>
       </c>
       <c r="E1" t="s">
-        <v>7996</v>
+        <v>8572</v>
       </c>
       <c r="F1" t="s">
-        <v>7997</v>
+        <v>8573</v>
       </c>
       <c r="G1" t="s">
-        <v>7998</v>
+        <v>8574</v>
       </c>
       <c r="H1" t="s">
-        <v>7999</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="2">
@@ -26452,10 +28180,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>7938</v>
+        <v>8514</v>
       </c>
       <c r="C2" t="s">
-        <v>7967</v>
+        <v>8543</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -26476,10 +28204,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>7939</v>
+        <v>8515</v>
       </c>
       <c r="C3" t="s">
-        <v>7968</v>
+        <v>8544</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -26496,10 +28224,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>7940</v>
+        <v>8516</v>
       </c>
       <c r="C4" t="s">
-        <v>7969</v>
+        <v>8545</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -26516,10 +28244,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>7941</v>
+        <v>8517</v>
       </c>
       <c r="C5" t="s">
-        <v>7970</v>
+        <v>8546</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -26536,10 +28264,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>7942</v>
+        <v>8518</v>
       </c>
       <c r="C6" t="s">
-        <v>7971</v>
+        <v>8547</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -26556,10 +28284,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>7943</v>
+        <v>8519</v>
       </c>
       <c r="C7" t="s">
-        <v>7972</v>
+        <v>8548</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -26576,10 +28304,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>7944</v>
+        <v>8520</v>
       </c>
       <c r="C8" t="s">
-        <v>7973</v>
+        <v>8549</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -26596,10 +28324,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>7945</v>
+        <v>8521</v>
       </c>
       <c r="C9" t="s">
-        <v>7974</v>
+        <v>8550</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -26616,10 +28344,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>7946</v>
+        <v>8522</v>
       </c>
       <c r="C10" t="s">
-        <v>7975</v>
+        <v>8551</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -26636,10 +28364,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7947</v>
+        <v>8523</v>
       </c>
       <c r="C11" t="s">
-        <v>7976</v>
+        <v>8552</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -26656,10 +28384,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>7948</v>
+        <v>8524</v>
       </c>
       <c r="C12" t="s">
-        <v>7977</v>
+        <v>8553</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -26676,10 +28404,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>7949</v>
+        <v>8525</v>
       </c>
       <c r="C13" t="s">
-        <v>7978</v>
+        <v>8554</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -26696,10 +28424,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>7950</v>
+        <v>8526</v>
       </c>
       <c r="C14" t="s">
-        <v>7979</v>
+        <v>8555</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -26716,10 +28444,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>7951</v>
+        <v>8527</v>
       </c>
       <c r="C15" t="s">
-        <v>7980</v>
+        <v>8556</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -26736,10 +28464,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>7952</v>
+        <v>8528</v>
       </c>
       <c r="C16" t="s">
-        <v>7981</v>
+        <v>8557</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -26756,10 +28484,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>7953</v>
+        <v>8529</v>
       </c>
       <c r="C17" t="s">
-        <v>7982</v>
+        <v>8558</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -26776,10 +28504,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>7954</v>
+        <v>8530</v>
       </c>
       <c r="C18" t="s">
-        <v>7983</v>
+        <v>8559</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -26796,10 +28524,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>7955</v>
+        <v>8531</v>
       </c>
       <c r="C19" t="s">
-        <v>7984</v>
+        <v>8560</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -26816,10 +28544,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>7956</v>
+        <v>8532</v>
       </c>
       <c r="C20" t="s">
-        <v>7985</v>
+        <v>8561</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -26836,10 +28564,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>7957</v>
+        <v>8533</v>
       </c>
       <c r="C21" t="s">
-        <v>7986</v>
+        <v>8562</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -26856,10 +28584,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>7958</v>
+        <v>8534</v>
       </c>
       <c r="C22" t="s">
-        <v>7987</v>
+        <v>8563</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -26876,10 +28604,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>7959</v>
+        <v>8535</v>
       </c>
       <c r="C23" t="s">
-        <v>7988</v>
+        <v>8564</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -26896,10 +28624,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>7960</v>
+        <v>8536</v>
       </c>
       <c r="C24" t="s">
-        <v>7989</v>
+        <v>8565</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -26916,10 +28644,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>7961</v>
+        <v>8537</v>
       </c>
       <c r="C25" t="s">
-        <v>7990</v>
+        <v>8566</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -26936,10 +28664,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>7962</v>
+        <v>8538</v>
       </c>
       <c r="C26" t="s">
-        <v>7991</v>
+        <v>8567</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -26956,10 +28684,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>7963</v>
+        <v>8539</v>
       </c>
       <c r="C27" t="s">
-        <v>7992</v>
+        <v>8568</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -26976,10 +28704,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>7964</v>
+        <v>8540</v>
       </c>
       <c r="C28" t="s">
-        <v>7993</v>
+        <v>8569</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -26996,10 +28724,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>7965</v>
+        <v>8541</v>
       </c>
       <c r="C29" t="s">
-        <v>7994</v>
+        <v>8570</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -27024,28 +28752,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8000</v>
+        <v>8576</v>
       </c>
       <c r="B1" t="s">
-        <v>8001</v>
+        <v>8577</v>
       </c>
       <c r="C1" t="s">
-        <v>8030</v>
+        <v>8606</v>
       </c>
       <c r="D1" t="s">
-        <v>8059</v>
+        <v>8635</v>
       </c>
       <c r="E1" t="s">
-        <v>8060</v>
+        <v>8636</v>
       </c>
       <c r="F1" t="s">
-        <v>8061</v>
+        <v>8637</v>
       </c>
       <c r="G1" t="s">
-        <v>8062</v>
+        <v>8638</v>
       </c>
       <c r="H1" t="s">
-        <v>8063</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="2">
@@ -27053,10 +28781,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>8002</v>
+        <v>8578</v>
       </c>
       <c r="C2" t="s">
-        <v>8031</v>
+        <v>8607</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -27077,10 +28805,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8003</v>
+        <v>8579</v>
       </c>
       <c r="C3" t="s">
-        <v>8032</v>
+        <v>8608</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -27097,10 +28825,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8004</v>
+        <v>8580</v>
       </c>
       <c r="C4" t="s">
-        <v>8033</v>
+        <v>8609</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -27117,10 +28845,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8005</v>
+        <v>8581</v>
       </c>
       <c r="C5" t="s">
-        <v>8034</v>
+        <v>8610</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -27137,10 +28865,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8006</v>
+        <v>8582</v>
       </c>
       <c r="C6" t="s">
-        <v>8035</v>
+        <v>8611</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -27157,10 +28885,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8007</v>
+        <v>8583</v>
       </c>
       <c r="C7" t="s">
-        <v>8036</v>
+        <v>8612</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -27177,10 +28905,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8008</v>
+        <v>8584</v>
       </c>
       <c r="C8" t="s">
-        <v>8037</v>
+        <v>8613</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -27197,10 +28925,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8009</v>
+        <v>8585</v>
       </c>
       <c r="C9" t="s">
-        <v>8038</v>
+        <v>8614</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -27217,10 +28945,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8010</v>
+        <v>8586</v>
       </c>
       <c r="C10" t="s">
-        <v>8039</v>
+        <v>8615</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -27237,10 +28965,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8011</v>
+        <v>8587</v>
       </c>
       <c r="C11" t="s">
-        <v>8040</v>
+        <v>8616</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -27257,10 +28985,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8012</v>
+        <v>8588</v>
       </c>
       <c r="C12" t="s">
-        <v>8041</v>
+        <v>8617</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -27277,10 +29005,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8013</v>
+        <v>8589</v>
       </c>
       <c r="C13" t="s">
-        <v>8042</v>
+        <v>8618</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -27297,10 +29025,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8014</v>
+        <v>8590</v>
       </c>
       <c r="C14" t="s">
-        <v>8043</v>
+        <v>8619</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -27317,10 +29045,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8015</v>
+        <v>8591</v>
       </c>
       <c r="C15" t="s">
-        <v>8044</v>
+        <v>8620</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -27337,10 +29065,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8016</v>
+        <v>8592</v>
       </c>
       <c r="C16" t="s">
-        <v>8045</v>
+        <v>8621</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -27357,10 +29085,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8017</v>
+        <v>8593</v>
       </c>
       <c r="C17" t="s">
-        <v>8046</v>
+        <v>8622</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -27377,10 +29105,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8018</v>
+        <v>8594</v>
       </c>
       <c r="C18" t="s">
-        <v>8047</v>
+        <v>8623</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -27397,10 +29125,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8019</v>
+        <v>8595</v>
       </c>
       <c r="C19" t="s">
-        <v>8048</v>
+        <v>8624</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -27417,10 +29145,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8020</v>
+        <v>8596</v>
       </c>
       <c r="C20" t="s">
-        <v>8049</v>
+        <v>8625</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -27437,10 +29165,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8021</v>
+        <v>8597</v>
       </c>
       <c r="C21" t="s">
-        <v>8050</v>
+        <v>8626</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -27457,10 +29185,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8022</v>
+        <v>8598</v>
       </c>
       <c r="C22" t="s">
-        <v>8051</v>
+        <v>8627</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -27477,10 +29205,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8023</v>
+        <v>8599</v>
       </c>
       <c r="C23" t="s">
-        <v>8052</v>
+        <v>8628</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -27497,10 +29225,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8024</v>
+        <v>8600</v>
       </c>
       <c r="C24" t="s">
-        <v>8053</v>
+        <v>8629</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -27517,10 +29245,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8025</v>
+        <v>8601</v>
       </c>
       <c r="C25" t="s">
-        <v>8054</v>
+        <v>8630</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -27537,10 +29265,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8026</v>
+        <v>8602</v>
       </c>
       <c r="C26" t="s">
-        <v>8055</v>
+        <v>8631</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -27557,10 +29285,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8027</v>
+        <v>8603</v>
       </c>
       <c r="C27" t="s">
-        <v>8056</v>
+        <v>8632</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -27577,10 +29305,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8028</v>
+        <v>8604</v>
       </c>
       <c r="C28" t="s">
-        <v>8057</v>
+        <v>8633</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -27597,10 +29325,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8029</v>
+        <v>8605</v>
       </c>
       <c r="C29" t="s">
-        <v>8058</v>
+        <v>8634</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -27625,28 +29353,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8064</v>
+        <v>8640</v>
       </c>
       <c r="B1" t="s">
-        <v>8065</v>
+        <v>8641</v>
       </c>
       <c r="C1" t="s">
-        <v>8094</v>
+        <v>8670</v>
       </c>
       <c r="D1" t="s">
-        <v>8123</v>
+        <v>8699</v>
       </c>
       <c r="E1" t="s">
-        <v>8124</v>
+        <v>8700</v>
       </c>
       <c r="F1" t="s">
-        <v>8125</v>
+        <v>8701</v>
       </c>
       <c r="G1" t="s">
-        <v>8126</v>
+        <v>8702</v>
       </c>
       <c r="H1" t="s">
-        <v>8127</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="2">
@@ -27654,10 +29382,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>8066</v>
+        <v>8642</v>
       </c>
       <c r="C2" t="s">
-        <v>8095</v>
+        <v>8671</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -27678,10 +29406,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8067</v>
+        <v>8643</v>
       </c>
       <c r="C3" t="s">
-        <v>8096</v>
+        <v>8672</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -27698,10 +29426,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8068</v>
+        <v>8644</v>
       </c>
       <c r="C4" t="s">
-        <v>8097</v>
+        <v>8673</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -27718,10 +29446,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8069</v>
+        <v>8645</v>
       </c>
       <c r="C5" t="s">
-        <v>8098</v>
+        <v>8674</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -27738,10 +29466,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8070</v>
+        <v>8646</v>
       </c>
       <c r="C6" t="s">
-        <v>8099</v>
+        <v>8675</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -27758,10 +29486,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8071</v>
+        <v>8647</v>
       </c>
       <c r="C7" t="s">
-        <v>8100</v>
+        <v>8676</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -27778,10 +29506,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8072</v>
+        <v>8648</v>
       </c>
       <c r="C8" t="s">
-        <v>8101</v>
+        <v>8677</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -27798,10 +29526,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8073</v>
+        <v>8649</v>
       </c>
       <c r="C9" t="s">
-        <v>8102</v>
+        <v>8678</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -27818,10 +29546,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8074</v>
+        <v>8650</v>
       </c>
       <c r="C10" t="s">
-        <v>8103</v>
+        <v>8679</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -27838,10 +29566,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8075</v>
+        <v>8651</v>
       </c>
       <c r="C11" t="s">
-        <v>8104</v>
+        <v>8680</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -27858,10 +29586,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8076</v>
+        <v>8652</v>
       </c>
       <c r="C12" t="s">
-        <v>8105</v>
+        <v>8681</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -27878,10 +29606,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8077</v>
+        <v>8653</v>
       </c>
       <c r="C13" t="s">
-        <v>8106</v>
+        <v>8682</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -27898,10 +29626,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8078</v>
+        <v>8654</v>
       </c>
       <c r="C14" t="s">
-        <v>8107</v>
+        <v>8683</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -27918,10 +29646,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8079</v>
+        <v>8655</v>
       </c>
       <c r="C15" t="s">
-        <v>8108</v>
+        <v>8684</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -27938,10 +29666,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8080</v>
+        <v>8656</v>
       </c>
       <c r="C16" t="s">
-        <v>8109</v>
+        <v>8685</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -27958,10 +29686,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8081</v>
+        <v>8657</v>
       </c>
       <c r="C17" t="s">
-        <v>8110</v>
+        <v>8686</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -27978,10 +29706,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8082</v>
+        <v>8658</v>
       </c>
       <c r="C18" t="s">
-        <v>8111</v>
+        <v>8687</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -27998,10 +29726,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8083</v>
+        <v>8659</v>
       </c>
       <c r="C19" t="s">
-        <v>8112</v>
+        <v>8688</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -28018,10 +29746,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8084</v>
+        <v>8660</v>
       </c>
       <c r="C20" t="s">
-        <v>8113</v>
+        <v>8689</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -28038,10 +29766,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8085</v>
+        <v>8661</v>
       </c>
       <c r="C21" t="s">
-        <v>8114</v>
+        <v>8690</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -28058,10 +29786,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8086</v>
+        <v>8662</v>
       </c>
       <c r="C22" t="s">
-        <v>8115</v>
+        <v>8691</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -28078,10 +29806,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8087</v>
+        <v>8663</v>
       </c>
       <c r="C23" t="s">
-        <v>8116</v>
+        <v>8692</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -28098,10 +29826,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8088</v>
+        <v>8664</v>
       </c>
       <c r="C24" t="s">
-        <v>8117</v>
+        <v>8693</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -28118,10 +29846,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8089</v>
+        <v>8665</v>
       </c>
       <c r="C25" t="s">
-        <v>8118</v>
+        <v>8694</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -28138,10 +29866,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8090</v>
+        <v>8666</v>
       </c>
       <c r="C26" t="s">
-        <v>8119</v>
+        <v>8695</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -28158,10 +29886,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8091</v>
+        <v>8667</v>
       </c>
       <c r="C27" t="s">
-        <v>8120</v>
+        <v>8696</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -28178,10 +29906,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8092</v>
+        <v>8668</v>
       </c>
       <c r="C28" t="s">
-        <v>8121</v>
+        <v>8697</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -28198,10 +29926,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8093</v>
+        <v>8669</v>
       </c>
       <c r="C29" t="s">
-        <v>8122</v>
+        <v>8698</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -28226,28 +29954,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8128</v>
+        <v>8704</v>
       </c>
       <c r="B1" t="s">
-        <v>8129</v>
+        <v>8705</v>
       </c>
       <c r="C1" t="s">
-        <v>8158</v>
+        <v>8734</v>
       </c>
       <c r="D1" t="s">
-        <v>8187</v>
+        <v>8763</v>
       </c>
       <c r="E1" t="s">
-        <v>8188</v>
+        <v>8764</v>
       </c>
       <c r="F1" t="s">
-        <v>8189</v>
+        <v>8765</v>
       </c>
       <c r="G1" t="s">
-        <v>8190</v>
+        <v>8766</v>
       </c>
       <c r="H1" t="s">
-        <v>8191</v>
+        <v>8767</v>
       </c>
     </row>
     <row r="2">
@@ -28255,10 +29983,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>8130</v>
+        <v>8706</v>
       </c>
       <c r="C2" t="s">
-        <v>8159</v>
+        <v>8735</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -28279,10 +30007,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8131</v>
+        <v>8707</v>
       </c>
       <c r="C3" t="s">
-        <v>8160</v>
+        <v>8736</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -28299,10 +30027,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8132</v>
+        <v>8708</v>
       </c>
       <c r="C4" t="s">
-        <v>8161</v>
+        <v>8737</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -28319,10 +30047,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8133</v>
+        <v>8709</v>
       </c>
       <c r="C5" t="s">
-        <v>8162</v>
+        <v>8738</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -28339,10 +30067,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8134</v>
+        <v>8710</v>
       </c>
       <c r="C6" t="s">
-        <v>8163</v>
+        <v>8739</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -28359,10 +30087,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8135</v>
+        <v>8711</v>
       </c>
       <c r="C7" t="s">
-        <v>8164</v>
+        <v>8740</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -28379,10 +30107,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8136</v>
+        <v>8712</v>
       </c>
       <c r="C8" t="s">
-        <v>8165</v>
+        <v>8741</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -28399,10 +30127,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8137</v>
+        <v>8713</v>
       </c>
       <c r="C9" t="s">
-        <v>8166</v>
+        <v>8742</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -28419,10 +30147,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8138</v>
+        <v>8714</v>
       </c>
       <c r="C10" t="s">
-        <v>8167</v>
+        <v>8743</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -28439,10 +30167,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8139</v>
+        <v>8715</v>
       </c>
       <c r="C11" t="s">
-        <v>8168</v>
+        <v>8744</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -28459,10 +30187,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8140</v>
+        <v>8716</v>
       </c>
       <c r="C12" t="s">
-        <v>8169</v>
+        <v>8745</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -28479,10 +30207,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8141</v>
+        <v>8717</v>
       </c>
       <c r="C13" t="s">
-        <v>8170</v>
+        <v>8746</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -28499,10 +30227,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8142</v>
+        <v>8718</v>
       </c>
       <c r="C14" t="s">
-        <v>8171</v>
+        <v>8747</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -28519,10 +30247,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8143</v>
+        <v>8719</v>
       </c>
       <c r="C15" t="s">
-        <v>8172</v>
+        <v>8748</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -28539,10 +30267,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8144</v>
+        <v>8720</v>
       </c>
       <c r="C16" t="s">
-        <v>8173</v>
+        <v>8749</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -28559,10 +30287,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8145</v>
+        <v>8721</v>
       </c>
       <c r="C17" t="s">
-        <v>8174</v>
+        <v>8750</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -28579,10 +30307,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8146</v>
+        <v>8722</v>
       </c>
       <c r="C18" t="s">
-        <v>8175</v>
+        <v>8751</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -28599,10 +30327,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8147</v>
+        <v>8723</v>
       </c>
       <c r="C19" t="s">
-        <v>8176</v>
+        <v>8752</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -28619,10 +30347,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8148</v>
+        <v>8724</v>
       </c>
       <c r="C20" t="s">
-        <v>8177</v>
+        <v>8753</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -28639,10 +30367,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8149</v>
+        <v>8725</v>
       </c>
       <c r="C21" t="s">
-        <v>8178</v>
+        <v>8754</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -28659,10 +30387,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8150</v>
+        <v>8726</v>
       </c>
       <c r="C22" t="s">
-        <v>8179</v>
+        <v>8755</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -28679,10 +30407,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8151</v>
+        <v>8727</v>
       </c>
       <c r="C23" t="s">
-        <v>8180</v>
+        <v>8756</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -28699,10 +30427,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8152</v>
+        <v>8728</v>
       </c>
       <c r="C24" t="s">
-        <v>8181</v>
+        <v>8757</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -28719,10 +30447,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8153</v>
+        <v>8729</v>
       </c>
       <c r="C25" t="s">
-        <v>8182</v>
+        <v>8758</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -28739,10 +30467,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8154</v>
+        <v>8730</v>
       </c>
       <c r="C26" t="s">
-        <v>8183</v>
+        <v>8759</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -28759,10 +30487,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8155</v>
+        <v>8731</v>
       </c>
       <c r="C27" t="s">
-        <v>8184</v>
+        <v>8760</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -28779,10 +30507,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8156</v>
+        <v>8732</v>
       </c>
       <c r="C28" t="s">
-        <v>8185</v>
+        <v>8761</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -28799,10 +30527,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8157</v>
+        <v>8733</v>
       </c>
       <c r="C29" t="s">
-        <v>8186</v>
+        <v>8762</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -28827,28 +30555,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8192</v>
+        <v>8768</v>
       </c>
       <c r="B1" t="s">
-        <v>8193</v>
+        <v>8769</v>
       </c>
       <c r="C1" t="s">
-        <v>8222</v>
+        <v>8798</v>
       </c>
       <c r="D1" t="s">
-        <v>8251</v>
+        <v>8827</v>
       </c>
       <c r="E1" t="s">
-        <v>8252</v>
+        <v>8828</v>
       </c>
       <c r="F1" t="s">
-        <v>8253</v>
+        <v>8829</v>
       </c>
       <c r="G1" t="s">
-        <v>8254</v>
+        <v>8830</v>
       </c>
       <c r="H1" t="s">
-        <v>8255</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="2">
@@ -28856,10 +30584,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>8194</v>
+        <v>8770</v>
       </c>
       <c r="C2" t="s">
-        <v>8223</v>
+        <v>8799</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -28880,10 +30608,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8195</v>
+        <v>8771</v>
       </c>
       <c r="C3" t="s">
-        <v>8224</v>
+        <v>8800</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -28900,10 +30628,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8196</v>
+        <v>8772</v>
       </c>
       <c r="C4" t="s">
-        <v>8225</v>
+        <v>8801</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -28920,10 +30648,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8197</v>
+        <v>8773</v>
       </c>
       <c r="C5" t="s">
-        <v>8226</v>
+        <v>8802</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -28940,10 +30668,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8198</v>
+        <v>8774</v>
       </c>
       <c r="C6" t="s">
-        <v>8227</v>
+        <v>8803</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -28960,10 +30688,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8199</v>
+        <v>8775</v>
       </c>
       <c r="C7" t="s">
-        <v>8228</v>
+        <v>8804</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -28980,10 +30708,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8200</v>
+        <v>8776</v>
       </c>
       <c r="C8" t="s">
-        <v>8229</v>
+        <v>8805</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -29000,10 +30728,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8201</v>
+        <v>8777</v>
       </c>
       <c r="C9" t="s">
-        <v>8230</v>
+        <v>8806</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -29020,10 +30748,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8202</v>
+        <v>8778</v>
       </c>
       <c r="C10" t="s">
-        <v>8231</v>
+        <v>8807</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -29040,10 +30768,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8203</v>
+        <v>8779</v>
       </c>
       <c r="C11" t="s">
-        <v>8232</v>
+        <v>8808</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -29060,10 +30788,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8204</v>
+        <v>8780</v>
       </c>
       <c r="C12" t="s">
-        <v>8233</v>
+        <v>8809</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -29080,10 +30808,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8205</v>
+        <v>8781</v>
       </c>
       <c r="C13" t="s">
-        <v>8234</v>
+        <v>8810</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -29100,10 +30828,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8206</v>
+        <v>8782</v>
       </c>
       <c r="C14" t="s">
-        <v>8235</v>
+        <v>8811</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -29120,10 +30848,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8207</v>
+        <v>8783</v>
       </c>
       <c r="C15" t="s">
-        <v>8236</v>
+        <v>8812</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -29140,10 +30868,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8208</v>
+        <v>8784</v>
       </c>
       <c r="C16" t="s">
-        <v>8237</v>
+        <v>8813</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -29160,10 +30888,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8209</v>
+        <v>8785</v>
       </c>
       <c r="C17" t="s">
-        <v>8238</v>
+        <v>8814</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -29180,10 +30908,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8210</v>
+        <v>8786</v>
       </c>
       <c r="C18" t="s">
-        <v>8239</v>
+        <v>8815</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -29200,10 +30928,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8211</v>
+        <v>8787</v>
       </c>
       <c r="C19" t="s">
-        <v>8240</v>
+        <v>8816</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -29220,10 +30948,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8212</v>
+        <v>8788</v>
       </c>
       <c r="C20" t="s">
-        <v>8241</v>
+        <v>8817</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -29240,10 +30968,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8213</v>
+        <v>8789</v>
       </c>
       <c r="C21" t="s">
-        <v>8242</v>
+        <v>8818</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -29260,10 +30988,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8214</v>
+        <v>8790</v>
       </c>
       <c r="C22" t="s">
-        <v>8243</v>
+        <v>8819</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -29280,10 +31008,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8215</v>
+        <v>8791</v>
       </c>
       <c r="C23" t="s">
-        <v>8244</v>
+        <v>8820</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -29300,10 +31028,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8216</v>
+        <v>8792</v>
       </c>
       <c r="C24" t="s">
-        <v>8245</v>
+        <v>8821</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -29320,10 +31048,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8217</v>
+        <v>8793</v>
       </c>
       <c r="C25" t="s">
-        <v>8246</v>
+        <v>8822</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -29340,10 +31068,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8218</v>
+        <v>8794</v>
       </c>
       <c r="C26" t="s">
-        <v>8247</v>
+        <v>8823</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -29360,10 +31088,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8219</v>
+        <v>8795</v>
       </c>
       <c r="C27" t="s">
-        <v>8248</v>
+        <v>8824</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -29380,10 +31108,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8220</v>
+        <v>8796</v>
       </c>
       <c r="C28" t="s">
-        <v>8249</v>
+        <v>8825</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -29400,10 +31128,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8221</v>
+        <v>8797</v>
       </c>
       <c r="C29" t="s">
-        <v>8250</v>
+        <v>8826</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -29428,28 +31156,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8256</v>
+        <v>8832</v>
       </c>
       <c r="B1" t="s">
-        <v>8257</v>
+        <v>8833</v>
       </c>
       <c r="C1" t="s">
-        <v>8286</v>
+        <v>8862</v>
       </c>
       <c r="D1" t="s">
-        <v>8315</v>
+        <v>8891</v>
       </c>
       <c r="E1" t="s">
-        <v>8316</v>
+        <v>8892</v>
       </c>
       <c r="F1" t="s">
-        <v>8317</v>
+        <v>8893</v>
       </c>
       <c r="G1" t="s">
-        <v>8318</v>
+        <v>8894</v>
       </c>
       <c r="H1" t="s">
-        <v>8319</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="2">
@@ -29457,10 +31185,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>8258</v>
+        <v>8834</v>
       </c>
       <c r="C2" t="s">
-        <v>8287</v>
+        <v>8863</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -29481,10 +31209,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8259</v>
+        <v>8835</v>
       </c>
       <c r="C3" t="s">
-        <v>8288</v>
+        <v>8864</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -29501,10 +31229,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8260</v>
+        <v>8836</v>
       </c>
       <c r="C4" t="s">
-        <v>8289</v>
+        <v>8865</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -29521,10 +31249,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8261</v>
+        <v>8837</v>
       </c>
       <c r="C5" t="s">
-        <v>8290</v>
+        <v>8866</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -29541,10 +31269,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8262</v>
+        <v>8838</v>
       </c>
       <c r="C6" t="s">
-        <v>8291</v>
+        <v>8867</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -29561,10 +31289,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8263</v>
+        <v>8839</v>
       </c>
       <c r="C7" t="s">
-        <v>8292</v>
+        <v>8868</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -29581,10 +31309,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8264</v>
+        <v>8840</v>
       </c>
       <c r="C8" t="s">
-        <v>8293</v>
+        <v>8869</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -29601,10 +31329,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8265</v>
+        <v>8841</v>
       </c>
       <c r="C9" t="s">
-        <v>8294</v>
+        <v>8870</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -29621,10 +31349,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8266</v>
+        <v>8842</v>
       </c>
       <c r="C10" t="s">
-        <v>8295</v>
+        <v>8871</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -29641,10 +31369,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8267</v>
+        <v>8843</v>
       </c>
       <c r="C11" t="s">
-        <v>8296</v>
+        <v>8872</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -29661,10 +31389,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8268</v>
+        <v>8844</v>
       </c>
       <c r="C12" t="s">
-        <v>8297</v>
+        <v>8873</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -29681,10 +31409,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8269</v>
+        <v>8845</v>
       </c>
       <c r="C13" t="s">
-        <v>8298</v>
+        <v>8874</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -29701,10 +31429,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8270</v>
+        <v>8846</v>
       </c>
       <c r="C14" t="s">
-        <v>8299</v>
+        <v>8875</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -29721,10 +31449,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8271</v>
+        <v>8847</v>
       </c>
       <c r="C15" t="s">
-        <v>8300</v>
+        <v>8876</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -29741,10 +31469,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8272</v>
+        <v>8848</v>
       </c>
       <c r="C16" t="s">
-        <v>8301</v>
+        <v>8877</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -29761,10 +31489,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8273</v>
+        <v>8849</v>
       </c>
       <c r="C17" t="s">
-        <v>8302</v>
+        <v>8878</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -29781,10 +31509,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8274</v>
+        <v>8850</v>
       </c>
       <c r="C18" t="s">
-        <v>8303</v>
+        <v>8879</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -29801,10 +31529,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8275</v>
+        <v>8851</v>
       </c>
       <c r="C19" t="s">
-        <v>8304</v>
+        <v>8880</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -29821,10 +31549,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8276</v>
+        <v>8852</v>
       </c>
       <c r="C20" t="s">
-        <v>8305</v>
+        <v>8881</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -29841,10 +31569,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8277</v>
+        <v>8853</v>
       </c>
       <c r="C21" t="s">
-        <v>8306</v>
+        <v>8882</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -29861,10 +31589,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8278</v>
+        <v>8854</v>
       </c>
       <c r="C22" t="s">
-        <v>8307</v>
+        <v>8883</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -29881,10 +31609,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8279</v>
+        <v>8855</v>
       </c>
       <c r="C23" t="s">
-        <v>8308</v>
+        <v>8884</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -29901,10 +31629,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8280</v>
+        <v>8856</v>
       </c>
       <c r="C24" t="s">
-        <v>8309</v>
+        <v>8885</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -29921,10 +31649,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8281</v>
+        <v>8857</v>
       </c>
       <c r="C25" t="s">
-        <v>8310</v>
+        <v>8886</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -29941,10 +31669,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8282</v>
+        <v>8858</v>
       </c>
       <c r="C26" t="s">
-        <v>8311</v>
+        <v>8887</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -29961,10 +31689,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8283</v>
+        <v>8859</v>
       </c>
       <c r="C27" t="s">
-        <v>8312</v>
+        <v>8888</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -29981,10 +31709,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8284</v>
+        <v>8860</v>
       </c>
       <c r="C28" t="s">
-        <v>8313</v>
+        <v>8889</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -30001,10 +31729,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8285</v>
+        <v>8861</v>
       </c>
       <c r="C29" t="s">
-        <v>8314</v>
+        <v>8890</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -30029,28 +31757,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8320</v>
+        <v>8896</v>
       </c>
       <c r="B1" t="s">
-        <v>8321</v>
+        <v>8897</v>
       </c>
       <c r="C1" t="s">
-        <v>8350</v>
+        <v>8926</v>
       </c>
       <c r="D1" t="s">
-        <v>8379</v>
+        <v>8955</v>
       </c>
       <c r="E1" t="s">
-        <v>8380</v>
+        <v>8956</v>
       </c>
       <c r="F1" t="s">
-        <v>8381</v>
+        <v>8957</v>
       </c>
       <c r="G1" t="s">
-        <v>8382</v>
+        <v>8958</v>
       </c>
       <c r="H1" t="s">
-        <v>8383</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="2">
@@ -30058,10 +31786,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>8322</v>
+        <v>8898</v>
       </c>
       <c r="C2" t="s">
-        <v>8351</v>
+        <v>8927</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -30082,10 +31810,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>8323</v>
+        <v>8899</v>
       </c>
       <c r="C3" t="s">
-        <v>8352</v>
+        <v>8928</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -30102,10 +31830,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>8324</v>
+        <v>8900</v>
       </c>
       <c r="C4" t="s">
-        <v>8353</v>
+        <v>8929</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -30122,10 +31850,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>8325</v>
+        <v>8901</v>
       </c>
       <c r="C5" t="s">
-        <v>8354</v>
+        <v>8930</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -30142,10 +31870,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>8326</v>
+        <v>8902</v>
       </c>
       <c r="C6" t="s">
-        <v>8355</v>
+        <v>8931</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -30162,10 +31890,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>8327</v>
+        <v>8903</v>
       </c>
       <c r="C7" t="s">
-        <v>8356</v>
+        <v>8932</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -30182,10 +31910,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>8328</v>
+        <v>8904</v>
       </c>
       <c r="C8" t="s">
-        <v>8357</v>
+        <v>8933</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -30202,10 +31930,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>8329</v>
+        <v>8905</v>
       </c>
       <c r="C9" t="s">
-        <v>8358</v>
+        <v>8934</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -30222,10 +31950,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>8330</v>
+        <v>8906</v>
       </c>
       <c r="C10" t="s">
-        <v>8359</v>
+        <v>8935</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -30242,10 +31970,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>8331</v>
+        <v>8907</v>
       </c>
       <c r="C11" t="s">
-        <v>8360</v>
+        <v>8936</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -30262,10 +31990,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>8332</v>
+        <v>8908</v>
       </c>
       <c r="C12" t="s">
-        <v>8361</v>
+        <v>8937</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -30282,10 +32010,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>8333</v>
+        <v>8909</v>
       </c>
       <c r="C13" t="s">
-        <v>8362</v>
+        <v>8938</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -30302,10 +32030,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>8334</v>
+        <v>8910</v>
       </c>
       <c r="C14" t="s">
-        <v>8363</v>
+        <v>8939</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -30322,10 +32050,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>8335</v>
+        <v>8911</v>
       </c>
       <c r="C15" t="s">
-        <v>8364</v>
+        <v>8940</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -30342,10 +32070,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>8336</v>
+        <v>8912</v>
       </c>
       <c r="C16" t="s">
-        <v>8365</v>
+        <v>8941</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -30362,10 +32090,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>8337</v>
+        <v>8913</v>
       </c>
       <c r="C17" t="s">
-        <v>8366</v>
+        <v>8942</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -30382,10 +32110,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>8338</v>
+        <v>8914</v>
       </c>
       <c r="C18" t="s">
-        <v>8367</v>
+        <v>8943</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -30402,10 +32130,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>8339</v>
+        <v>8915</v>
       </c>
       <c r="C19" t="s">
-        <v>8368</v>
+        <v>8944</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -30422,10 +32150,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>8340</v>
+        <v>8916</v>
       </c>
       <c r="C20" t="s">
-        <v>8369</v>
+        <v>8945</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -30442,10 +32170,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>8341</v>
+        <v>8917</v>
       </c>
       <c r="C21" t="s">
-        <v>8370</v>
+        <v>8946</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -30462,10 +32190,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>8342</v>
+        <v>8918</v>
       </c>
       <c r="C22" t="s">
-        <v>8371</v>
+        <v>8947</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -30482,10 +32210,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>8343</v>
+        <v>8919</v>
       </c>
       <c r="C23" t="s">
-        <v>8372</v>
+        <v>8948</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -30502,10 +32230,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>8344</v>
+        <v>8920</v>
       </c>
       <c r="C24" t="s">
-        <v>8373</v>
+        <v>8949</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -30522,10 +32250,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>8345</v>
+        <v>8921</v>
       </c>
       <c r="C25" t="s">
-        <v>8374</v>
+        <v>8950</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -30542,10 +32270,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>8346</v>
+        <v>8922</v>
       </c>
       <c r="C26" t="s">
-        <v>8375</v>
+        <v>8951</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -30562,10 +32290,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>8347</v>
+        <v>8923</v>
       </c>
       <c r="C27" t="s">
-        <v>8376</v>
+        <v>8952</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -30582,10 +32310,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>8348</v>
+        <v>8924</v>
       </c>
       <c r="C28" t="s">
-        <v>8377</v>
+        <v>8953</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -30602,10 +32330,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>8349</v>
+        <v>8925</v>
       </c>
       <c r="C29" t="s">
-        <v>8378</v>
+        <v>8954</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>

--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,5191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12992" uniqueCount="12992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14720" uniqueCount="14720">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -39045,28 +44229,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12416</v>
+        <v>14144</v>
       </c>
       <c r="B1" t="s">
-        <v>12417</v>
+        <v>14145</v>
       </c>
       <c r="C1" t="s">
-        <v>12446</v>
+        <v>14174</v>
       </c>
       <c r="D1" t="s">
-        <v>12475</v>
+        <v>14203</v>
       </c>
       <c r="E1" t="s">
-        <v>12476</v>
+        <v>14204</v>
       </c>
       <c r="F1" t="s">
-        <v>12477</v>
+        <v>14205</v>
       </c>
       <c r="G1" t="s">
-        <v>12478</v>
+        <v>14206</v>
       </c>
       <c r="H1" t="s">
-        <v>12479</v>
+        <v>14207</v>
       </c>
     </row>
     <row r="2">
@@ -39074,10 +44258,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>12418</v>
+        <v>14146</v>
       </c>
       <c r="C2" t="s">
-        <v>12447</v>
+        <v>14175</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -39098,10 +44282,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12419</v>
+        <v>14147</v>
       </c>
       <c r="C3" t="s">
-        <v>12448</v>
+        <v>14176</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -39118,10 +44302,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12420</v>
+        <v>14148</v>
       </c>
       <c r="C4" t="s">
-        <v>12449</v>
+        <v>14177</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -39138,10 +44322,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12421</v>
+        <v>14149</v>
       </c>
       <c r="C5" t="s">
-        <v>12450</v>
+        <v>14178</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -39158,10 +44342,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12422</v>
+        <v>14150</v>
       </c>
       <c r="C6" t="s">
-        <v>12451</v>
+        <v>14179</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -39178,10 +44362,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12423</v>
+        <v>14151</v>
       </c>
       <c r="C7" t="s">
-        <v>12452</v>
+        <v>14180</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -39198,10 +44382,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12424</v>
+        <v>14152</v>
       </c>
       <c r="C8" t="s">
-        <v>12453</v>
+        <v>14181</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -39218,10 +44402,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12425</v>
+        <v>14153</v>
       </c>
       <c r="C9" t="s">
-        <v>12454</v>
+        <v>14182</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -39238,10 +44422,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12426</v>
+        <v>14154</v>
       </c>
       <c r="C10" t="s">
-        <v>12455</v>
+        <v>14183</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -39258,10 +44442,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12427</v>
+        <v>14155</v>
       </c>
       <c r="C11" t="s">
-        <v>12456</v>
+        <v>14184</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -39278,10 +44462,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12428</v>
+        <v>14156</v>
       </c>
       <c r="C12" t="s">
-        <v>12457</v>
+        <v>14185</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -39298,10 +44482,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12429</v>
+        <v>14157</v>
       </c>
       <c r="C13" t="s">
-        <v>12458</v>
+        <v>14186</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -39318,10 +44502,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12430</v>
+        <v>14158</v>
       </c>
       <c r="C14" t="s">
-        <v>12459</v>
+        <v>14187</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -39338,10 +44522,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12431</v>
+        <v>14159</v>
       </c>
       <c r="C15" t="s">
-        <v>12460</v>
+        <v>14188</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -39358,10 +44542,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12432</v>
+        <v>14160</v>
       </c>
       <c r="C16" t="s">
-        <v>12461</v>
+        <v>14189</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -39378,10 +44562,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12433</v>
+        <v>14161</v>
       </c>
       <c r="C17" t="s">
-        <v>12462</v>
+        <v>14190</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -39398,10 +44582,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12434</v>
+        <v>14162</v>
       </c>
       <c r="C18" t="s">
-        <v>12463</v>
+        <v>14191</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -39418,10 +44602,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12435</v>
+        <v>14163</v>
       </c>
       <c r="C19" t="s">
-        <v>12464</v>
+        <v>14192</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -39438,10 +44622,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12436</v>
+        <v>14164</v>
       </c>
       <c r="C20" t="s">
-        <v>12465</v>
+        <v>14193</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -39458,10 +44642,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12437</v>
+        <v>14165</v>
       </c>
       <c r="C21" t="s">
-        <v>12466</v>
+        <v>14194</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -39478,10 +44662,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12438</v>
+        <v>14166</v>
       </c>
       <c r="C22" t="s">
-        <v>12467</v>
+        <v>14195</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -39498,10 +44682,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12439</v>
+        <v>14167</v>
       </c>
       <c r="C23" t="s">
-        <v>12468</v>
+        <v>14196</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -39518,10 +44702,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12440</v>
+        <v>14168</v>
       </c>
       <c r="C24" t="s">
-        <v>12469</v>
+        <v>14197</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -39538,10 +44722,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12441</v>
+        <v>14169</v>
       </c>
       <c r="C25" t="s">
-        <v>12470</v>
+        <v>14198</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -39558,10 +44742,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12442</v>
+        <v>14170</v>
       </c>
       <c r="C26" t="s">
-        <v>12471</v>
+        <v>14199</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -39578,10 +44762,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12443</v>
+        <v>14171</v>
       </c>
       <c r="C27" t="s">
-        <v>12472</v>
+        <v>14200</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -39598,10 +44782,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12444</v>
+        <v>14172</v>
       </c>
       <c r="C28" t="s">
-        <v>12473</v>
+        <v>14201</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -39618,10 +44802,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12445</v>
+        <v>14173</v>
       </c>
       <c r="C29" t="s">
-        <v>12474</v>
+        <v>14202</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -39646,28 +44830,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12480</v>
+        <v>14208</v>
       </c>
       <c r="B1" t="s">
-        <v>12481</v>
+        <v>14209</v>
       </c>
       <c r="C1" t="s">
-        <v>12510</v>
+        <v>14238</v>
       </c>
       <c r="D1" t="s">
-        <v>12539</v>
+        <v>14267</v>
       </c>
       <c r="E1" t="s">
-        <v>12540</v>
+        <v>14268</v>
       </c>
       <c r="F1" t="s">
-        <v>12541</v>
+        <v>14269</v>
       </c>
       <c r="G1" t="s">
-        <v>12542</v>
+        <v>14270</v>
       </c>
       <c r="H1" t="s">
-        <v>12543</v>
+        <v>14271</v>
       </c>
     </row>
     <row r="2">
@@ -39675,10 +44859,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>12482</v>
+        <v>14210</v>
       </c>
       <c r="C2" t="s">
-        <v>12511</v>
+        <v>14239</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -39699,10 +44883,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12483</v>
+        <v>14211</v>
       </c>
       <c r="C3" t="s">
-        <v>12512</v>
+        <v>14240</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -39719,10 +44903,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12484</v>
+        <v>14212</v>
       </c>
       <c r="C4" t="s">
-        <v>12513</v>
+        <v>14241</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -39739,10 +44923,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12485</v>
+        <v>14213</v>
       </c>
       <c r="C5" t="s">
-        <v>12514</v>
+        <v>14242</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -39759,10 +44943,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12486</v>
+        <v>14214</v>
       </c>
       <c r="C6" t="s">
-        <v>12515</v>
+        <v>14243</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -39779,10 +44963,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12487</v>
+        <v>14215</v>
       </c>
       <c r="C7" t="s">
-        <v>12516</v>
+        <v>14244</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -39799,10 +44983,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12488</v>
+        <v>14216</v>
       </c>
       <c r="C8" t="s">
-        <v>12517</v>
+        <v>14245</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -39819,10 +45003,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12489</v>
+        <v>14217</v>
       </c>
       <c r="C9" t="s">
-        <v>12518</v>
+        <v>14246</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -39839,10 +45023,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12490</v>
+        <v>14218</v>
       </c>
       <c r="C10" t="s">
-        <v>12519</v>
+        <v>14247</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -39859,10 +45043,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12491</v>
+        <v>14219</v>
       </c>
       <c r="C11" t="s">
-        <v>12520</v>
+        <v>14248</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -39879,10 +45063,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12492</v>
+        <v>14220</v>
       </c>
       <c r="C12" t="s">
-        <v>12521</v>
+        <v>14249</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -39899,10 +45083,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12493</v>
+        <v>14221</v>
       </c>
       <c r="C13" t="s">
-        <v>12522</v>
+        <v>14250</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -39919,10 +45103,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12494</v>
+        <v>14222</v>
       </c>
       <c r="C14" t="s">
-        <v>12523</v>
+        <v>14251</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -39939,10 +45123,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12495</v>
+        <v>14223</v>
       </c>
       <c r="C15" t="s">
-        <v>12524</v>
+        <v>14252</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -39959,10 +45143,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12496</v>
+        <v>14224</v>
       </c>
       <c r="C16" t="s">
-        <v>12525</v>
+        <v>14253</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -39979,10 +45163,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12497</v>
+        <v>14225</v>
       </c>
       <c r="C17" t="s">
-        <v>12526</v>
+        <v>14254</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -39999,10 +45183,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12498</v>
+        <v>14226</v>
       </c>
       <c r="C18" t="s">
-        <v>12527</v>
+        <v>14255</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -40019,10 +45203,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12499</v>
+        <v>14227</v>
       </c>
       <c r="C19" t="s">
-        <v>12528</v>
+        <v>14256</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -40039,10 +45223,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12500</v>
+        <v>14228</v>
       </c>
       <c r="C20" t="s">
-        <v>12529</v>
+        <v>14257</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -40059,10 +45243,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12501</v>
+        <v>14229</v>
       </c>
       <c r="C21" t="s">
-        <v>12530</v>
+        <v>14258</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -40079,10 +45263,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12502</v>
+        <v>14230</v>
       </c>
       <c r="C22" t="s">
-        <v>12531</v>
+        <v>14259</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -40099,10 +45283,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12503</v>
+        <v>14231</v>
       </c>
       <c r="C23" t="s">
-        <v>12532</v>
+        <v>14260</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -40119,10 +45303,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12504</v>
+        <v>14232</v>
       </c>
       <c r="C24" t="s">
-        <v>12533</v>
+        <v>14261</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -40139,10 +45323,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12505</v>
+        <v>14233</v>
       </c>
       <c r="C25" t="s">
-        <v>12534</v>
+        <v>14262</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -40159,10 +45343,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12506</v>
+        <v>14234</v>
       </c>
       <c r="C26" t="s">
-        <v>12535</v>
+        <v>14263</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -40179,10 +45363,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12507</v>
+        <v>14235</v>
       </c>
       <c r="C27" t="s">
-        <v>12536</v>
+        <v>14264</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -40199,10 +45383,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12508</v>
+        <v>14236</v>
       </c>
       <c r="C28" t="s">
-        <v>12537</v>
+        <v>14265</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -40219,10 +45403,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12509</v>
+        <v>14237</v>
       </c>
       <c r="C29" t="s">
-        <v>12538</v>
+        <v>14266</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -40247,28 +45431,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12544</v>
+        <v>14272</v>
       </c>
       <c r="B1" t="s">
-        <v>12545</v>
+        <v>14273</v>
       </c>
       <c r="C1" t="s">
-        <v>12574</v>
+        <v>14302</v>
       </c>
       <c r="D1" t="s">
-        <v>12603</v>
+        <v>14331</v>
       </c>
       <c r="E1" t="s">
-        <v>12604</v>
+        <v>14332</v>
       </c>
       <c r="F1" t="s">
-        <v>12605</v>
+        <v>14333</v>
       </c>
       <c r="G1" t="s">
-        <v>12606</v>
+        <v>14334</v>
       </c>
       <c r="H1" t="s">
-        <v>12607</v>
+        <v>14335</v>
       </c>
     </row>
     <row r="2">
@@ -40276,10 +45460,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>12546</v>
+        <v>14274</v>
       </c>
       <c r="C2" t="s">
-        <v>12575</v>
+        <v>14303</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -40300,10 +45484,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12547</v>
+        <v>14275</v>
       </c>
       <c r="C3" t="s">
-        <v>12576</v>
+        <v>14304</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -40320,10 +45504,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12548</v>
+        <v>14276</v>
       </c>
       <c r="C4" t="s">
-        <v>12577</v>
+        <v>14305</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -40340,10 +45524,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12549</v>
+        <v>14277</v>
       </c>
       <c r="C5" t="s">
-        <v>12578</v>
+        <v>14306</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -40360,10 +45544,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12550</v>
+        <v>14278</v>
       </c>
       <c r="C6" t="s">
-        <v>12579</v>
+        <v>14307</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -40380,10 +45564,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12551</v>
+        <v>14279</v>
       </c>
       <c r="C7" t="s">
-        <v>12580</v>
+        <v>14308</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -40400,10 +45584,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12552</v>
+        <v>14280</v>
       </c>
       <c r="C8" t="s">
-        <v>12581</v>
+        <v>14309</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -40420,10 +45604,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12553</v>
+        <v>14281</v>
       </c>
       <c r="C9" t="s">
-        <v>12582</v>
+        <v>14310</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -40440,10 +45624,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12554</v>
+        <v>14282</v>
       </c>
       <c r="C10" t="s">
-        <v>12583</v>
+        <v>14311</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -40460,10 +45644,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12555</v>
+        <v>14283</v>
       </c>
       <c r="C11" t="s">
-        <v>12584</v>
+        <v>14312</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -40480,10 +45664,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12556</v>
+        <v>14284</v>
       </c>
       <c r="C12" t="s">
-        <v>12585</v>
+        <v>14313</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -40500,10 +45684,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12557</v>
+        <v>14285</v>
       </c>
       <c r="C13" t="s">
-        <v>12586</v>
+        <v>14314</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -40520,10 +45704,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12558</v>
+        <v>14286</v>
       </c>
       <c r="C14" t="s">
-        <v>12587</v>
+        <v>14315</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -40540,10 +45724,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12559</v>
+        <v>14287</v>
       </c>
       <c r="C15" t="s">
-        <v>12588</v>
+        <v>14316</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -40560,10 +45744,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12560</v>
+        <v>14288</v>
       </c>
       <c r="C16" t="s">
-        <v>12589</v>
+        <v>14317</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -40580,10 +45764,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12561</v>
+        <v>14289</v>
       </c>
       <c r="C17" t="s">
-        <v>12590</v>
+        <v>14318</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -40600,10 +45784,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12562</v>
+        <v>14290</v>
       </c>
       <c r="C18" t="s">
-        <v>12591</v>
+        <v>14319</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -40620,10 +45804,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12563</v>
+        <v>14291</v>
       </c>
       <c r="C19" t="s">
-        <v>12592</v>
+        <v>14320</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -40640,10 +45824,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12564</v>
+        <v>14292</v>
       </c>
       <c r="C20" t="s">
-        <v>12593</v>
+        <v>14321</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -40660,10 +45844,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12565</v>
+        <v>14293</v>
       </c>
       <c r="C21" t="s">
-        <v>12594</v>
+        <v>14322</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -40680,10 +45864,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12566</v>
+        <v>14294</v>
       </c>
       <c r="C22" t="s">
-        <v>12595</v>
+        <v>14323</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -40700,10 +45884,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12567</v>
+        <v>14295</v>
       </c>
       <c r="C23" t="s">
-        <v>12596</v>
+        <v>14324</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -40720,10 +45904,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12568</v>
+        <v>14296</v>
       </c>
       <c r="C24" t="s">
-        <v>12597</v>
+        <v>14325</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -40740,10 +45924,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12569</v>
+        <v>14297</v>
       </c>
       <c r="C25" t="s">
-        <v>12598</v>
+        <v>14326</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -40760,10 +45944,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12570</v>
+        <v>14298</v>
       </c>
       <c r="C26" t="s">
-        <v>12599</v>
+        <v>14327</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -40780,10 +45964,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12571</v>
+        <v>14299</v>
       </c>
       <c r="C27" t="s">
-        <v>12600</v>
+        <v>14328</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -40800,10 +45984,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12572</v>
+        <v>14300</v>
       </c>
       <c r="C28" t="s">
-        <v>12601</v>
+        <v>14329</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -40820,10 +46004,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12573</v>
+        <v>14301</v>
       </c>
       <c r="C29" t="s">
-        <v>12602</v>
+        <v>14330</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -40848,28 +46032,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12608</v>
+        <v>14336</v>
       </c>
       <c r="B1" t="s">
-        <v>12609</v>
+        <v>14337</v>
       </c>
       <c r="C1" t="s">
-        <v>12638</v>
+        <v>14366</v>
       </c>
       <c r="D1" t="s">
-        <v>12667</v>
+        <v>14395</v>
       </c>
       <c r="E1" t="s">
-        <v>12668</v>
+        <v>14396</v>
       </c>
       <c r="F1" t="s">
-        <v>12669</v>
+        <v>14397</v>
       </c>
       <c r="G1" t="s">
-        <v>12670</v>
+        <v>14398</v>
       </c>
       <c r="H1" t="s">
-        <v>12671</v>
+        <v>14399</v>
       </c>
     </row>
     <row r="2">
@@ -40877,10 +46061,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>12610</v>
+        <v>14338</v>
       </c>
       <c r="C2" t="s">
-        <v>12639</v>
+        <v>14367</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -40901,10 +46085,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12611</v>
+        <v>14339</v>
       </c>
       <c r="C3" t="s">
-        <v>12640</v>
+        <v>14368</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -40921,10 +46105,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12612</v>
+        <v>14340</v>
       </c>
       <c r="C4" t="s">
-        <v>12641</v>
+        <v>14369</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -40941,10 +46125,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12613</v>
+        <v>14341</v>
       </c>
       <c r="C5" t="s">
-        <v>12642</v>
+        <v>14370</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -40961,10 +46145,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12614</v>
+        <v>14342</v>
       </c>
       <c r="C6" t="s">
-        <v>12643</v>
+        <v>14371</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -40981,10 +46165,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12615</v>
+        <v>14343</v>
       </c>
       <c r="C7" t="s">
-        <v>12644</v>
+        <v>14372</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -41001,10 +46185,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12616</v>
+        <v>14344</v>
       </c>
       <c r="C8" t="s">
-        <v>12645</v>
+        <v>14373</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -41021,10 +46205,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12617</v>
+        <v>14345</v>
       </c>
       <c r="C9" t="s">
-        <v>12646</v>
+        <v>14374</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -41041,10 +46225,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12618</v>
+        <v>14346</v>
       </c>
       <c r="C10" t="s">
-        <v>12647</v>
+        <v>14375</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -41061,10 +46245,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12619</v>
+        <v>14347</v>
       </c>
       <c r="C11" t="s">
-        <v>12648</v>
+        <v>14376</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -41081,10 +46265,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12620</v>
+        <v>14348</v>
       </c>
       <c r="C12" t="s">
-        <v>12649</v>
+        <v>14377</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -41101,10 +46285,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12621</v>
+        <v>14349</v>
       </c>
       <c r="C13" t="s">
-        <v>12650</v>
+        <v>14378</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -41121,10 +46305,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12622</v>
+        <v>14350</v>
       </c>
       <c r="C14" t="s">
-        <v>12651</v>
+        <v>14379</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -41141,10 +46325,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12623</v>
+        <v>14351</v>
       </c>
       <c r="C15" t="s">
-        <v>12652</v>
+        <v>14380</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -41161,10 +46345,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12624</v>
+        <v>14352</v>
       </c>
       <c r="C16" t="s">
-        <v>12653</v>
+        <v>14381</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -41181,10 +46365,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12625</v>
+        <v>14353</v>
       </c>
       <c r="C17" t="s">
-        <v>12654</v>
+        <v>14382</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -41201,10 +46385,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12626</v>
+        <v>14354</v>
       </c>
       <c r="C18" t="s">
-        <v>12655</v>
+        <v>14383</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -41221,10 +46405,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12627</v>
+        <v>14355</v>
       </c>
       <c r="C19" t="s">
-        <v>12656</v>
+        <v>14384</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -41241,10 +46425,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12628</v>
+        <v>14356</v>
       </c>
       <c r="C20" t="s">
-        <v>12657</v>
+        <v>14385</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -41261,10 +46445,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12629</v>
+        <v>14357</v>
       </c>
       <c r="C21" t="s">
-        <v>12658</v>
+        <v>14386</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -41281,10 +46465,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12630</v>
+        <v>14358</v>
       </c>
       <c r="C22" t="s">
-        <v>12659</v>
+        <v>14387</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -41301,10 +46485,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12631</v>
+        <v>14359</v>
       </c>
       <c r="C23" t="s">
-        <v>12660</v>
+        <v>14388</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -41321,10 +46505,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12632</v>
+        <v>14360</v>
       </c>
       <c r="C24" t="s">
-        <v>12661</v>
+        <v>14389</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -41341,10 +46525,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12633</v>
+        <v>14361</v>
       </c>
       <c r="C25" t="s">
-        <v>12662</v>
+        <v>14390</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -41361,10 +46545,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12634</v>
+        <v>14362</v>
       </c>
       <c r="C26" t="s">
-        <v>12663</v>
+        <v>14391</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -41381,10 +46565,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12635</v>
+        <v>14363</v>
       </c>
       <c r="C27" t="s">
-        <v>12664</v>
+        <v>14392</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -41401,10 +46585,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12636</v>
+        <v>14364</v>
       </c>
       <c r="C28" t="s">
-        <v>12665</v>
+        <v>14393</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -41421,10 +46605,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12637</v>
+        <v>14365</v>
       </c>
       <c r="C29" t="s">
-        <v>12666</v>
+        <v>14394</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -41449,28 +46633,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12672</v>
+        <v>14400</v>
       </c>
       <c r="B1" t="s">
-        <v>12673</v>
+        <v>14401</v>
       </c>
       <c r="C1" t="s">
-        <v>12702</v>
+        <v>14430</v>
       </c>
       <c r="D1" t="s">
-        <v>12731</v>
+        <v>14459</v>
       </c>
       <c r="E1" t="s">
-        <v>12732</v>
+        <v>14460</v>
       </c>
       <c r="F1" t="s">
-        <v>12733</v>
+        <v>14461</v>
       </c>
       <c r="G1" t="s">
-        <v>12734</v>
+        <v>14462</v>
       </c>
       <c r="H1" t="s">
-        <v>12735</v>
+        <v>14463</v>
       </c>
     </row>
     <row r="2">
@@ -41478,10 +46662,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>12674</v>
+        <v>14402</v>
       </c>
       <c r="C2" t="s">
-        <v>12703</v>
+        <v>14431</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -41502,10 +46686,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12675</v>
+        <v>14403</v>
       </c>
       <c r="C3" t="s">
-        <v>12704</v>
+        <v>14432</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -41522,10 +46706,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12676</v>
+        <v>14404</v>
       </c>
       <c r="C4" t="s">
-        <v>12705</v>
+        <v>14433</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -41542,10 +46726,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12677</v>
+        <v>14405</v>
       </c>
       <c r="C5" t="s">
-        <v>12706</v>
+        <v>14434</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -41562,10 +46746,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12678</v>
+        <v>14406</v>
       </c>
       <c r="C6" t="s">
-        <v>12707</v>
+        <v>14435</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -41582,10 +46766,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12679</v>
+        <v>14407</v>
       </c>
       <c r="C7" t="s">
-        <v>12708</v>
+        <v>14436</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -41602,10 +46786,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12680</v>
+        <v>14408</v>
       </c>
       <c r="C8" t="s">
-        <v>12709</v>
+        <v>14437</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -41622,10 +46806,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12681</v>
+        <v>14409</v>
       </c>
       <c r="C9" t="s">
-        <v>12710</v>
+        <v>14438</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -41642,10 +46826,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12682</v>
+        <v>14410</v>
       </c>
       <c r="C10" t="s">
-        <v>12711</v>
+        <v>14439</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -41662,10 +46846,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12683</v>
+        <v>14411</v>
       </c>
       <c r="C11" t="s">
-        <v>12712</v>
+        <v>14440</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -41682,10 +46866,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12684</v>
+        <v>14412</v>
       </c>
       <c r="C12" t="s">
-        <v>12713</v>
+        <v>14441</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -41702,10 +46886,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12685</v>
+        <v>14413</v>
       </c>
       <c r="C13" t="s">
-        <v>12714</v>
+        <v>14442</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -41722,10 +46906,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12686</v>
+        <v>14414</v>
       </c>
       <c r="C14" t="s">
-        <v>12715</v>
+        <v>14443</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -41742,10 +46926,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12687</v>
+        <v>14415</v>
       </c>
       <c r="C15" t="s">
-        <v>12716</v>
+        <v>14444</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -41762,10 +46946,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12688</v>
+        <v>14416</v>
       </c>
       <c r="C16" t="s">
-        <v>12717</v>
+        <v>14445</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -41782,10 +46966,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12689</v>
+        <v>14417</v>
       </c>
       <c r="C17" t="s">
-        <v>12718</v>
+        <v>14446</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -41802,10 +46986,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12690</v>
+        <v>14418</v>
       </c>
       <c r="C18" t="s">
-        <v>12719</v>
+        <v>14447</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -41822,10 +47006,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12691</v>
+        <v>14419</v>
       </c>
       <c r="C19" t="s">
-        <v>12720</v>
+        <v>14448</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -41842,10 +47026,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12692</v>
+        <v>14420</v>
       </c>
       <c r="C20" t="s">
-        <v>12721</v>
+        <v>14449</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -41862,10 +47046,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12693</v>
+        <v>14421</v>
       </c>
       <c r="C21" t="s">
-        <v>12722</v>
+        <v>14450</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -41882,10 +47066,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12694</v>
+        <v>14422</v>
       </c>
       <c r="C22" t="s">
-        <v>12723</v>
+        <v>14451</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -41902,10 +47086,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12695</v>
+        <v>14423</v>
       </c>
       <c r="C23" t="s">
-        <v>12724</v>
+        <v>14452</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -41922,10 +47106,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12696</v>
+        <v>14424</v>
       </c>
       <c r="C24" t="s">
-        <v>12725</v>
+        <v>14453</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -41942,10 +47126,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12697</v>
+        <v>14425</v>
       </c>
       <c r="C25" t="s">
-        <v>12726</v>
+        <v>14454</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -41962,10 +47146,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12698</v>
+        <v>14426</v>
       </c>
       <c r="C26" t="s">
-        <v>12727</v>
+        <v>14455</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -41982,10 +47166,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12699</v>
+        <v>14427</v>
       </c>
       <c r="C27" t="s">
-        <v>12728</v>
+        <v>14456</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -42002,10 +47186,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12700</v>
+        <v>14428</v>
       </c>
       <c r="C28" t="s">
-        <v>12729</v>
+        <v>14457</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -42022,10 +47206,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12701</v>
+        <v>14429</v>
       </c>
       <c r="C29" t="s">
-        <v>12730</v>
+        <v>14458</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -42050,28 +47234,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12736</v>
+        <v>14464</v>
       </c>
       <c r="B1" t="s">
-        <v>12737</v>
+        <v>14465</v>
       </c>
       <c r="C1" t="s">
-        <v>12766</v>
+        <v>14494</v>
       </c>
       <c r="D1" t="s">
-        <v>12795</v>
+        <v>14523</v>
       </c>
       <c r="E1" t="s">
-        <v>12796</v>
+        <v>14524</v>
       </c>
       <c r="F1" t="s">
-        <v>12797</v>
+        <v>14525</v>
       </c>
       <c r="G1" t="s">
-        <v>12798</v>
+        <v>14526</v>
       </c>
       <c r="H1" t="s">
-        <v>12799</v>
+        <v>14527</v>
       </c>
     </row>
     <row r="2">
@@ -42079,10 +47263,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>12738</v>
+        <v>14466</v>
       </c>
       <c r="C2" t="s">
-        <v>12767</v>
+        <v>14495</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -42103,10 +47287,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12739</v>
+        <v>14467</v>
       </c>
       <c r="C3" t="s">
-        <v>12768</v>
+        <v>14496</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -42123,10 +47307,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12740</v>
+        <v>14468</v>
       </c>
       <c r="C4" t="s">
-        <v>12769</v>
+        <v>14497</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -42143,10 +47327,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12741</v>
+        <v>14469</v>
       </c>
       <c r="C5" t="s">
-        <v>12770</v>
+        <v>14498</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -42163,10 +47347,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12742</v>
+        <v>14470</v>
       </c>
       <c r="C6" t="s">
-        <v>12771</v>
+        <v>14499</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -42183,10 +47367,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12743</v>
+        <v>14471</v>
       </c>
       <c r="C7" t="s">
-        <v>12772</v>
+        <v>14500</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -42203,10 +47387,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12744</v>
+        <v>14472</v>
       </c>
       <c r="C8" t="s">
-        <v>12773</v>
+        <v>14501</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -42223,10 +47407,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12745</v>
+        <v>14473</v>
       </c>
       <c r="C9" t="s">
-        <v>12774</v>
+        <v>14502</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -42243,10 +47427,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12746</v>
+        <v>14474</v>
       </c>
       <c r="C10" t="s">
-        <v>12775</v>
+        <v>14503</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -42263,10 +47447,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12747</v>
+        <v>14475</v>
       </c>
       <c r="C11" t="s">
-        <v>12776</v>
+        <v>14504</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -42283,10 +47467,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12748</v>
+        <v>14476</v>
       </c>
       <c r="C12" t="s">
-        <v>12777</v>
+        <v>14505</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -42303,10 +47487,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12749</v>
+        <v>14477</v>
       </c>
       <c r="C13" t="s">
-        <v>12778</v>
+        <v>14506</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -42323,10 +47507,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12750</v>
+        <v>14478</v>
       </c>
       <c r="C14" t="s">
-        <v>12779</v>
+        <v>14507</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -42343,10 +47527,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12751</v>
+        <v>14479</v>
       </c>
       <c r="C15" t="s">
-        <v>12780</v>
+        <v>14508</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -42363,10 +47547,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12752</v>
+        <v>14480</v>
       </c>
       <c r="C16" t="s">
-        <v>12781</v>
+        <v>14509</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -42383,10 +47567,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12753</v>
+        <v>14481</v>
       </c>
       <c r="C17" t="s">
-        <v>12782</v>
+        <v>14510</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -42403,10 +47587,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12754</v>
+        <v>14482</v>
       </c>
       <c r="C18" t="s">
-        <v>12783</v>
+        <v>14511</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -42423,10 +47607,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12755</v>
+        <v>14483</v>
       </c>
       <c r="C19" t="s">
-        <v>12784</v>
+        <v>14512</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -42443,10 +47627,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12756</v>
+        <v>14484</v>
       </c>
       <c r="C20" t="s">
-        <v>12785</v>
+        <v>14513</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -42463,10 +47647,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12757</v>
+        <v>14485</v>
       </c>
       <c r="C21" t="s">
-        <v>12786</v>
+        <v>14514</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -42483,10 +47667,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12758</v>
+        <v>14486</v>
       </c>
       <c r="C22" t="s">
-        <v>12787</v>
+        <v>14515</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -42503,10 +47687,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12759</v>
+        <v>14487</v>
       </c>
       <c r="C23" t="s">
-        <v>12788</v>
+        <v>14516</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -42523,10 +47707,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12760</v>
+        <v>14488</v>
       </c>
       <c r="C24" t="s">
-        <v>12789</v>
+        <v>14517</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -42543,10 +47727,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12761</v>
+        <v>14489</v>
       </c>
       <c r="C25" t="s">
-        <v>12790</v>
+        <v>14518</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -42563,10 +47747,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12762</v>
+        <v>14490</v>
       </c>
       <c r="C26" t="s">
-        <v>12791</v>
+        <v>14519</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -42583,10 +47767,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12763</v>
+        <v>14491</v>
       </c>
       <c r="C27" t="s">
-        <v>12792</v>
+        <v>14520</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -42603,10 +47787,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12764</v>
+        <v>14492</v>
       </c>
       <c r="C28" t="s">
-        <v>12793</v>
+        <v>14521</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -42623,10 +47807,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12765</v>
+        <v>14493</v>
       </c>
       <c r="C29" t="s">
-        <v>12794</v>
+        <v>14522</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -42651,28 +47835,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12800</v>
+        <v>14528</v>
       </c>
       <c r="B1" t="s">
-        <v>12801</v>
+        <v>14529</v>
       </c>
       <c r="C1" t="s">
-        <v>12830</v>
+        <v>14558</v>
       </c>
       <c r="D1" t="s">
-        <v>12859</v>
+        <v>14587</v>
       </c>
       <c r="E1" t="s">
-        <v>12860</v>
+        <v>14588</v>
       </c>
       <c r="F1" t="s">
-        <v>12861</v>
+        <v>14589</v>
       </c>
       <c r="G1" t="s">
-        <v>12862</v>
+        <v>14590</v>
       </c>
       <c r="H1" t="s">
-        <v>12863</v>
+        <v>14591</v>
       </c>
     </row>
     <row r="2">
@@ -42680,10 +47864,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>12802</v>
+        <v>14530</v>
       </c>
       <c r="C2" t="s">
-        <v>12831</v>
+        <v>14559</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -42704,10 +47888,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12803</v>
+        <v>14531</v>
       </c>
       <c r="C3" t="s">
-        <v>12832</v>
+        <v>14560</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -42724,10 +47908,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12804</v>
+        <v>14532</v>
       </c>
       <c r="C4" t="s">
-        <v>12833</v>
+        <v>14561</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -42744,10 +47928,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12805</v>
+        <v>14533</v>
       </c>
       <c r="C5" t="s">
-        <v>12834</v>
+        <v>14562</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -42764,10 +47948,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12806</v>
+        <v>14534</v>
       </c>
       <c r="C6" t="s">
-        <v>12835</v>
+        <v>14563</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -42784,10 +47968,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12807</v>
+        <v>14535</v>
       </c>
       <c r="C7" t="s">
-        <v>12836</v>
+        <v>14564</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -42804,10 +47988,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12808</v>
+        <v>14536</v>
       </c>
       <c r="C8" t="s">
-        <v>12837</v>
+        <v>14565</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -42824,10 +48008,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12809</v>
+        <v>14537</v>
       </c>
       <c r="C9" t="s">
-        <v>12838</v>
+        <v>14566</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -42844,10 +48028,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12810</v>
+        <v>14538</v>
       </c>
       <c r="C10" t="s">
-        <v>12839</v>
+        <v>14567</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -42864,10 +48048,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12811</v>
+        <v>14539</v>
       </c>
       <c r="C11" t="s">
-        <v>12840</v>
+        <v>14568</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -42884,10 +48068,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12812</v>
+        <v>14540</v>
       </c>
       <c r="C12" t="s">
-        <v>12841</v>
+        <v>14569</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -42904,10 +48088,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12813</v>
+        <v>14541</v>
       </c>
       <c r="C13" t="s">
-        <v>12842</v>
+        <v>14570</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -42924,10 +48108,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12814</v>
+        <v>14542</v>
       </c>
       <c r="C14" t="s">
-        <v>12843</v>
+        <v>14571</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -42944,10 +48128,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12815</v>
+        <v>14543</v>
       </c>
       <c r="C15" t="s">
-        <v>12844</v>
+        <v>14572</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -42964,10 +48148,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12816</v>
+        <v>14544</v>
       </c>
       <c r="C16" t="s">
-        <v>12845</v>
+        <v>14573</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -42984,10 +48168,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12817</v>
+        <v>14545</v>
       </c>
       <c r="C17" t="s">
-        <v>12846</v>
+        <v>14574</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -43004,10 +48188,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12818</v>
+        <v>14546</v>
       </c>
       <c r="C18" t="s">
-        <v>12847</v>
+        <v>14575</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -43024,10 +48208,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12819</v>
+        <v>14547</v>
       </c>
       <c r="C19" t="s">
-        <v>12848</v>
+        <v>14576</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -43044,10 +48228,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12820</v>
+        <v>14548</v>
       </c>
       <c r="C20" t="s">
-        <v>12849</v>
+        <v>14577</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -43064,10 +48248,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12821</v>
+        <v>14549</v>
       </c>
       <c r="C21" t="s">
-        <v>12850</v>
+        <v>14578</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -43084,10 +48268,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12822</v>
+        <v>14550</v>
       </c>
       <c r="C22" t="s">
-        <v>12851</v>
+        <v>14579</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -43104,10 +48288,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12823</v>
+        <v>14551</v>
       </c>
       <c r="C23" t="s">
-        <v>12852</v>
+        <v>14580</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -43124,10 +48308,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12824</v>
+        <v>14552</v>
       </c>
       <c r="C24" t="s">
-        <v>12853</v>
+        <v>14581</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -43144,10 +48328,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12825</v>
+        <v>14553</v>
       </c>
       <c r="C25" t="s">
-        <v>12854</v>
+        <v>14582</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -43164,10 +48348,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12826</v>
+        <v>14554</v>
       </c>
       <c r="C26" t="s">
-        <v>12855</v>
+        <v>14583</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -43184,10 +48368,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12827</v>
+        <v>14555</v>
       </c>
       <c r="C27" t="s">
-        <v>12856</v>
+        <v>14584</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -43204,10 +48388,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12828</v>
+        <v>14556</v>
       </c>
       <c r="C28" t="s">
-        <v>12857</v>
+        <v>14585</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -43224,10 +48408,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12829</v>
+        <v>14557</v>
       </c>
       <c r="C29" t="s">
-        <v>12858</v>
+        <v>14586</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -43252,28 +48436,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12864</v>
+        <v>14592</v>
       </c>
       <c r="B1" t="s">
-        <v>12865</v>
+        <v>14593</v>
       </c>
       <c r="C1" t="s">
-        <v>12894</v>
+        <v>14622</v>
       </c>
       <c r="D1" t="s">
-        <v>12923</v>
+        <v>14651</v>
       </c>
       <c r="E1" t="s">
-        <v>12924</v>
+        <v>14652</v>
       </c>
       <c r="F1" t="s">
-        <v>12925</v>
+        <v>14653</v>
       </c>
       <c r="G1" t="s">
-        <v>12926</v>
+        <v>14654</v>
       </c>
       <c r="H1" t="s">
-        <v>12927</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="2">
@@ -43281,10 +48465,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>12866</v>
+        <v>14594</v>
       </c>
       <c r="C2" t="s">
-        <v>12895</v>
+        <v>14623</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -43305,10 +48489,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12867</v>
+        <v>14595</v>
       </c>
       <c r="C3" t="s">
-        <v>12896</v>
+        <v>14624</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -43325,10 +48509,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12868</v>
+        <v>14596</v>
       </c>
       <c r="C4" t="s">
-        <v>12897</v>
+        <v>14625</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -43345,10 +48529,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12869</v>
+        <v>14597</v>
       </c>
       <c r="C5" t="s">
-        <v>12898</v>
+        <v>14626</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -43365,10 +48549,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12870</v>
+        <v>14598</v>
       </c>
       <c r="C6" t="s">
-        <v>12899</v>
+        <v>14627</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -43385,10 +48569,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12871</v>
+        <v>14599</v>
       </c>
       <c r="C7" t="s">
-        <v>12900</v>
+        <v>14628</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -43405,10 +48589,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12872</v>
+        <v>14600</v>
       </c>
       <c r="C8" t="s">
-        <v>12901</v>
+        <v>14629</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -43425,10 +48609,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12873</v>
+        <v>14601</v>
       </c>
       <c r="C9" t="s">
-        <v>12902</v>
+        <v>14630</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -43445,10 +48629,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12874</v>
+        <v>14602</v>
       </c>
       <c r="C10" t="s">
-        <v>12903</v>
+        <v>14631</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -43465,10 +48649,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12875</v>
+        <v>14603</v>
       </c>
       <c r="C11" t="s">
-        <v>12904</v>
+        <v>14632</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -43485,10 +48669,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12876</v>
+        <v>14604</v>
       </c>
       <c r="C12" t="s">
-        <v>12905</v>
+        <v>14633</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -43505,10 +48689,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12877</v>
+        <v>14605</v>
       </c>
       <c r="C13" t="s">
-        <v>12906</v>
+        <v>14634</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -43525,10 +48709,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12878</v>
+        <v>14606</v>
       </c>
       <c r="C14" t="s">
-        <v>12907</v>
+        <v>14635</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -43545,10 +48729,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12879</v>
+        <v>14607</v>
       </c>
       <c r="C15" t="s">
-        <v>12908</v>
+        <v>14636</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -43565,10 +48749,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12880</v>
+        <v>14608</v>
       </c>
       <c r="C16" t="s">
-        <v>12909</v>
+        <v>14637</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -43585,10 +48769,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12881</v>
+        <v>14609</v>
       </c>
       <c r="C17" t="s">
-        <v>12910</v>
+        <v>14638</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -43605,10 +48789,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12882</v>
+        <v>14610</v>
       </c>
       <c r="C18" t="s">
-        <v>12911</v>
+        <v>14639</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -43625,10 +48809,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12883</v>
+        <v>14611</v>
       </c>
       <c r="C19" t="s">
-        <v>12912</v>
+        <v>14640</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -43645,10 +48829,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12884</v>
+        <v>14612</v>
       </c>
       <c r="C20" t="s">
-        <v>12913</v>
+        <v>14641</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -43665,10 +48849,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12885</v>
+        <v>14613</v>
       </c>
       <c r="C21" t="s">
-        <v>12914</v>
+        <v>14642</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -43685,10 +48869,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12886</v>
+        <v>14614</v>
       </c>
       <c r="C22" t="s">
-        <v>12915</v>
+        <v>14643</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -43705,10 +48889,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12887</v>
+        <v>14615</v>
       </c>
       <c r="C23" t="s">
-        <v>12916</v>
+        <v>14644</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -43725,10 +48909,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12888</v>
+        <v>14616</v>
       </c>
       <c r="C24" t="s">
-        <v>12917</v>
+        <v>14645</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -43745,10 +48929,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12889</v>
+        <v>14617</v>
       </c>
       <c r="C25" t="s">
-        <v>12918</v>
+        <v>14646</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -43765,10 +48949,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12890</v>
+        <v>14618</v>
       </c>
       <c r="C26" t="s">
-        <v>12919</v>
+        <v>14647</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -43785,10 +48969,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12891</v>
+        <v>14619</v>
       </c>
       <c r="C27" t="s">
-        <v>12920</v>
+        <v>14648</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -43805,10 +48989,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12892</v>
+        <v>14620</v>
       </c>
       <c r="C28" t="s">
-        <v>12921</v>
+        <v>14649</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -43825,10 +49009,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12893</v>
+        <v>14621</v>
       </c>
       <c r="C29" t="s">
-        <v>12922</v>
+        <v>14650</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -43853,28 +49037,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12928</v>
+        <v>14656</v>
       </c>
       <c r="B1" t="s">
-        <v>12929</v>
+        <v>14657</v>
       </c>
       <c r="C1" t="s">
-        <v>12958</v>
+        <v>14686</v>
       </c>
       <c r="D1" t="s">
-        <v>12987</v>
+        <v>14715</v>
       </c>
       <c r="E1" t="s">
-        <v>12988</v>
+        <v>14716</v>
       </c>
       <c r="F1" t="s">
-        <v>12989</v>
+        <v>14717</v>
       </c>
       <c r="G1" t="s">
-        <v>12990</v>
+        <v>14718</v>
       </c>
       <c r="H1" t="s">
-        <v>12991</v>
+        <v>14719</v>
       </c>
     </row>
     <row r="2">
@@ -43882,10 +49066,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>12930</v>
+        <v>14658</v>
       </c>
       <c r="C2" t="s">
-        <v>12959</v>
+        <v>14687</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -43906,10 +49090,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>12931</v>
+        <v>14659</v>
       </c>
       <c r="C3" t="s">
-        <v>12960</v>
+        <v>14688</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -43926,10 +49110,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>12932</v>
+        <v>14660</v>
       </c>
       <c r="C4" t="s">
-        <v>12961</v>
+        <v>14689</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -43946,10 +49130,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>12933</v>
+        <v>14661</v>
       </c>
       <c r="C5" t="s">
-        <v>12962</v>
+        <v>14690</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -43966,10 +49150,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>12934</v>
+        <v>14662</v>
       </c>
       <c r="C6" t="s">
-        <v>12963</v>
+        <v>14691</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -43986,10 +49170,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>12935</v>
+        <v>14663</v>
       </c>
       <c r="C7" t="s">
-        <v>12964</v>
+        <v>14692</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -44006,10 +49190,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>12936</v>
+        <v>14664</v>
       </c>
       <c r="C8" t="s">
-        <v>12965</v>
+        <v>14693</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -44026,10 +49210,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>12937</v>
+        <v>14665</v>
       </c>
       <c r="C9" t="s">
-        <v>12966</v>
+        <v>14694</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -44046,10 +49230,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>12938</v>
+        <v>14666</v>
       </c>
       <c r="C10" t="s">
-        <v>12967</v>
+        <v>14695</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -44066,10 +49250,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>12939</v>
+        <v>14667</v>
       </c>
       <c r="C11" t="s">
-        <v>12968</v>
+        <v>14696</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -44086,10 +49270,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>12940</v>
+        <v>14668</v>
       </c>
       <c r="C12" t="s">
-        <v>12969</v>
+        <v>14697</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -44106,10 +49290,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>12941</v>
+        <v>14669</v>
       </c>
       <c r="C13" t="s">
-        <v>12970</v>
+        <v>14698</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -44126,10 +49310,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>12942</v>
+        <v>14670</v>
       </c>
       <c r="C14" t="s">
-        <v>12971</v>
+        <v>14699</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -44146,10 +49330,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>12943</v>
+        <v>14671</v>
       </c>
       <c r="C15" t="s">
-        <v>12972</v>
+        <v>14700</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -44166,10 +49350,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>12944</v>
+        <v>14672</v>
       </c>
       <c r="C16" t="s">
-        <v>12973</v>
+        <v>14701</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -44186,10 +49370,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>12945</v>
+        <v>14673</v>
       </c>
       <c r="C17" t="s">
-        <v>12974</v>
+        <v>14702</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -44206,10 +49390,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>12946</v>
+        <v>14674</v>
       </c>
       <c r="C18" t="s">
-        <v>12975</v>
+        <v>14703</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -44226,10 +49410,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>12947</v>
+        <v>14675</v>
       </c>
       <c r="C19" t="s">
-        <v>12976</v>
+        <v>14704</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -44246,10 +49430,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>12948</v>
+        <v>14676</v>
       </c>
       <c r="C20" t="s">
-        <v>12977</v>
+        <v>14705</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -44266,10 +49450,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>12949</v>
+        <v>14677</v>
       </c>
       <c r="C21" t="s">
-        <v>12978</v>
+        <v>14706</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -44286,10 +49470,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>12950</v>
+        <v>14678</v>
       </c>
       <c r="C22" t="s">
-        <v>12979</v>
+        <v>14707</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -44306,10 +49490,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>12951</v>
+        <v>14679</v>
       </c>
       <c r="C23" t="s">
-        <v>12980</v>
+        <v>14708</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -44326,10 +49510,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>12952</v>
+        <v>14680</v>
       </c>
       <c r="C24" t="s">
-        <v>12981</v>
+        <v>14709</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -44346,10 +49530,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>12953</v>
+        <v>14681</v>
       </c>
       <c r="C25" t="s">
-        <v>12982</v>
+        <v>14710</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -44366,10 +49550,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>12954</v>
+        <v>14682</v>
       </c>
       <c r="C26" t="s">
-        <v>12983</v>
+        <v>14711</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -44386,10 +49570,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>12955</v>
+        <v>14683</v>
       </c>
       <c r="C27" t="s">
-        <v>12984</v>
+        <v>14712</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -44406,10 +49590,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>12956</v>
+        <v>14684</v>
       </c>
       <c r="C28" t="s">
-        <v>12985</v>
+        <v>14713</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -44426,10 +49610,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>12957</v>
+        <v>14685</v>
       </c>
       <c r="C29" t="s">
-        <v>12986</v>
+        <v>14714</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>

--- a/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
+++ b/input_data/admin_data/DOM/_clean/total-pre-DOM.xlsx
@@ -21,7 +21,1735 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14720" uniqueCount="14720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15296" uniqueCount="15296">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>pretax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -44229,28 +45957,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14144</v>
+        <v>14720</v>
       </c>
       <c r="B1" t="s">
-        <v>14145</v>
+        <v>14721</v>
       </c>
       <c r="C1" t="s">
-        <v>14174</v>
+        <v>14750</v>
       </c>
       <c r="D1" t="s">
-        <v>14203</v>
+        <v>14779</v>
       </c>
       <c r="E1" t="s">
-        <v>14204</v>
+        <v>14780</v>
       </c>
       <c r="F1" t="s">
-        <v>14205</v>
+        <v>14781</v>
       </c>
       <c r="G1" t="s">
-        <v>14206</v>
+        <v>14782</v>
       </c>
       <c r="H1" t="s">
-        <v>14207</v>
+        <v>14783</v>
       </c>
     </row>
     <row r="2">
@@ -44258,10 +45986,10 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>14146</v>
+        <v>14722</v>
       </c>
       <c r="C2" t="s">
-        <v>14175</v>
+        <v>14751</v>
       </c>
       <c r="D2">
         <v>9706220</v>
@@ -44282,10 +46010,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14147</v>
+        <v>14723</v>
       </c>
       <c r="C3" t="s">
-        <v>14176</v>
+        <v>14752</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -44302,10 +46030,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14148</v>
+        <v>14724</v>
       </c>
       <c r="C4" t="s">
-        <v>14177</v>
+        <v>14753</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -44322,10 +46050,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14149</v>
+        <v>14725</v>
       </c>
       <c r="C5" t="s">
-        <v>14178</v>
+        <v>14754</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -44342,10 +46070,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14150</v>
+        <v>14726</v>
       </c>
       <c r="C6" t="s">
-        <v>14179</v>
+        <v>14755</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -44362,10 +46090,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14151</v>
+        <v>14727</v>
       </c>
       <c r="C7" t="s">
-        <v>14180</v>
+        <v>14756</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -44382,10 +46110,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14152</v>
+        <v>14728</v>
       </c>
       <c r="C8" t="s">
-        <v>14181</v>
+        <v>14757</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -44402,10 +46130,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14153</v>
+        <v>14729</v>
       </c>
       <c r="C9" t="s">
-        <v>14182</v>
+        <v>14758</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -44422,10 +46150,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14154</v>
+        <v>14730</v>
       </c>
       <c r="C10" t="s">
-        <v>14183</v>
+        <v>14759</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -44442,10 +46170,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14155</v>
+        <v>14731</v>
       </c>
       <c r="C11" t="s">
-        <v>14184</v>
+        <v>14760</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -44462,10 +46190,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14156</v>
+        <v>14732</v>
       </c>
       <c r="C12" t="s">
-        <v>14185</v>
+        <v>14761</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -44482,10 +46210,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14157</v>
+        <v>14733</v>
       </c>
       <c r="C13" t="s">
-        <v>14186</v>
+        <v>14762</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -44502,10 +46230,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14158</v>
+        <v>14734</v>
       </c>
       <c r="C14" t="s">
-        <v>14187</v>
+        <v>14763</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -44522,10 +46250,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14159</v>
+        <v>14735</v>
       </c>
       <c r="C15" t="s">
-        <v>14188</v>
+        <v>14764</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -44542,10 +46270,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14160</v>
+        <v>14736</v>
       </c>
       <c r="C16" t="s">
-        <v>14189</v>
+        <v>14765</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -44562,10 +46290,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14161</v>
+        <v>14737</v>
       </c>
       <c r="C17" t="s">
-        <v>14190</v>
+        <v>14766</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -44582,10 +46310,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14162</v>
+        <v>14738</v>
       </c>
       <c r="C18" t="s">
-        <v>14191</v>
+        <v>14767</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -44602,10 +46330,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14163</v>
+        <v>14739</v>
       </c>
       <c r="C19" t="s">
-        <v>14192</v>
+        <v>14768</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -44622,10 +46350,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14164</v>
+        <v>14740</v>
       </c>
       <c r="C20" t="s">
-        <v>14193</v>
+        <v>14769</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -44642,10 +46370,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14165</v>
+        <v>14741</v>
       </c>
       <c r="C21" t="s">
-        <v>14194</v>
+        <v>14770</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -44662,10 +46390,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14166</v>
+        <v>14742</v>
       </c>
       <c r="C22" t="s">
-        <v>14195</v>
+        <v>14771</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -44682,10 +46410,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14167</v>
+        <v>14743</v>
       </c>
       <c r="C23" t="s">
-        <v>14196</v>
+        <v>14772</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -44702,10 +46430,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14168</v>
+        <v>14744</v>
       </c>
       <c r="C24" t="s">
-        <v>14197</v>
+        <v>14773</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -44722,10 +46450,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14169</v>
+        <v>14745</v>
       </c>
       <c r="C25" t="s">
-        <v>14198</v>
+        <v>14774</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -44742,10 +46470,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14170</v>
+        <v>14746</v>
       </c>
       <c r="C26" t="s">
-        <v>14199</v>
+        <v>14775</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -44762,10 +46490,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14171</v>
+        <v>14747</v>
       </c>
       <c r="C27" t="s">
-        <v>14200</v>
+        <v>14776</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -44782,10 +46510,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14172</v>
+        <v>14748</v>
       </c>
       <c r="C28" t="s">
-        <v>14201</v>
+        <v>14777</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -44802,10 +46530,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14173</v>
+        <v>14749</v>
       </c>
       <c r="C29" t="s">
-        <v>14202</v>
+        <v>14778</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -44830,28 +46558,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14208</v>
+        <v>14784</v>
       </c>
       <c r="B1" t="s">
-        <v>14209</v>
+        <v>14785</v>
       </c>
       <c r="C1" t="s">
-        <v>14238</v>
+        <v>14814</v>
       </c>
       <c r="D1" t="s">
-        <v>14267</v>
+        <v>14843</v>
       </c>
       <c r="E1" t="s">
-        <v>14268</v>
+        <v>14844</v>
       </c>
       <c r="F1" t="s">
-        <v>14269</v>
+        <v>14845</v>
       </c>
       <c r="G1" t="s">
-        <v>14270</v>
+        <v>14846</v>
       </c>
       <c r="H1" t="s">
-        <v>14271</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="2">
@@ -44859,10 +46587,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>14210</v>
+        <v>14786</v>
       </c>
       <c r="C2" t="s">
-        <v>14239</v>
+        <v>14815</v>
       </c>
       <c r="D2">
         <v>9808760</v>
@@ -44883,10 +46611,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14211</v>
+        <v>14787</v>
       </c>
       <c r="C3" t="s">
-        <v>14240</v>
+        <v>14816</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -44903,10 +46631,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14212</v>
+        <v>14788</v>
       </c>
       <c r="C4" t="s">
-        <v>14241</v>
+        <v>14817</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -44923,10 +46651,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14213</v>
+        <v>14789</v>
       </c>
       <c r="C5" t="s">
-        <v>14242</v>
+        <v>14818</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -44943,10 +46671,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14214</v>
+        <v>14790</v>
       </c>
       <c r="C6" t="s">
-        <v>14243</v>
+        <v>14819</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -44963,10 +46691,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14215</v>
+        <v>14791</v>
       </c>
       <c r="C7" t="s">
-        <v>14244</v>
+        <v>14820</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -44983,10 +46711,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14216</v>
+        <v>14792</v>
       </c>
       <c r="C8" t="s">
-        <v>14245</v>
+        <v>14821</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -45003,10 +46731,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14217</v>
+        <v>14793</v>
       </c>
       <c r="C9" t="s">
-        <v>14246</v>
+        <v>14822</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -45023,10 +46751,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14218</v>
+        <v>14794</v>
       </c>
       <c r="C10" t="s">
-        <v>14247</v>
+        <v>14823</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -45043,10 +46771,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14219</v>
+        <v>14795</v>
       </c>
       <c r="C11" t="s">
-        <v>14248</v>
+        <v>14824</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -45063,10 +46791,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14220</v>
+        <v>14796</v>
       </c>
       <c r="C12" t="s">
-        <v>14249</v>
+        <v>14825</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -45083,10 +46811,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14221</v>
+        <v>14797</v>
       </c>
       <c r="C13" t="s">
-        <v>14250</v>
+        <v>14826</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -45103,10 +46831,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14222</v>
+        <v>14798</v>
       </c>
       <c r="C14" t="s">
-        <v>14251</v>
+        <v>14827</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -45123,10 +46851,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14223</v>
+        <v>14799</v>
       </c>
       <c r="C15" t="s">
-        <v>14252</v>
+        <v>14828</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -45143,10 +46871,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14224</v>
+        <v>14800</v>
       </c>
       <c r="C16" t="s">
-        <v>14253</v>
+        <v>14829</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -45163,10 +46891,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14225</v>
+        <v>14801</v>
       </c>
       <c r="C17" t="s">
-        <v>14254</v>
+        <v>14830</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -45183,10 +46911,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14226</v>
+        <v>14802</v>
       </c>
       <c r="C18" t="s">
-        <v>14255</v>
+        <v>14831</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -45203,10 +46931,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14227</v>
+        <v>14803</v>
       </c>
       <c r="C19" t="s">
-        <v>14256</v>
+        <v>14832</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -45223,10 +46951,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14228</v>
+        <v>14804</v>
       </c>
       <c r="C20" t="s">
-        <v>14257</v>
+        <v>14833</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -45243,10 +46971,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14229</v>
+        <v>14805</v>
       </c>
       <c r="C21" t="s">
-        <v>14258</v>
+        <v>14834</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -45263,10 +46991,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14230</v>
+        <v>14806</v>
       </c>
       <c r="C22" t="s">
-        <v>14259</v>
+        <v>14835</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -45283,10 +47011,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14231</v>
+        <v>14807</v>
       </c>
       <c r="C23" t="s">
-        <v>14260</v>
+        <v>14836</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -45303,10 +47031,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14232</v>
+        <v>14808</v>
       </c>
       <c r="C24" t="s">
-        <v>14261</v>
+        <v>14837</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -45323,10 +47051,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14233</v>
+        <v>14809</v>
       </c>
       <c r="C25" t="s">
-        <v>14262</v>
+        <v>14838</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -45343,10 +47071,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14234</v>
+        <v>14810</v>
       </c>
       <c r="C26" t="s">
-        <v>14263</v>
+        <v>14839</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -45363,10 +47091,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14235</v>
+        <v>14811</v>
       </c>
       <c r="C27" t="s">
-        <v>14264</v>
+        <v>14840</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -45383,10 +47111,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14236</v>
+        <v>14812</v>
       </c>
       <c r="C28" t="s">
-        <v>14265</v>
+        <v>14841</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -45403,10 +47131,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14237</v>
+        <v>14813</v>
       </c>
       <c r="C29" t="s">
-        <v>14266</v>
+        <v>14842</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -45431,28 +47159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14272</v>
+        <v>14848</v>
       </c>
       <c r="B1" t="s">
-        <v>14273</v>
+        <v>14849</v>
       </c>
       <c r="C1" t="s">
-        <v>14302</v>
+        <v>14878</v>
       </c>
       <c r="D1" t="s">
-        <v>14331</v>
+        <v>14907</v>
       </c>
       <c r="E1" t="s">
-        <v>14332</v>
+        <v>14908</v>
       </c>
       <c r="F1" t="s">
-        <v>14333</v>
+        <v>14909</v>
       </c>
       <c r="G1" t="s">
-        <v>14334</v>
+        <v>14910</v>
       </c>
       <c r="H1" t="s">
-        <v>14335</v>
+        <v>14911</v>
       </c>
     </row>
     <row r="2">
@@ -45460,10 +47188,10 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>14274</v>
+        <v>14850</v>
       </c>
       <c r="C2" t="s">
-        <v>14303</v>
+        <v>14879</v>
       </c>
       <c r="D2">
         <v>9907490</v>
@@ -45484,10 +47212,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14275</v>
+        <v>14851</v>
       </c>
       <c r="C3" t="s">
-        <v>14304</v>
+        <v>14880</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -45504,10 +47232,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14276</v>
+        <v>14852</v>
       </c>
       <c r="C4" t="s">
-        <v>14305</v>
+        <v>14881</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -45524,10 +47252,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14277</v>
+        <v>14853</v>
       </c>
       <c r="C5" t="s">
-        <v>14306</v>
+        <v>14882</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -45544,10 +47272,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14278</v>
+        <v>14854</v>
       </c>
       <c r="C6" t="s">
-        <v>14307</v>
+        <v>14883</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -45564,10 +47292,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14279</v>
+        <v>14855</v>
       </c>
       <c r="C7" t="s">
-        <v>14308</v>
+        <v>14884</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -45584,10 +47312,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14280</v>
+        <v>14856</v>
       </c>
       <c r="C8" t="s">
-        <v>14309</v>
+        <v>14885</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -45604,10 +47332,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14281</v>
+        <v>14857</v>
       </c>
       <c r="C9" t="s">
-        <v>14310</v>
+        <v>14886</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -45624,10 +47352,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14282</v>
+        <v>14858</v>
       </c>
       <c r="C10" t="s">
-        <v>14311</v>
+        <v>14887</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -45644,10 +47372,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14283</v>
+        <v>14859</v>
       </c>
       <c r="C11" t="s">
-        <v>14312</v>
+        <v>14888</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -45664,10 +47392,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14284</v>
+        <v>14860</v>
       </c>
       <c r="C12" t="s">
-        <v>14313</v>
+        <v>14889</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -45684,10 +47412,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14285</v>
+        <v>14861</v>
       </c>
       <c r="C13" t="s">
-        <v>14314</v>
+        <v>14890</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -45704,10 +47432,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14286</v>
+        <v>14862</v>
       </c>
       <c r="C14" t="s">
-        <v>14315</v>
+        <v>14891</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -45724,10 +47452,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14287</v>
+        <v>14863</v>
       </c>
       <c r="C15" t="s">
-        <v>14316</v>
+        <v>14892</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -45744,10 +47472,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14288</v>
+        <v>14864</v>
       </c>
       <c r="C16" t="s">
-        <v>14317</v>
+        <v>14893</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -45764,10 +47492,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14289</v>
+        <v>14865</v>
       </c>
       <c r="C17" t="s">
-        <v>14318</v>
+        <v>14894</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -45784,10 +47512,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14290</v>
+        <v>14866</v>
       </c>
       <c r="C18" t="s">
-        <v>14319</v>
+        <v>14895</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -45804,10 +47532,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14291</v>
+        <v>14867</v>
       </c>
       <c r="C19" t="s">
-        <v>14320</v>
+        <v>14896</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -45824,10 +47552,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14292</v>
+        <v>14868</v>
       </c>
       <c r="C20" t="s">
-        <v>14321</v>
+        <v>14897</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -45844,10 +47572,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14293</v>
+        <v>14869</v>
       </c>
       <c r="C21" t="s">
-        <v>14322</v>
+        <v>14898</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -45864,10 +47592,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14294</v>
+        <v>14870</v>
       </c>
       <c r="C22" t="s">
-        <v>14323</v>
+        <v>14899</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -45884,10 +47612,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14295</v>
+        <v>14871</v>
       </c>
       <c r="C23" t="s">
-        <v>14324</v>
+        <v>14900</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -45904,10 +47632,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14296</v>
+        <v>14872</v>
       </c>
       <c r="C24" t="s">
-        <v>14325</v>
+        <v>14901</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -45924,10 +47652,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14297</v>
+        <v>14873</v>
       </c>
       <c r="C25" t="s">
-        <v>14326</v>
+        <v>14902</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -45944,10 +47672,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14298</v>
+        <v>14874</v>
       </c>
       <c r="C26" t="s">
-        <v>14327</v>
+        <v>14903</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -45964,10 +47692,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14299</v>
+        <v>14875</v>
       </c>
       <c r="C27" t="s">
-        <v>14328</v>
+        <v>14904</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -45984,10 +47712,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14300</v>
+        <v>14876</v>
       </c>
       <c r="C28" t="s">
-        <v>14329</v>
+        <v>14905</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -46004,10 +47732,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14301</v>
+        <v>14877</v>
       </c>
       <c r="C29" t="s">
-        <v>14330</v>
+        <v>14906</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -46032,28 +47760,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14336</v>
+        <v>14912</v>
       </c>
       <c r="B1" t="s">
-        <v>14337</v>
+        <v>14913</v>
       </c>
       <c r="C1" t="s">
-        <v>14366</v>
+        <v>14942</v>
       </c>
       <c r="D1" t="s">
-        <v>14395</v>
+        <v>14971</v>
       </c>
       <c r="E1" t="s">
-        <v>14396</v>
+        <v>14972</v>
       </c>
       <c r="F1" t="s">
-        <v>14397</v>
+        <v>14973</v>
       </c>
       <c r="G1" t="s">
-        <v>14398</v>
+        <v>14974</v>
       </c>
       <c r="H1" t="s">
-        <v>14399</v>
+        <v>14975</v>
       </c>
     </row>
     <row r="2">
@@ -46061,10 +47789,10 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>14338</v>
+        <v>14914</v>
       </c>
       <c r="C2" t="s">
-        <v>14367</v>
+        <v>14943</v>
       </c>
       <c r="D2">
         <v>10004233</v>
@@ -46085,10 +47813,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14339</v>
+        <v>14915</v>
       </c>
       <c r="C3" t="s">
-        <v>14368</v>
+        <v>14944</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -46105,10 +47833,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14340</v>
+        <v>14916</v>
       </c>
       <c r="C4" t="s">
-        <v>14369</v>
+        <v>14945</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -46125,10 +47853,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14341</v>
+        <v>14917</v>
       </c>
       <c r="C5" t="s">
-        <v>14370</v>
+        <v>14946</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -46145,10 +47873,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14342</v>
+        <v>14918</v>
       </c>
       <c r="C6" t="s">
-        <v>14371</v>
+        <v>14947</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -46165,10 +47893,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14343</v>
+        <v>14919</v>
       </c>
       <c r="C7" t="s">
-        <v>14372</v>
+        <v>14948</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -46185,10 +47913,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14344</v>
+        <v>14920</v>
       </c>
       <c r="C8" t="s">
-        <v>14373</v>
+        <v>14949</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -46205,10 +47933,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14345</v>
+        <v>14921</v>
       </c>
       <c r="C9" t="s">
-        <v>14374</v>
+        <v>14950</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -46225,10 +47953,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14346</v>
+        <v>14922</v>
       </c>
       <c r="C10" t="s">
-        <v>14375</v>
+        <v>14951</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -46245,10 +47973,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14347</v>
+        <v>14923</v>
       </c>
       <c r="C11" t="s">
-        <v>14376</v>
+        <v>14952</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -46265,10 +47993,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14348</v>
+        <v>14924</v>
       </c>
       <c r="C12" t="s">
-        <v>14377</v>
+        <v>14953</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -46285,10 +48013,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14349</v>
+        <v>14925</v>
       </c>
       <c r="C13" t="s">
-        <v>14378</v>
+        <v>14954</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -46305,10 +48033,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14350</v>
+        <v>14926</v>
       </c>
       <c r="C14" t="s">
-        <v>14379</v>
+        <v>14955</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -46325,10 +48053,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14351</v>
+        <v>14927</v>
       </c>
       <c r="C15" t="s">
-        <v>14380</v>
+        <v>14956</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -46345,10 +48073,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14352</v>
+        <v>14928</v>
       </c>
       <c r="C16" t="s">
-        <v>14381</v>
+        <v>14957</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -46365,10 +48093,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14353</v>
+        <v>14929</v>
       </c>
       <c r="C17" t="s">
-        <v>14382</v>
+        <v>14958</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -46385,10 +48113,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14354</v>
+        <v>14930</v>
       </c>
       <c r="C18" t="s">
-        <v>14383</v>
+        <v>14959</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -46405,10 +48133,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14355</v>
+        <v>14931</v>
       </c>
       <c r="C19" t="s">
-        <v>14384</v>
+        <v>14960</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -46425,10 +48153,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14356</v>
+        <v>14932</v>
       </c>
       <c r="C20" t="s">
-        <v>14385</v>
+        <v>14961</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -46445,10 +48173,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14357</v>
+        <v>14933</v>
       </c>
       <c r="C21" t="s">
-        <v>14386</v>
+        <v>14962</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -46465,10 +48193,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14358</v>
+        <v>14934</v>
       </c>
       <c r="C22" t="s">
-        <v>14387</v>
+        <v>14963</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -46485,10 +48213,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14359</v>
+        <v>14935</v>
       </c>
       <c r="C23" t="s">
-        <v>14388</v>
+        <v>14964</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -46505,10 +48233,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14360</v>
+        <v>14936</v>
       </c>
       <c r="C24" t="s">
-        <v>14389</v>
+        <v>14965</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -46525,10 +48253,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14361</v>
+        <v>14937</v>
       </c>
       <c r="C25" t="s">
-        <v>14390</v>
+        <v>14966</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -46545,10 +48273,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14362</v>
+        <v>14938</v>
       </c>
       <c r="C26" t="s">
-        <v>14391</v>
+        <v>14967</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -46565,10 +48293,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14363</v>
+        <v>14939</v>
       </c>
       <c r="C27" t="s">
-        <v>14392</v>
+        <v>14968</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -46585,10 +48313,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14364</v>
+        <v>14940</v>
       </c>
       <c r="C28" t="s">
-        <v>14393</v>
+        <v>14969</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -46605,10 +48333,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14365</v>
+        <v>14941</v>
       </c>
       <c r="C29" t="s">
-        <v>14394</v>
+        <v>14970</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -46633,28 +48361,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14400</v>
+        <v>14976</v>
       </c>
       <c r="B1" t="s">
-        <v>14401</v>
+        <v>14977</v>
       </c>
       <c r="C1" t="s">
-        <v>14430</v>
+        <v>15006</v>
       </c>
       <c r="D1" t="s">
-        <v>14459</v>
+        <v>15035</v>
       </c>
       <c r="E1" t="s">
-        <v>14460</v>
+        <v>15036</v>
       </c>
       <c r="F1" t="s">
-        <v>14461</v>
+        <v>15037</v>
       </c>
       <c r="G1" t="s">
-        <v>14462</v>
+        <v>15038</v>
       </c>
       <c r="H1" t="s">
-        <v>14463</v>
+        <v>15039</v>
       </c>
     </row>
     <row r="2">
@@ -46662,10 +48390,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>14402</v>
+        <v>14978</v>
       </c>
       <c r="C2" t="s">
-        <v>14431</v>
+        <v>15007</v>
       </c>
       <c r="D2">
         <v>10076137</v>
@@ -46686,10 +48414,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14403</v>
+        <v>14979</v>
       </c>
       <c r="C3" t="s">
-        <v>14432</v>
+        <v>15008</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -46706,10 +48434,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14404</v>
+        <v>14980</v>
       </c>
       <c r="C4" t="s">
-        <v>14433</v>
+        <v>15009</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -46726,10 +48454,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14405</v>
+        <v>14981</v>
       </c>
       <c r="C5" t="s">
-        <v>14434</v>
+        <v>15010</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -46746,10 +48474,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14406</v>
+        <v>14982</v>
       </c>
       <c r="C6" t="s">
-        <v>14435</v>
+        <v>15011</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -46766,10 +48494,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14407</v>
+        <v>14983</v>
       </c>
       <c r="C7" t="s">
-        <v>14436</v>
+        <v>15012</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -46786,10 +48514,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14408</v>
+        <v>14984</v>
       </c>
       <c r="C8" t="s">
-        <v>14437</v>
+        <v>15013</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -46806,10 +48534,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14409</v>
+        <v>14985</v>
       </c>
       <c r="C9" t="s">
-        <v>14438</v>
+        <v>15014</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -46826,10 +48554,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14410</v>
+        <v>14986</v>
       </c>
       <c r="C10" t="s">
-        <v>14439</v>
+        <v>15015</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -46846,10 +48574,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14411</v>
+        <v>14987</v>
       </c>
       <c r="C11" t="s">
-        <v>14440</v>
+        <v>15016</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -46866,10 +48594,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14412</v>
+        <v>14988</v>
       </c>
       <c r="C12" t="s">
-        <v>14441</v>
+        <v>15017</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -46886,10 +48614,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14413</v>
+        <v>14989</v>
       </c>
       <c r="C13" t="s">
-        <v>14442</v>
+        <v>15018</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -46906,10 +48634,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14414</v>
+        <v>14990</v>
       </c>
       <c r="C14" t="s">
-        <v>14443</v>
+        <v>15019</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -46926,10 +48654,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14415</v>
+        <v>14991</v>
       </c>
       <c r="C15" t="s">
-        <v>14444</v>
+        <v>15020</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -46946,10 +48674,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14416</v>
+        <v>14992</v>
       </c>
       <c r="C16" t="s">
-        <v>14445</v>
+        <v>15021</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -46966,10 +48694,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14417</v>
+        <v>14993</v>
       </c>
       <c r="C17" t="s">
-        <v>14446</v>
+        <v>15022</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -46986,10 +48714,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14418</v>
+        <v>14994</v>
       </c>
       <c r="C18" t="s">
-        <v>14447</v>
+        <v>15023</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -47006,10 +48734,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14419</v>
+        <v>14995</v>
       </c>
       <c r="C19" t="s">
-        <v>14448</v>
+        <v>15024</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -47026,10 +48754,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14420</v>
+        <v>14996</v>
       </c>
       <c r="C20" t="s">
-        <v>14449</v>
+        <v>15025</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -47046,10 +48774,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14421</v>
+        <v>14997</v>
       </c>
       <c r="C21" t="s">
-        <v>14450</v>
+        <v>15026</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -47066,10 +48794,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14422</v>
+        <v>14998</v>
       </c>
       <c r="C22" t="s">
-        <v>14451</v>
+        <v>15027</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -47086,10 +48814,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14423</v>
+        <v>14999</v>
       </c>
       <c r="C23" t="s">
-        <v>14452</v>
+        <v>15028</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -47106,10 +48834,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14424</v>
+        <v>15000</v>
       </c>
       <c r="C24" t="s">
-        <v>14453</v>
+        <v>15029</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -47126,10 +48854,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14425</v>
+        <v>15001</v>
       </c>
       <c r="C25" t="s">
-        <v>14454</v>
+        <v>15030</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -47146,10 +48874,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14426</v>
+        <v>15002</v>
       </c>
       <c r="C26" t="s">
-        <v>14455</v>
+        <v>15031</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -47166,10 +48894,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14427</v>
+        <v>15003</v>
       </c>
       <c r="C27" t="s">
-        <v>14456</v>
+        <v>15032</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -47186,10 +48914,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14428</v>
+        <v>15004</v>
       </c>
       <c r="C28" t="s">
-        <v>14457</v>
+        <v>15033</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -47206,10 +48934,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14429</v>
+        <v>15005</v>
       </c>
       <c r="C29" t="s">
-        <v>14458</v>
+        <v>15034</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -47234,28 +48962,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14464</v>
+        <v>15040</v>
       </c>
       <c r="B1" t="s">
-        <v>14465</v>
+        <v>15041</v>
       </c>
       <c r="C1" t="s">
-        <v>14494</v>
+        <v>15070</v>
       </c>
       <c r="D1" t="s">
-        <v>14523</v>
+        <v>15099</v>
       </c>
       <c r="E1" t="s">
-        <v>14524</v>
+        <v>15100</v>
       </c>
       <c r="F1" t="s">
-        <v>14525</v>
+        <v>15101</v>
       </c>
       <c r="G1" t="s">
-        <v>14526</v>
+        <v>15102</v>
       </c>
       <c r="H1" t="s">
-        <v>14527</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="2">
@@ -47263,10 +48991,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>14466</v>
+        <v>15042</v>
       </c>
       <c r="C2" t="s">
-        <v>14495</v>
+        <v>15071</v>
       </c>
       <c r="D2">
         <v>10172111</v>
@@ -47287,10 +49015,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14467</v>
+        <v>15043</v>
       </c>
       <c r="C3" t="s">
-        <v>14496</v>
+        <v>15072</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -47307,10 +49035,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14468</v>
+        <v>15044</v>
       </c>
       <c r="C4" t="s">
-        <v>14497</v>
+        <v>15073</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -47327,10 +49055,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14469</v>
+        <v>15045</v>
       </c>
       <c r="C5" t="s">
-        <v>14498</v>
+        <v>15074</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -47347,10 +49075,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14470</v>
+        <v>15046</v>
       </c>
       <c r="C6" t="s">
-        <v>14499</v>
+        <v>15075</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -47367,10 +49095,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14471</v>
+        <v>15047</v>
       </c>
       <c r="C7" t="s">
-        <v>14500</v>
+        <v>15076</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -47387,10 +49115,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14472</v>
+        <v>15048</v>
       </c>
       <c r="C8" t="s">
-        <v>14501</v>
+        <v>15077</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -47407,10 +49135,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14473</v>
+        <v>15049</v>
       </c>
       <c r="C9" t="s">
-        <v>14502</v>
+        <v>15078</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -47427,10 +49155,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14474</v>
+        <v>15050</v>
       </c>
       <c r="C10" t="s">
-        <v>14503</v>
+        <v>15079</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -47447,10 +49175,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14475</v>
+        <v>15051</v>
       </c>
       <c r="C11" t="s">
-        <v>14504</v>
+        <v>15080</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -47467,10 +49195,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14476</v>
+        <v>15052</v>
       </c>
       <c r="C12" t="s">
-        <v>14505</v>
+        <v>15081</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -47487,10 +49215,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14477</v>
+        <v>15053</v>
       </c>
       <c r="C13" t="s">
-        <v>14506</v>
+        <v>15082</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -47507,10 +49235,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14478</v>
+        <v>15054</v>
       </c>
       <c r="C14" t="s">
-        <v>14507</v>
+        <v>15083</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -47527,10 +49255,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14479</v>
+        <v>15055</v>
       </c>
       <c r="C15" t="s">
-        <v>14508</v>
+        <v>15084</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -47547,10 +49275,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14480</v>
+        <v>15056</v>
       </c>
       <c r="C16" t="s">
-        <v>14509</v>
+        <v>15085</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -47567,10 +49295,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14481</v>
+        <v>15057</v>
       </c>
       <c r="C17" t="s">
-        <v>14510</v>
+        <v>15086</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -47587,10 +49315,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14482</v>
+        <v>15058</v>
       </c>
       <c r="C18" t="s">
-        <v>14511</v>
+        <v>15087</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -47607,10 +49335,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14483</v>
+        <v>15059</v>
       </c>
       <c r="C19" t="s">
-        <v>14512</v>
+        <v>15088</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -47627,10 +49355,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14484</v>
+        <v>15060</v>
       </c>
       <c r="C20" t="s">
-        <v>14513</v>
+        <v>15089</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -47647,10 +49375,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14485</v>
+        <v>15061</v>
       </c>
       <c r="C21" t="s">
-        <v>14514</v>
+        <v>15090</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -47667,10 +49395,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14486</v>
+        <v>15062</v>
       </c>
       <c r="C22" t="s">
-        <v>14515</v>
+        <v>15091</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -47687,10 +49415,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14487</v>
+        <v>15063</v>
       </c>
       <c r="C23" t="s">
-        <v>14516</v>
+        <v>15092</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -47707,10 +49435,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14488</v>
+        <v>15064</v>
       </c>
       <c r="C24" t="s">
-        <v>14517</v>
+        <v>15093</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -47727,10 +49455,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14489</v>
+        <v>15065</v>
       </c>
       <c r="C25" t="s">
-        <v>14518</v>
+        <v>15094</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -47747,10 +49475,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14490</v>
+        <v>15066</v>
       </c>
       <c r="C26" t="s">
-        <v>14519</v>
+        <v>15095</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -47767,10 +49495,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14491</v>
+        <v>15067</v>
       </c>
       <c r="C27" t="s">
-        <v>14520</v>
+        <v>15096</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -47787,10 +49515,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14492</v>
+        <v>15068</v>
       </c>
       <c r="C28" t="s">
-        <v>14521</v>
+        <v>15097</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -47807,10 +49535,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14493</v>
+        <v>15069</v>
       </c>
       <c r="C29" t="s">
-        <v>14522</v>
+        <v>15098</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -47835,28 +49563,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14528</v>
+        <v>15104</v>
       </c>
       <c r="B1" t="s">
-        <v>14529</v>
+        <v>15105</v>
       </c>
       <c r="C1" t="s">
-        <v>14558</v>
+        <v>15134</v>
       </c>
       <c r="D1" t="s">
-        <v>14587</v>
+        <v>15163</v>
       </c>
       <c r="E1" t="s">
-        <v>14588</v>
+        <v>15164</v>
       </c>
       <c r="F1" t="s">
-        <v>14589</v>
+        <v>15165</v>
       </c>
       <c r="G1" t="s">
-        <v>14590</v>
+        <v>15166</v>
       </c>
       <c r="H1" t="s">
-        <v>14591</v>
+        <v>15167</v>
       </c>
     </row>
     <row r="2">
@@ -47864,10 +49592,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>14530</v>
+        <v>15106</v>
       </c>
       <c r="C2" t="s">
-        <v>14559</v>
+        <v>15135</v>
       </c>
       <c r="D2">
         <v>10266524</v>
@@ -47888,10 +49616,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14531</v>
+        <v>15107</v>
       </c>
       <c r="C3" t="s">
-        <v>14560</v>
+        <v>15136</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -47908,10 +49636,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14532</v>
+        <v>15108</v>
       </c>
       <c r="C4" t="s">
-        <v>14561</v>
+        <v>15137</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -47928,10 +49656,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14533</v>
+        <v>15109</v>
       </c>
       <c r="C5" t="s">
-        <v>14562</v>
+        <v>15138</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -47948,10 +49676,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14534</v>
+        <v>15110</v>
       </c>
       <c r="C6" t="s">
-        <v>14563</v>
+        <v>15139</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -47968,10 +49696,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14535</v>
+        <v>15111</v>
       </c>
       <c r="C7" t="s">
-        <v>14564</v>
+        <v>15140</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -47988,10 +49716,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14536</v>
+        <v>15112</v>
       </c>
       <c r="C8" t="s">
-        <v>14565</v>
+        <v>15141</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -48008,10 +49736,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14537</v>
+        <v>15113</v>
       </c>
       <c r="C9" t="s">
-        <v>14566</v>
+        <v>15142</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -48028,10 +49756,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14538</v>
+        <v>15114</v>
       </c>
       <c r="C10" t="s">
-        <v>14567</v>
+        <v>15143</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -48048,10 +49776,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14539</v>
+        <v>15115</v>
       </c>
       <c r="C11" t="s">
-        <v>14568</v>
+        <v>15144</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -48068,10 +49796,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14540</v>
+        <v>15116</v>
       </c>
       <c r="C12" t="s">
-        <v>14569</v>
+        <v>15145</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -48088,10 +49816,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14541</v>
+        <v>15117</v>
       </c>
       <c r="C13" t="s">
-        <v>14570</v>
+        <v>15146</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -48108,10 +49836,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14542</v>
+        <v>15118</v>
       </c>
       <c r="C14" t="s">
-        <v>14571</v>
+        <v>15147</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -48128,10 +49856,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14543</v>
+        <v>15119</v>
       </c>
       <c r="C15" t="s">
-        <v>14572</v>
+        <v>15148</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -48148,10 +49876,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14544</v>
+        <v>15120</v>
       </c>
       <c r="C16" t="s">
-        <v>14573</v>
+        <v>15149</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -48168,10 +49896,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14545</v>
+        <v>15121</v>
       </c>
       <c r="C17" t="s">
-        <v>14574</v>
+        <v>15150</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -48188,10 +49916,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14546</v>
+        <v>15122</v>
       </c>
       <c r="C18" t="s">
-        <v>14575</v>
+        <v>15151</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -48208,10 +49936,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14547</v>
+        <v>15123</v>
       </c>
       <c r="C19" t="s">
-        <v>14576</v>
+        <v>15152</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -48228,10 +49956,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14548</v>
+        <v>15124</v>
       </c>
       <c r="C20" t="s">
-        <v>14577</v>
+        <v>15153</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -48248,10 +49976,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14549</v>
+        <v>15125</v>
       </c>
       <c r="C21" t="s">
-        <v>14578</v>
+        <v>15154</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -48268,10 +49996,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14550</v>
+        <v>15126</v>
       </c>
       <c r="C22" t="s">
-        <v>14579</v>
+        <v>15155</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -48288,10 +50016,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14551</v>
+        <v>15127</v>
       </c>
       <c r="C23" t="s">
-        <v>14580</v>
+        <v>15156</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -48308,10 +50036,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14552</v>
+        <v>15128</v>
       </c>
       <c r="C24" t="s">
-        <v>14581</v>
+        <v>15157</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -48328,10 +50056,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14553</v>
+        <v>15129</v>
       </c>
       <c r="C25" t="s">
-        <v>14582</v>
+        <v>15158</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -48348,10 +50076,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14554</v>
+        <v>15130</v>
       </c>
       <c r="C26" t="s">
-        <v>14583</v>
+        <v>15159</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -48368,10 +50096,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14555</v>
+        <v>15131</v>
       </c>
       <c r="C27" t="s">
-        <v>14584</v>
+        <v>15160</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -48388,10 +50116,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14556</v>
+        <v>15132</v>
       </c>
       <c r="C28" t="s">
-        <v>14585</v>
+        <v>15161</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -48408,10 +50136,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14557</v>
+        <v>15133</v>
       </c>
       <c r="C29" t="s">
-        <v>14586</v>
+        <v>15162</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -48436,28 +50164,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14592</v>
+        <v>15168</v>
       </c>
       <c r="B1" t="s">
-        <v>14593</v>
+        <v>15169</v>
       </c>
       <c r="C1" t="s">
-        <v>14622</v>
+        <v>15198</v>
       </c>
       <c r="D1" t="s">
-        <v>14651</v>
+        <v>15227</v>
       </c>
       <c r="E1" t="s">
-        <v>14652</v>
+        <v>15228</v>
       </c>
       <c r="F1" t="s">
-        <v>14653</v>
+        <v>15229</v>
       </c>
       <c r="G1" t="s">
-        <v>14654</v>
+        <v>15230</v>
       </c>
       <c r="H1" t="s">
-        <v>14655</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="2">
@@ -48465,10 +50193,10 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>14594</v>
+        <v>15170</v>
       </c>
       <c r="C2" t="s">
-        <v>14623</v>
+        <v>15199</v>
       </c>
       <c r="D2">
         <v>10356426</v>
@@ -48489,10 +50217,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14595</v>
+        <v>15171</v>
       </c>
       <c r="C3" t="s">
-        <v>14624</v>
+        <v>15200</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -48509,10 +50237,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14596</v>
+        <v>15172</v>
       </c>
       <c r="C4" t="s">
-        <v>14625</v>
+        <v>15201</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -48529,10 +50257,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14597</v>
+        <v>15173</v>
       </c>
       <c r="C5" t="s">
-        <v>14626</v>
+        <v>15202</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -48549,10 +50277,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14598</v>
+        <v>15174</v>
       </c>
       <c r="C6" t="s">
-        <v>14627</v>
+        <v>15203</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -48569,10 +50297,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14599</v>
+        <v>15175</v>
       </c>
       <c r="C7" t="s">
-        <v>14628</v>
+        <v>15204</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -48589,10 +50317,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14600</v>
+        <v>15176</v>
       </c>
       <c r="C8" t="s">
-        <v>14629</v>
+        <v>15205</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -48609,10 +50337,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14601</v>
+        <v>15177</v>
       </c>
       <c r="C9" t="s">
-        <v>14630</v>
+        <v>15206</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -48629,10 +50357,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14602</v>
+        <v>15178</v>
       </c>
       <c r="C10" t="s">
-        <v>14631</v>
+        <v>15207</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -48649,10 +50377,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14603</v>
+        <v>15179</v>
       </c>
       <c r="C11" t="s">
-        <v>14632</v>
+        <v>15208</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -48669,10 +50397,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14604</v>
+        <v>15180</v>
       </c>
       <c r="C12" t="s">
-        <v>14633</v>
+        <v>15209</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -48689,10 +50417,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14605</v>
+        <v>15181</v>
       </c>
       <c r="C13" t="s">
-        <v>14634</v>
+        <v>15210</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -48709,10 +50437,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14606</v>
+        <v>15182</v>
       </c>
       <c r="C14" t="s">
-        <v>14635</v>
+        <v>15211</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -48729,10 +50457,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14607</v>
+        <v>15183</v>
       </c>
       <c r="C15" t="s">
-        <v>14636</v>
+        <v>15212</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -48749,10 +50477,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14608</v>
+        <v>15184</v>
       </c>
       <c r="C16" t="s">
-        <v>14637</v>
+        <v>15213</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -48769,10 +50497,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14609</v>
+        <v>15185</v>
       </c>
       <c r="C17" t="s">
-        <v>14638</v>
+        <v>15214</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -48789,10 +50517,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14610</v>
+        <v>15186</v>
       </c>
       <c r="C18" t="s">
-        <v>14639</v>
+        <v>15215</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -48809,10 +50537,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14611</v>
+        <v>15187</v>
       </c>
       <c r="C19" t="s">
-        <v>14640</v>
+        <v>15216</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -48829,10 +50557,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14612</v>
+        <v>15188</v>
       </c>
       <c r="C20" t="s">
-        <v>14641</v>
+        <v>15217</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -48849,10 +50577,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14613</v>
+        <v>15189</v>
       </c>
       <c r="C21" t="s">
-        <v>14642</v>
+        <v>15218</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -48869,10 +50597,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14614</v>
+        <v>15190</v>
       </c>
       <c r="C22" t="s">
-        <v>14643</v>
+        <v>15219</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -48889,10 +50617,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14615</v>
+        <v>15191</v>
       </c>
       <c r="C23" t="s">
-        <v>14644</v>
+        <v>15220</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -48909,10 +50637,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14616</v>
+        <v>15192</v>
       </c>
       <c r="C24" t="s">
-        <v>14645</v>
+        <v>15221</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -48929,10 +50657,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14617</v>
+        <v>15193</v>
       </c>
       <c r="C25" t="s">
-        <v>14646</v>
+        <v>15222</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -48949,10 +50677,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14618</v>
+        <v>15194</v>
       </c>
       <c r="C26" t="s">
-        <v>14647</v>
+        <v>15223</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -48969,10 +50697,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14619</v>
+        <v>15195</v>
       </c>
       <c r="C27" t="s">
-        <v>14648</v>
+        <v>15224</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -48989,10 +50717,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14620</v>
+        <v>15196</v>
       </c>
       <c r="C28" t="s">
-        <v>14649</v>
+        <v>15225</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -49009,10 +50737,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14621</v>
+        <v>15197</v>
       </c>
       <c r="C29" t="s">
-        <v>14650</v>
+        <v>15226</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -49037,28 +50765,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14656</v>
+        <v>15232</v>
       </c>
       <c r="B1" t="s">
-        <v>14657</v>
+        <v>15233</v>
       </c>
       <c r="C1" t="s">
-        <v>14686</v>
+        <v>15262</v>
       </c>
       <c r="D1" t="s">
-        <v>14715</v>
+        <v>15291</v>
       </c>
       <c r="E1" t="s">
-        <v>14716</v>
+        <v>15292</v>
       </c>
       <c r="F1" t="s">
-        <v>14717</v>
+        <v>15293</v>
       </c>
       <c r="G1" t="s">
-        <v>14718</v>
+        <v>15294</v>
       </c>
       <c r="H1" t="s">
-        <v>14719</v>
+        <v>15295</v>
       </c>
     </row>
     <row r="2">
@@ -49066,10 +50794,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>14658</v>
+        <v>15234</v>
       </c>
       <c r="C2" t="s">
-        <v>14687</v>
+        <v>15263</v>
       </c>
       <c r="D2">
         <v>10446760</v>
@@ -49090,10 +50818,10 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>14659</v>
+        <v>15235</v>
       </c>
       <c r="C3" t="s">
-        <v>14688</v>
+        <v>15264</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -49110,10 +50838,10 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>14660</v>
+        <v>15236</v>
       </c>
       <c r="C4" t="s">
-        <v>14689</v>
+        <v>15265</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -49130,10 +50858,10 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>14661</v>
+        <v>15237</v>
       </c>
       <c r="C5" t="s">
-        <v>14690</v>
+        <v>15266</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -49150,10 +50878,10 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>14662</v>
+        <v>15238</v>
       </c>
       <c r="C6" t="s">
-        <v>14691</v>
+        <v>15267</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -49170,10 +50898,10 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>14663</v>
+        <v>15239</v>
       </c>
       <c r="C7" t="s">
-        <v>14692</v>
+        <v>15268</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -49190,10 +50918,10 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>14664</v>
+        <v>15240</v>
       </c>
       <c r="C8" t="s">
-        <v>14693</v>
+        <v>15269</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -49210,10 +50938,10 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>14665</v>
+        <v>15241</v>
       </c>
       <c r="C9" t="s">
-        <v>14694</v>
+        <v>15270</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -49230,10 +50958,10 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>14666</v>
+        <v>15242</v>
       </c>
       <c r="C10" t="s">
-        <v>14695</v>
+        <v>15271</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -49250,10 +50978,10 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>14667</v>
+        <v>15243</v>
       </c>
       <c r="C11" t="s">
-        <v>14696</v>
+        <v>15272</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -49270,10 +50998,10 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>14668</v>
+        <v>15244</v>
       </c>
       <c r="C12" t="s">
-        <v>14697</v>
+        <v>15273</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -49290,10 +51018,10 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>14669</v>
+        <v>15245</v>
       </c>
       <c r="C13" t="s">
-        <v>14698</v>
+        <v>15274</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -49310,10 +51038,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14670</v>
+        <v>15246</v>
       </c>
       <c r="C14" t="s">
-        <v>14699</v>
+        <v>15275</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -49330,10 +51058,10 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>14671</v>
+        <v>15247</v>
       </c>
       <c r="C15" t="s">
-        <v>14700</v>
+        <v>15276</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -49350,10 +51078,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>14672</v>
+        <v>15248</v>
       </c>
       <c r="C16" t="s">
-        <v>14701</v>
+        <v>15277</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -49370,10 +51098,10 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>14673</v>
+        <v>15249</v>
       </c>
       <c r="C17" t="s">
-        <v>14702</v>
+        <v>15278</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -49390,10 +51118,10 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>14674</v>
+        <v>15250</v>
       </c>
       <c r="C18" t="s">
-        <v>14703</v>
+        <v>15279</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -49410,10 +51138,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>14675</v>
+        <v>15251</v>
       </c>
       <c r="C19" t="s">
-        <v>14704</v>
+        <v>15280</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -49430,10 +51158,10 @@
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>14676</v>
+        <v>15252</v>
       </c>
       <c r="C20" t="s">
-        <v>14705</v>
+        <v>15281</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -49450,10 +51178,10 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>14677</v>
+        <v>15253</v>
       </c>
       <c r="C21" t="s">
-        <v>14706</v>
+        <v>15282</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -49470,10 +51198,10 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s">
-        <v>14678</v>
+        <v>15254</v>
       </c>
       <c r="C22" t="s">
-        <v>14707</v>
+        <v>15283</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -49490,10 +51218,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>14679</v>
+        <v>15255</v>
       </c>
       <c r="C23" t="s">
-        <v>14708</v>
+        <v>15284</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -49510,10 +51238,10 @@
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s">
-        <v>14680</v>
+        <v>15256</v>
       </c>
       <c r="C24" t="s">
-        <v>14709</v>
+        <v>15285</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -49530,10 +51258,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>14681</v>
+        <v>15257</v>
       </c>
       <c r="C25" t="s">
-        <v>14710</v>
+        <v>15286</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -49550,10 +51278,10 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>14682</v>
+        <v>15258</v>
       </c>
       <c r="C26" t="s">
-        <v>14711</v>
+        <v>15287</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -49570,10 +51298,10 @@
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>14683</v>
+        <v>15259</v>
       </c>
       <c r="C27" t="s">
-        <v>14712</v>
+        <v>15288</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -49590,10 +51318,10 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>14684</v>
+        <v>15260</v>
       </c>
       <c r="C28" t="s">
-        <v>14713</v>
+        <v>15289</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -49610,10 +51338,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>14685</v>
+        <v>15261</v>
       </c>
       <c r="C29" t="s">
-        <v>14714</v>
+        <v>15290</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
